--- a/CTG.xlsx
+++ b/CTG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5115" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="1160">
   <si>
     <t>correct</t>
   </si>
@@ -2420,6 +2420,9 @@
     <t>Vĩnh Hưng</t>
   </si>
   <si>
+    <t>Đạ Tẻh</t>
+  </si>
+  <si>
     <t>quy nhơn</t>
   </si>
   <si>
@@ -3101,9 +3104,6 @@
     <t>An Thuận</t>
   </si>
   <si>
-    <t>Đạ Tẻh</t>
-  </si>
-  <si>
     <t>Hội An</t>
   </si>
   <si>
@@ -3471,6 +3471,9 @@
   </si>
   <si>
     <t>Đông Xuyên</t>
+  </si>
+  <si>
+    <t>Tản Hồng</t>
   </si>
   <si>
     <t>vĩnh hòa</t>
@@ -3874,19 +3877,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1304</v>
+        <v>1284</v>
       </c>
       <c r="B2">
         <v>1350</v>
       </c>
       <c r="C2">
-        <v>9.66</v>
+        <v>9.51</v>
       </c>
       <c r="D2">
-        <v>0.0104</v>
+        <v>0.0163</v>
       </c>
       <c r="E2">
-        <v>0.0041</v>
+        <v>0.0039</v>
       </c>
     </row>
   </sheetData>
@@ -3999,16 +4002,16 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -4017,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>0.0065639</v>
+        <v>0.005858667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4064,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0.0036053</v>
+        <v>0.003416416</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4117,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0040232</v>
+        <v>0.002783167</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4176,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>0.0071313</v>
+        <v>0.005995417</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4217,16 +4220,16 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="P6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4235,7 +4238,7 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <v>0.0032706</v>
+        <v>0.002654125</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4276,16 +4279,16 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="O7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="P7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -4294,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>0.0064326</v>
+        <v>0.004733083</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4335,16 +4338,16 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="P8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -4353,7 +4356,7 @@
         <v>3</v>
       </c>
       <c r="S8">
-        <v>0.0053497</v>
+        <v>0.004404917</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4394,16 +4397,16 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="P9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -4412,7 +4415,7 @@
         <v>3</v>
       </c>
       <c r="S9">
-        <v>0.0062151</v>
+        <v>0.005030375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4453,16 +4456,16 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="N10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="O10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -4471,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="S10">
-        <v>0.0064651</v>
+        <v>0.005244042</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4512,16 +4515,16 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="O11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -4530,7 +4533,7 @@
         <v>3</v>
       </c>
       <c r="S11">
-        <v>0.0040621</v>
+        <v>0.003667333</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4577,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="S12">
-        <v>0.0054638</v>
+        <v>0.004494417</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4618,16 +4621,16 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="O13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="P13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -4636,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="S13">
-        <v>0.0070487</v>
+        <v>0.004926583</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4677,16 +4680,16 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="P14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -4695,7 +4698,7 @@
         <v>3</v>
       </c>
       <c r="S14">
-        <v>0.0017586</v>
+        <v>0.001483</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4736,16 +4739,16 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="N15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="O15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4754,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="S15">
-        <v>0.0053188</v>
+        <v>0.004334667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4795,16 +4798,16 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="N16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="O16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="P16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4813,7 +4816,7 @@
         <v>3</v>
       </c>
       <c r="S16">
-        <v>0.0033936</v>
+        <v>0.003214667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4854,13 +4857,13 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N17" t="s">
         <v>1139</v>
       </c>
       <c r="O17" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="P17" t="s">
         <v>1139</v>
@@ -4872,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="S17">
-        <v>0.0069188</v>
+        <v>0.005565042</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4913,16 +4916,16 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="P18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4931,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="S18">
-        <v>0.0047031</v>
+        <v>0.004066792</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4972,16 +4975,16 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="N19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="P19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4990,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>0.0052095</v>
+        <v>0.004803792</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5031,16 +5034,16 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="O20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="P20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5049,7 +5052,7 @@
         <v>3</v>
       </c>
       <c r="S20">
-        <v>0.0056901</v>
+        <v>0.004922292</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -5090,16 +5093,16 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="O21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5108,7 +5111,7 @@
         <v>3</v>
       </c>
       <c r="S21">
-        <v>0.0039542</v>
+        <v>0.004710667</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -5149,16 +5152,16 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="O22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5167,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="S22">
-        <v>0.004257</v>
+        <v>0.005088833</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5226,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="S23">
-        <v>0.0024968</v>
+        <v>0.002950083</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -5267,16 +5270,16 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -5285,7 +5288,7 @@
         <v>3</v>
       </c>
       <c r="S24">
-        <v>0.0045673</v>
+        <v>0.003318167</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5326,16 +5329,16 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5344,7 +5347,7 @@
         <v>3</v>
       </c>
       <c r="S25">
-        <v>0.0037975</v>
+        <v>0.003314625</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5385,16 +5388,16 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5403,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="S26">
-        <v>0.0023242</v>
+        <v>0.002124</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5444,16 +5447,16 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -5462,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="S27">
-        <v>0.0064837</v>
+        <v>0.006100542</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5503,16 +5506,16 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="N28" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="O28" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="P28" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -5521,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="S28">
-        <v>0.0066287</v>
+        <v>0.004863375</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5562,16 +5565,16 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="N29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="O29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -5580,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="S29">
-        <v>0.0054453</v>
+        <v>0.004750167</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5603,7 +5606,7 @@
         <v>3</v>
       </c>
       <c r="S30">
-        <v>1.1E-06</v>
+        <v>7.92E-07</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5644,16 +5647,16 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -5662,7 +5665,7 @@
         <v>3</v>
       </c>
       <c r="S31">
-        <v>0.0036903</v>
+        <v>0.003078125</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5703,16 +5706,16 @@
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -5721,7 +5724,7 @@
         <v>3</v>
       </c>
       <c r="S32">
-        <v>0.0086371</v>
+        <v>0.006172542</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5762,16 +5765,16 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="O33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -5780,7 +5783,7 @@
         <v>3</v>
       </c>
       <c r="S33">
-        <v>0.0018244</v>
+        <v>0.001583541</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5821,16 +5824,16 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N34" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O34" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="P34" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -5839,7 +5842,7 @@
         <v>3</v>
       </c>
       <c r="S34">
-        <v>0.0017431</v>
+        <v>0.001643459</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5880,16 +5883,16 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="N35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="O35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -5898,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="S35">
-        <v>0.0035117</v>
+        <v>0.003154125</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5939,16 +5942,16 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N36" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="O36" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P36" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -5957,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="S36">
-        <v>0.0060525</v>
+        <v>0.004850125</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -5998,16 +6001,16 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N37" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="O37" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P37" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -6016,7 +6019,7 @@
         <v>3</v>
       </c>
       <c r="S37">
-        <v>0.0059067</v>
+        <v>0.005156625</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -6057,16 +6060,16 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N38" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="O38" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P38" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -6075,7 +6078,7 @@
         <v>3</v>
       </c>
       <c r="S38">
-        <v>0.0084216</v>
+        <v>0.007237458</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -6134,7 +6137,7 @@
         <v>3</v>
       </c>
       <c r="S39">
-        <v>0.0063315</v>
+        <v>0.004954167</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -6175,16 +6178,16 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N40" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O40" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P40" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -6193,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="S40">
-        <v>0.0069099</v>
+        <v>0.005738083</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -6234,16 +6237,16 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="N41" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O41" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P41" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -6252,7 +6255,7 @@
         <v>3</v>
       </c>
       <c r="S41">
-        <v>0.0076498</v>
+        <v>0.005672291</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -6293,16 +6296,16 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N42" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="O42" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P42" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -6311,7 +6314,7 @@
         <v>3</v>
       </c>
       <c r="S42">
-        <v>0.00747</v>
+        <v>0.004811666</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -6370,7 +6373,7 @@
         <v>3</v>
       </c>
       <c r="S43">
-        <v>0.0043566</v>
+        <v>0.00345175</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6411,16 +6414,16 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="O44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -6429,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="S44">
-        <v>0.0046076</v>
+        <v>0.004842458</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6452,7 +6455,7 @@
         <v>3</v>
       </c>
       <c r="S45">
-        <v>1.8E-06</v>
+        <v>1.084E-06</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6493,16 +6496,16 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="N46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="P46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -6511,7 +6514,7 @@
         <v>3</v>
       </c>
       <c r="S46">
-        <v>0.0048241</v>
+        <v>0.00507075</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6552,16 +6555,16 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="N47" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="O47" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="P47" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -6570,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="S47">
-        <v>0.0067677</v>
+        <v>0.007727875</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6629,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="S48">
-        <v>0.0039884</v>
+        <v>0.00364275</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6670,16 +6673,16 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N49" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="O49" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P49" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -6688,7 +6691,7 @@
         <v>3</v>
       </c>
       <c r="S49">
-        <v>0.0050247</v>
+        <v>0.00526025</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6735,7 +6738,7 @@
         <v>3</v>
       </c>
       <c r="S50">
-        <v>0.0038494</v>
+        <v>0.004090792</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -6794,7 +6797,7 @@
         <v>3</v>
       </c>
       <c r="S51">
-        <v>0.0038747</v>
+        <v>0.004372333</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -6835,16 +6838,16 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="N52" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="O52" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="P52" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -6853,7 +6856,7 @@
         <v>3</v>
       </c>
       <c r="S52">
-        <v>0.0058453</v>
+        <v>0.005261458</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -6894,16 +6897,16 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N53" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="O53" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P53" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -6912,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="S53">
-        <v>0.0051222</v>
+        <v>0.005512583</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -6953,16 +6956,16 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N54" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="O54" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P54" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -6971,7 +6974,7 @@
         <v>3</v>
       </c>
       <c r="S54">
-        <v>0.0056687</v>
+        <v>0.006010292</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -7012,16 +7015,16 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N55" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O55" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="P55" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -7030,7 +7033,7 @@
         <v>3</v>
       </c>
       <c r="S55">
-        <v>0.00557</v>
+        <v>0.004843125</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -7071,16 +7074,16 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="N56" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O56" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P56" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -7089,7 +7092,7 @@
         <v>3</v>
       </c>
       <c r="S56">
-        <v>0.0051883</v>
+        <v>0.005420042</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -7130,16 +7133,16 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N57" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="O57" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P57" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -7148,7 +7151,7 @@
         <v>3</v>
       </c>
       <c r="S57">
-        <v>0.0024026</v>
+        <v>0.002964542</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -7189,16 +7192,16 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="N58" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="O58" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P58" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -7207,7 +7210,7 @@
         <v>3</v>
       </c>
       <c r="S58">
-        <v>0.007649</v>
+        <v>0.005697083</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -7248,16 +7251,16 @@
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N59" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="O59" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P59" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -7266,7 +7269,7 @@
         <v>3</v>
       </c>
       <c r="S59">
-        <v>0.0056184</v>
+        <v>0.005118959</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -7307,13 +7310,13 @@
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N60" t="s">
         <v>1140</v>
       </c>
       <c r="O60" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P60" t="s">
         <v>1140</v>
@@ -7325,7 +7328,7 @@
         <v>2</v>
       </c>
       <c r="S60">
-        <v>0.0035959</v>
+        <v>0.003464667</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -7366,16 +7369,16 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N61" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="O61" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="P61" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -7384,7 +7387,7 @@
         <v>3</v>
       </c>
       <c r="S61">
-        <v>0.0069778</v>
+        <v>0.005207834</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -7425,16 +7428,16 @@
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="O62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -7443,7 +7446,7 @@
         <v>3</v>
       </c>
       <c r="S62">
-        <v>0.0064704</v>
+        <v>0.005952083</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -7484,16 +7487,16 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="P63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -7502,7 +7505,7 @@
         <v>3</v>
       </c>
       <c r="S63">
-        <v>0.0033326</v>
+        <v>0.003381167</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -7543,16 +7546,16 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="O64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="P64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -7561,7 +7564,7 @@
         <v>3</v>
       </c>
       <c r="S64">
-        <v>0.006681</v>
+        <v>0.004917958</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -7620,7 +7623,7 @@
         <v>2</v>
       </c>
       <c r="S65">
-        <v>0.0056373</v>
+        <v>0.00395075</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -7661,16 +7664,16 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N66" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="O66" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="P66" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -7679,7 +7682,7 @@
         <v>3</v>
       </c>
       <c r="S66">
-        <v>0.0067185</v>
+        <v>0.005389666</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -7738,7 +7741,7 @@
         <v>2</v>
       </c>
       <c r="S67">
-        <v>0.0025392</v>
+        <v>0.002456834</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -7779,16 +7782,16 @@
         <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N68" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O68" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="P68" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -7797,7 +7800,7 @@
         <v>3</v>
       </c>
       <c r="S68">
-        <v>0.0048728</v>
+        <v>0.005015542</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -7838,16 +7841,16 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N69" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="O69" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="P69" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -7856,7 +7859,7 @@
         <v>3</v>
       </c>
       <c r="S69">
-        <v>0.0039068</v>
+        <v>0.004273833</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -7897,16 +7900,16 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -7915,7 +7918,7 @@
         <v>3</v>
       </c>
       <c r="S70">
-        <v>0.005701</v>
+        <v>0.006187125</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -7956,16 +7959,16 @@
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N71" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="O71" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="P71" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -7974,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="S71">
-        <v>0.0064972</v>
+        <v>0.004596041</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -8015,16 +8018,16 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N72" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="O72" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="P72" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -8033,7 +8036,7 @@
         <v>3</v>
       </c>
       <c r="S72">
-        <v>0.0051831</v>
+        <v>0.004608167</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -8074,16 +8077,16 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N73" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="O73" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="P73" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -8092,7 +8095,7 @@
         <v>3</v>
       </c>
       <c r="S73">
-        <v>0.0041063</v>
+        <v>0.0038535</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -8133,16 +8136,16 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N74" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O74" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="P74" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -8151,7 +8154,7 @@
         <v>3</v>
       </c>
       <c r="S74">
-        <v>0.00506</v>
+        <v>0.003879458</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -8192,16 +8195,16 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N75" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="O75" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="P75" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -8210,7 +8213,7 @@
         <v>3</v>
       </c>
       <c r="S75">
-        <v>0.0032773</v>
+        <v>0.003033833</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -8269,7 +8272,7 @@
         <v>2</v>
       </c>
       <c r="S76">
-        <v>0.0031013</v>
+        <v>0.003073917</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -8310,10 +8313,10 @@
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N77" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O77">
         <v>5</v>
@@ -8328,7 +8331,7 @@
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.0088092</v>
+        <v>0.007831790999999999</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -8369,16 +8372,16 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N78" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="O78" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="P78" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -8387,7 +8390,7 @@
         <v>3</v>
       </c>
       <c r="S78">
-        <v>0.0050984</v>
+        <v>0.005099625</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -8446,7 +8449,7 @@
         <v>3</v>
       </c>
       <c r="S79">
-        <v>0.0039212</v>
+        <v>0.0038585</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -8493,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="S80">
-        <v>0.0038089</v>
+        <v>0.003653458</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -8534,16 +8537,16 @@
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N81" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="O81" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="P81" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -8552,7 +8555,7 @@
         <v>3</v>
       </c>
       <c r="S81">
-        <v>0.0073212</v>
+        <v>0.0060425</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -8593,16 +8596,16 @@
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="N82" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O82" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="P82" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -8611,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="S82">
-        <v>0.0052643</v>
+        <v>0.005018333</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -8652,16 +8655,16 @@
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N83" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="O83" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="P83" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -8670,7 +8673,7 @@
         <v>3</v>
       </c>
       <c r="S83">
-        <v>0.0062967</v>
+        <v>0.005598875</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -8711,16 +8714,16 @@
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N84" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="O84" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="P84" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -8729,7 +8732,7 @@
         <v>3</v>
       </c>
       <c r="S84">
-        <v>0.0037805</v>
+        <v>0.002995667</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -8770,16 +8773,16 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N85" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="O85" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="P85" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -8788,7 +8791,7 @@
         <v>3</v>
       </c>
       <c r="S85">
-        <v>0.0048749</v>
+        <v>0.004552959</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -8829,16 +8832,16 @@
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N86" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O86" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="P86" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -8847,7 +8850,7 @@
         <v>3</v>
       </c>
       <c r="S86">
-        <v>0.0048473</v>
+        <v>0.004295416</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -8870,7 +8873,7 @@
         <v>3</v>
       </c>
       <c r="S87">
-        <v>1.3E-06</v>
+        <v>8.75E-07</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -8911,16 +8914,16 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N88" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="O88" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="P88" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -8929,7 +8932,7 @@
         <v>3</v>
       </c>
       <c r="S88">
-        <v>0.0071197</v>
+        <v>0.0058325</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -8970,16 +8973,16 @@
         <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="N89" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O89" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="P89" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -8988,7 +8991,7 @@
         <v>3</v>
       </c>
       <c r="S89">
-        <v>0.0048537</v>
+        <v>0.004569917</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -9029,16 +9032,16 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="N90" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="O90" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="P90" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -9047,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="S90">
-        <v>0.0053808</v>
+        <v>0.004905292</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -9088,16 +9091,16 @@
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N91" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="O91" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="P91" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -9106,7 +9109,7 @@
         <v>3</v>
       </c>
       <c r="S91">
-        <v>0.0062938</v>
+        <v>0.004986625</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -9147,16 +9150,16 @@
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N92" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O92" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="P92" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -9165,7 +9168,7 @@
         <v>3</v>
       </c>
       <c r="S92">
-        <v>0.0065213</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -9206,16 +9209,16 @@
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="N93" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="O93" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P93" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -9224,7 +9227,7 @@
         <v>3</v>
       </c>
       <c r="S93">
-        <v>0.0026256</v>
+        <v>0.002166916</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -9265,16 +9268,16 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N94" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O94" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="P94" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="Q94">
         <v>1</v>
@@ -9283,7 +9286,7 @@
         <v>3</v>
       </c>
       <c r="S94">
-        <v>0.0076488</v>
+        <v>0.005448209</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -9324,16 +9327,16 @@
         <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="N95" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="O95" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="P95" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -9342,7 +9345,7 @@
         <v>3</v>
       </c>
       <c r="S95">
-        <v>0.0065634</v>
+        <v>0.005207541</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -9383,16 +9386,16 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="O96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="P96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -9401,7 +9404,7 @@
         <v>3</v>
       </c>
       <c r="S96">
-        <v>0.0068642</v>
+        <v>0.006183959</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -9442,16 +9445,16 @@
         <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="O97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="P97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -9460,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="S97">
-        <v>0.0075039</v>
+        <v>0.006210125</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -9501,16 +9504,16 @@
         <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N98" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="O98" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="P98" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -9519,7 +9522,7 @@
         <v>3</v>
       </c>
       <c r="S98">
-        <v>0.0056807</v>
+        <v>0.004886375</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -9560,16 +9563,16 @@
         <v>1</v>
       </c>
       <c r="M99" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="N99" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="O99" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="P99" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -9578,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="S99">
-        <v>0.0053813</v>
+        <v>0.004332625</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -9619,16 +9622,16 @@
         <v>1</v>
       </c>
       <c r="M100" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N100" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O100" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P100" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -9637,7 +9640,7 @@
         <v>3</v>
       </c>
       <c r="S100">
-        <v>0.0054455</v>
+        <v>0.004802625</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -9678,16 +9681,16 @@
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N101" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O101" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="P101" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="Q101">
         <v>1</v>
@@ -9696,7 +9699,7 @@
         <v>3</v>
       </c>
       <c r="S101">
-        <v>0.0060747</v>
+        <v>0.005704833</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -9737,16 +9740,16 @@
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N102" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="O102" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P102" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -9755,7 +9758,7 @@
         <v>3</v>
       </c>
       <c r="S102">
-        <v>0.0065922</v>
+        <v>0.0058845</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -9796,16 +9799,16 @@
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N103" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="O103" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="P103" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -9814,7 +9817,7 @@
         <v>3</v>
       </c>
       <c r="S103">
-        <v>0.0054769</v>
+        <v>0.0049615</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -9855,16 +9858,16 @@
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="N104" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O104" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="P104" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -9873,7 +9876,7 @@
         <v>3</v>
       </c>
       <c r="S104">
-        <v>0.0039809</v>
+        <v>0.003759958</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -9914,16 +9917,16 @@
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N105" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="O105" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="P105" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -9932,7 +9935,7 @@
         <v>3</v>
       </c>
       <c r="S105">
-        <v>0.0058592</v>
+        <v>0.00513125</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -9991,7 +9994,7 @@
         <v>2</v>
       </c>
       <c r="S106">
-        <v>0.0048657</v>
+        <v>0.004218125</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -10032,16 +10035,16 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N107" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="O107" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="P107" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -10050,7 +10053,7 @@
         <v>3</v>
       </c>
       <c r="S107">
-        <v>0.0057575</v>
+        <v>0.004952542</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -10091,16 +10094,16 @@
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N108" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="O108" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="P108" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -10109,7 +10112,7 @@
         <v>3</v>
       </c>
       <c r="S108">
-        <v>0.0032832</v>
+        <v>0.002973958</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -10150,16 +10153,16 @@
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N109" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="O109" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="P109" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -10168,7 +10171,7 @@
         <v>3</v>
       </c>
       <c r="S109">
-        <v>0.0054449</v>
+        <v>0.005019042</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -10191,7 +10194,7 @@
         <v>3</v>
       </c>
       <c r="S110">
-        <v>1.2E-06</v>
+        <v>7.5E-07</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -10232,16 +10235,16 @@
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="N111" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="O111" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="P111" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -10250,7 +10253,7 @@
         <v>3</v>
       </c>
       <c r="S111">
-        <v>0.0051526</v>
+        <v>0.005043167</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -10291,16 +10294,16 @@
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N112" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O112" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P112" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -10309,7 +10312,7 @@
         <v>3</v>
       </c>
       <c r="S112">
-        <v>0.0064275</v>
+        <v>0.006195583</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -10350,16 +10353,16 @@
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N113" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O113" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="P113" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -10368,7 +10371,7 @@
         <v>3</v>
       </c>
       <c r="S113">
-        <v>0.0045379</v>
+        <v>0.004305</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -10415,7 +10418,7 @@
         <v>3</v>
       </c>
       <c r="S114">
-        <v>0.0042628</v>
+        <v>0.00421575</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -10462,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="S115">
-        <v>0.0047301</v>
+        <v>0.004662666</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -10503,16 +10506,16 @@
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N116" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="O116" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="P116" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Q116">
         <v>1</v>
@@ -10521,7 +10524,7 @@
         <v>3</v>
       </c>
       <c r="S116">
-        <v>0.0041807</v>
+        <v>0.003936208</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -10562,16 +10565,16 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N117" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O117" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="P117" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -10580,7 +10583,7 @@
         <v>3</v>
       </c>
       <c r="S117">
-        <v>0.0026108</v>
+        <v>0.002563916</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -10621,16 +10624,16 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N118" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="O118" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="P118" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -10639,7 +10642,7 @@
         <v>3</v>
       </c>
       <c r="S118">
-        <v>0.0057554</v>
+        <v>0.005630708</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -10680,16 +10683,16 @@
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="O119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="Q119">
         <v>1</v>
@@ -10698,7 +10701,7 @@
         <v>3</v>
       </c>
       <c r="S119">
-        <v>0.0055416</v>
+        <v>0.005628334</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -10739,16 +10742,16 @@
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="N120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="O120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -10757,7 +10760,7 @@
         <v>3</v>
       </c>
       <c r="S120">
-        <v>0.0041767</v>
+        <v>0.003845292</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -10798,16 +10801,16 @@
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="O121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="P121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -10816,7 +10819,7 @@
         <v>3</v>
       </c>
       <c r="S121">
-        <v>0.0025168</v>
+        <v>0.002599</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -10857,16 +10860,16 @@
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N122" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="O122" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="P122" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -10875,7 +10878,7 @@
         <v>3</v>
       </c>
       <c r="S122">
-        <v>0.0052096</v>
+        <v>0.00536425</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -10916,16 +10919,16 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N123" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="O123" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="P123" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -10934,7 +10937,7 @@
         <v>3</v>
       </c>
       <c r="S123">
-        <v>0.0065954</v>
+        <v>0.006334416</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -10975,7 +10978,7 @@
         <v>2</v>
       </c>
       <c r="S124">
-        <v>0.0033718</v>
+        <v>0.004687042</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -11034,7 +11037,7 @@
         <v>3</v>
       </c>
       <c r="S125">
-        <v>0.0030001</v>
+        <v>0.003976959</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -11075,16 +11078,16 @@
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="N126" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="O126" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="P126" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -11093,7 +11096,7 @@
         <v>3</v>
       </c>
       <c r="S126">
-        <v>0.0030113</v>
+        <v>0.004124333</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -11134,16 +11137,16 @@
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N127" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="O127" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="P127" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -11152,7 +11155,7 @@
         <v>3</v>
       </c>
       <c r="S127">
-        <v>0.0051498</v>
+        <v>0.007046959</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -11193,16 +11196,16 @@
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="N128" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O128" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="P128" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -11211,7 +11214,7 @@
         <v>3</v>
       </c>
       <c r="S128">
-        <v>0.0034423</v>
+        <v>0.004363459</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -11252,16 +11255,16 @@
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N129" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="O129" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="P129" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -11270,7 +11273,7 @@
         <v>3</v>
       </c>
       <c r="S129">
-        <v>0.0034143</v>
+        <v>0.004182083</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -11329,7 +11332,7 @@
         <v>3</v>
       </c>
       <c r="S130">
-        <v>0.0030981</v>
+        <v>0.004152459</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -11370,16 +11373,16 @@
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N131" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="O131" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="P131" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -11388,7 +11391,7 @@
         <v>3</v>
       </c>
       <c r="S131">
-        <v>0.0033628</v>
+        <v>0.004376792</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -11447,7 +11450,7 @@
         <v>3</v>
       </c>
       <c r="S132">
-        <v>0.0030712</v>
+        <v>0.003787375</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -11488,16 +11491,16 @@
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N133" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="O133" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="P133" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -11506,7 +11509,7 @@
         <v>3</v>
       </c>
       <c r="S133">
-        <v>0.0051068</v>
+        <v>0.003530292</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -11547,16 +11550,16 @@
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N134" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O134" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="P134" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -11565,7 +11568,7 @@
         <v>3</v>
       </c>
       <c r="S134">
-        <v>0.0064104</v>
+        <v>0.005823291</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -11606,16 +11609,16 @@
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N135" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O135" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P135" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Q135">
         <v>1</v>
@@ -11624,7 +11627,7 @@
         <v>3</v>
       </c>
       <c r="S135">
-        <v>0.0037177</v>
+        <v>0.004866625</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -11665,16 +11668,16 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="O136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="P136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -11683,7 +11686,7 @@
         <v>3</v>
       </c>
       <c r="S136">
-        <v>0.0057532</v>
+        <v>0.004997333</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -11724,16 +11727,16 @@
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="O137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="P137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -11742,7 +11745,7 @@
         <v>3</v>
       </c>
       <c r="S137">
-        <v>0.0048277</v>
+        <v>0.004673958</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -11783,16 +11786,16 @@
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="N138" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="O138" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P138" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -11801,7 +11804,7 @@
         <v>3</v>
       </c>
       <c r="S138">
-        <v>0.0038162</v>
+        <v>0.003597125</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -11842,16 +11845,16 @@
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N139" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="O139" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P139" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="Q139">
         <v>1</v>
@@ -11860,7 +11863,7 @@
         <v>3</v>
       </c>
       <c r="S139">
-        <v>0.0066345</v>
+        <v>0.005968125</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -11919,7 +11922,7 @@
         <v>3</v>
       </c>
       <c r="S140">
-        <v>0.003483</v>
+        <v>0.003409958</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -11954,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P141">
         <v>5</v>
@@ -11966,7 +11969,7 @@
         <v>1</v>
       </c>
       <c r="S141">
-        <v>0.0025489</v>
+        <v>0.0024405</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -12007,16 +12010,16 @@
         <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N142" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="O142" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="P142" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -12025,7 +12028,7 @@
         <v>3</v>
       </c>
       <c r="S142">
-        <v>0.0039577</v>
+        <v>0.0041325</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -12066,16 +12069,16 @@
         <v>1</v>
       </c>
       <c r="M143" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N143" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="O143" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="P143" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -12084,7 +12087,7 @@
         <v>3</v>
       </c>
       <c r="S143">
-        <v>0.0071944</v>
+        <v>0.006459708</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -12116,25 +12119,25 @@
         <v>799</v>
       </c>
       <c r="J144" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K144" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L144">
         <v>1</v>
       </c>
       <c r="M144" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N144" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="O144" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="P144" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -12143,7 +12146,7 @@
         <v>3</v>
       </c>
       <c r="S144">
-        <v>0.0049512</v>
+        <v>0.004780334</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -12184,16 +12187,16 @@
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N145" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="O145" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="P145" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -12202,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="S145">
-        <v>0.004921</v>
+        <v>0.0043035</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -12243,16 +12246,16 @@
         <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N146" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O146" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="P146" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -12261,7 +12264,7 @@
         <v>3</v>
       </c>
       <c r="S146">
-        <v>0.00614</v>
+        <v>0.005882</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -12302,16 +12305,16 @@
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N147" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="O147" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="P147" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -12320,7 +12323,7 @@
         <v>3</v>
       </c>
       <c r="S147">
-        <v>0.0045404</v>
+        <v>0.0042345</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -12361,16 +12364,16 @@
         <v>1</v>
       </c>
       <c r="M148" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N148" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="O148" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="P148" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -12379,7 +12382,7 @@
         <v>3</v>
       </c>
       <c r="S148">
-        <v>0.0051696</v>
+        <v>0.005023916</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -12420,16 +12423,16 @@
         <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N149" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="O149" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="P149" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -12438,7 +12441,7 @@
         <v>3</v>
       </c>
       <c r="S149">
-        <v>0.0026534</v>
+        <v>0.002372084</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -12497,7 +12500,7 @@
         <v>3</v>
       </c>
       <c r="S150">
-        <v>0.0046495</v>
+        <v>0.004055875</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -12538,16 +12541,16 @@
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N151" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="O151" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="P151" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Q151">
         <v>1</v>
@@ -12556,7 +12559,7 @@
         <v>3</v>
       </c>
       <c r="S151">
-        <v>0.0065115</v>
+        <v>0.006233875</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -12585,16 +12588,16 @@
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N152" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="O152" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="P152" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -12603,7 +12606,7 @@
         <v>3</v>
       </c>
       <c r="S152">
-        <v>0.0051583</v>
+        <v>0.004494833</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -12662,7 +12665,7 @@
         <v>3</v>
       </c>
       <c r="S153">
-        <v>0.0050708</v>
+        <v>0.004593209</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -12690,26 +12693,26 @@
       <c r="H154" t="s">
         <v>628</v>
       </c>
-      <c r="I154" t="s">
-        <v>628</v>
-      </c>
       <c r="J154" t="s">
         <v>628</v>
       </c>
-      <c r="K154" t="s">
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
         <v>628</v>
       </c>
-      <c r="L154">
-        <v>1</v>
+      <c r="P154" t="s">
+        <v>628</v>
       </c>
       <c r="Q154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S154">
-        <v>0.0039393</v>
+        <v>0.003617833</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -12738,16 +12741,16 @@
         <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N155" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="O155" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="P155" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -12756,7 +12759,7 @@
         <v>3</v>
       </c>
       <c r="S155">
-        <v>0.0032547</v>
+        <v>0.003071708</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -12785,16 +12788,16 @@
         <v>1</v>
       </c>
       <c r="M156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="O156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -12803,7 +12806,7 @@
         <v>3</v>
       </c>
       <c r="S156">
-        <v>0.0025671</v>
+        <v>0.002118375</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -12831,26 +12834,26 @@
       <c r="H157" t="s">
         <v>642</v>
       </c>
-      <c r="I157" t="s">
-        <v>642</v>
-      </c>
       <c r="J157" t="s">
         <v>642</v>
       </c>
-      <c r="K157" t="s">
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
         <v>642</v>
       </c>
-      <c r="L157">
-        <v>1</v>
+      <c r="P157" t="s">
+        <v>642</v>
       </c>
       <c r="Q157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S157">
-        <v>0.004171</v>
+        <v>0.003745666</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -12879,16 +12882,16 @@
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N158" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O158" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="P158" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -12897,7 +12900,7 @@
         <v>3</v>
       </c>
       <c r="S158">
-        <v>0.0052202</v>
+        <v>0.004621083</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -12938,16 +12941,16 @@
         <v>1</v>
       </c>
       <c r="M159" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N159" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O159" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="P159" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -12956,7 +12959,7 @@
         <v>3</v>
       </c>
       <c r="S159">
-        <v>0.0036657</v>
+        <v>0.003435959</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -12997,16 +13000,16 @@
         <v>1</v>
       </c>
       <c r="M160" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N160" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="O160" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="P160" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -13015,7 +13018,7 @@
         <v>3</v>
       </c>
       <c r="S160">
-        <v>0.0057564</v>
+        <v>0.005145709</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -13056,16 +13059,16 @@
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N161" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="O161" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="P161" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -13074,7 +13077,7 @@
         <v>3</v>
       </c>
       <c r="S161">
-        <v>0.0051579</v>
+        <v>0.004322167</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -13115,16 +13118,16 @@
         <v>1</v>
       </c>
       <c r="M162" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N162" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="O162" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="P162" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="Q162">
         <v>1</v>
@@ -13133,7 +13136,7 @@
         <v>3</v>
       </c>
       <c r="S162">
-        <v>0.0068971</v>
+        <v>0.00596225</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -13174,16 +13177,16 @@
         <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N163" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O163" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="P163" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -13192,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="S163">
-        <v>0.0066613</v>
+        <v>0.003799333</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -13245,7 +13248,7 @@
         <v>2</v>
       </c>
       <c r="S164">
-        <v>0.0025635</v>
+        <v>0.002992958</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -13286,16 +13289,16 @@
         <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N165" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="O165" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="P165" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -13304,7 +13307,7 @@
         <v>3</v>
       </c>
       <c r="S165">
-        <v>0.0027601</v>
+        <v>0.003917334</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -13345,16 +13348,16 @@
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N166" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O166" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="P166" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="Q166">
         <v>1</v>
@@ -13363,7 +13366,7 @@
         <v>3</v>
       </c>
       <c r="S166">
-        <v>0.0032932</v>
+        <v>0.003982125</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -13410,7 +13413,7 @@
         <v>1</v>
       </c>
       <c r="S167">
-        <v>0.0028037</v>
+        <v>0.003624333</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -13439,16 +13442,16 @@
         <v>1</v>
       </c>
       <c r="M168" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="N168" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="O168" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="P168" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -13457,7 +13460,7 @@
         <v>3</v>
       </c>
       <c r="S168">
-        <v>0.0024001</v>
+        <v>0.003289167</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -13504,7 +13507,7 @@
         <v>3</v>
       </c>
       <c r="S169">
-        <v>0.0009693</v>
+        <v>0.001325792</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -13551,7 +13554,7 @@
         <v>3</v>
       </c>
       <c r="S170">
-        <v>0.0008688</v>
+        <v>0.001123166</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -13592,16 +13595,16 @@
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N171" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O171" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="P171" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -13610,7 +13613,7 @@
         <v>3</v>
       </c>
       <c r="S171">
-        <v>0.0015104</v>
+        <v>0.0017315</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -13657,7 +13660,7 @@
         <v>3</v>
       </c>
       <c r="S172">
-        <v>0.0025494</v>
+        <v>0.003394583</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -13686,16 +13689,16 @@
         <v>1</v>
       </c>
       <c r="M173" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N173" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O173" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="P173" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="Q173">
         <v>1</v>
@@ -13704,7 +13707,7 @@
         <v>3</v>
       </c>
       <c r="S173">
-        <v>0.0019948</v>
+        <v>0.002749959</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -13733,16 +13736,16 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="N174" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O174" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="P174" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -13751,7 +13754,7 @@
         <v>3</v>
       </c>
       <c r="S174">
-        <v>0.0043131</v>
+        <v>0.004612458</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -13792,16 +13795,16 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N175" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="O175" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="P175" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q175">
         <v>1</v>
@@ -13810,7 +13813,7 @@
         <v>3</v>
       </c>
       <c r="S175">
-        <v>0.0044247</v>
+        <v>0.004557</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -13839,16 +13842,16 @@
         <v>1</v>
       </c>
       <c r="M176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="N176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="O176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Q176">
         <v>1</v>
@@ -13857,7 +13860,7 @@
         <v>3</v>
       </c>
       <c r="S176">
-        <v>0.0044073</v>
+        <v>0.003989209</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -13886,16 +13889,16 @@
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="P177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="Q177">
         <v>1</v>
@@ -13904,7 +13907,7 @@
         <v>3</v>
       </c>
       <c r="S177">
-        <v>0.0035007</v>
+        <v>0.003639458</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -13945,16 +13948,16 @@
         <v>1</v>
       </c>
       <c r="M178" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N178" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="O178" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P178" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="Q178">
         <v>1</v>
@@ -13963,7 +13966,7 @@
         <v>3</v>
       </c>
       <c r="S178">
-        <v>0.0047945</v>
+        <v>0.004778125</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -13992,16 +13995,16 @@
         <v>1</v>
       </c>
       <c r="M179" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N179" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="O179" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="P179" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -14010,7 +14013,7 @@
         <v>3</v>
       </c>
       <c r="S179">
-        <v>0.0013818</v>
+        <v>0.001315167</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -14051,16 +14054,16 @@
         <v>1</v>
       </c>
       <c r="M180" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N180" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="O180" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="P180" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -14069,7 +14072,7 @@
         <v>3</v>
       </c>
       <c r="S180">
-        <v>0.0021435</v>
+        <v>0.002024459</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -14128,7 +14131,7 @@
         <v>3</v>
       </c>
       <c r="S181">
-        <v>0.0056716</v>
+        <v>0.006908792</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -14169,16 +14172,16 @@
         <v>1</v>
       </c>
       <c r="M182" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="N182" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="O182" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="P182" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Q182">
         <v>1</v>
@@ -14187,7 +14190,7 @@
         <v>3</v>
       </c>
       <c r="S182">
-        <v>0.0012853</v>
+        <v>0.001651375</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -14228,16 +14231,16 @@
         <v>1</v>
       </c>
       <c r="M183" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N183" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="O183" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="P183" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="Q183">
         <v>1</v>
@@ -14246,7 +14249,7 @@
         <v>3</v>
       </c>
       <c r="S183">
-        <v>0.0052079</v>
+        <v>0.016340834</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -14293,7 +14296,7 @@
         <v>3</v>
       </c>
       <c r="S184">
-        <v>0.0052179</v>
+        <v>0.014089208</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -14340,7 +14343,7 @@
         <v>3</v>
       </c>
       <c r="S185">
-        <v>0.0050735</v>
+        <v>0.006902375</v>
       </c>
     </row>
     <row r="186" spans="1:19">
@@ -14387,7 +14390,7 @@
         <v>3</v>
       </c>
       <c r="S186">
-        <v>0.0031454</v>
+        <v>0.003020125</v>
       </c>
     </row>
     <row r="187" spans="1:19">
@@ -14428,16 +14431,16 @@
         <v>1</v>
       </c>
       <c r="M187" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N187" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O187" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="P187" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -14446,7 +14449,7 @@
         <v>3</v>
       </c>
       <c r="S187">
-        <v>0.0038785</v>
+        <v>0.003983917</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -14493,7 +14496,7 @@
         <v>3</v>
       </c>
       <c r="S188">
-        <v>0.00329</v>
+        <v>0.0066575</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -14540,7 +14543,7 @@
         <v>3</v>
       </c>
       <c r="S189">
-        <v>0.0042613</v>
+        <v>0.004969583</v>
       </c>
     </row>
     <row r="190" spans="1:19">
@@ -14569,16 +14572,16 @@
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N190" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O190" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P190" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -14587,7 +14590,7 @@
         <v>3</v>
       </c>
       <c r="S190">
-        <v>0.0053712</v>
+        <v>0.00507425</v>
       </c>
     </row>
     <row r="191" spans="1:19">
@@ -14628,16 +14631,16 @@
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N191" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O191" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="P191" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="Q191">
         <v>1</v>
@@ -14646,7 +14649,7 @@
         <v>3</v>
       </c>
       <c r="S191">
-        <v>0.0049724</v>
+        <v>0.004824792</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -14675,16 +14678,16 @@
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="N192" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="O192" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="P192" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Q192">
         <v>1</v>
@@ -14693,7 +14696,7 @@
         <v>3</v>
       </c>
       <c r="S192">
-        <v>0.0022068</v>
+        <v>0.002330166</v>
       </c>
     </row>
     <row r="193" spans="1:19">
@@ -14734,16 +14737,16 @@
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="N193" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="O193" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="P193" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -14752,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="S193">
-        <v>0.0017557</v>
+        <v>0.001797375</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -14793,16 +14796,16 @@
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N194" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="O194" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P194" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="Q194">
         <v>1</v>
@@ -14811,7 +14814,7 @@
         <v>3</v>
       </c>
       <c r="S194">
-        <v>0.0065012</v>
+        <v>0.005386375</v>
       </c>
     </row>
     <row r="195" spans="1:19">
@@ -14840,13 +14843,13 @@
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N195" t="s">
         <v>1145</v>
       </c>
       <c r="O195" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P195" t="s">
         <v>1145</v>
@@ -14858,7 +14861,7 @@
         <v>2</v>
       </c>
       <c r="S195">
-        <v>0.0031214</v>
+        <v>0.002552959</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -14899,16 +14902,16 @@
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N196" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="O196" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="P196" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="Q196">
         <v>1</v>
@@ -14917,7 +14920,7 @@
         <v>3</v>
       </c>
       <c r="S196">
-        <v>0.0053861</v>
+        <v>0.005011667</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -14946,16 +14949,16 @@
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="N197" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O197" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="P197" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -14964,7 +14967,7 @@
         <v>3</v>
       </c>
       <c r="S197">
-        <v>0.0047473</v>
+        <v>0.004357875</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -14993,16 +14996,16 @@
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N198" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="O198" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="P198" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -15011,7 +15014,7 @@
         <v>3</v>
       </c>
       <c r="S198">
-        <v>0.0019215</v>
+        <v>0.001528834</v>
       </c>
     </row>
     <row r="199" spans="1:19">
@@ -15052,16 +15055,16 @@
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="N199" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O199" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="P199" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -15070,7 +15073,7 @@
         <v>3</v>
       </c>
       <c r="S199">
-        <v>0.0044936</v>
+        <v>0.003892542</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -15111,16 +15114,16 @@
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N200" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="O200" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="P200" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Q200">
         <v>1</v>
@@ -15129,7 +15132,7 @@
         <v>3</v>
       </c>
       <c r="S200">
-        <v>0.0031672</v>
+        <v>0.002923458</v>
       </c>
     </row>
     <row r="201" spans="1:19">
@@ -15170,16 +15173,16 @@
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N201" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O201" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="P201" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="Q201">
         <v>1</v>
@@ -15188,7 +15191,7 @@
         <v>3</v>
       </c>
       <c r="S201">
-        <v>0.0055631</v>
+        <v>0.005284208</v>
       </c>
     </row>
     <row r="202" spans="1:19">
@@ -15217,16 +15220,16 @@
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N202" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O202" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="P202" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -15235,7 +15238,7 @@
         <v>3</v>
       </c>
       <c r="S202">
-        <v>0.0045461</v>
+        <v>0.004016</v>
       </c>
     </row>
     <row r="203" spans="1:19">
@@ -15263,26 +15266,26 @@
       <c r="H203" t="s">
         <v>545</v>
       </c>
-      <c r="I203" t="s">
-        <v>545</v>
-      </c>
       <c r="J203" t="s">
         <v>545</v>
       </c>
-      <c r="K203" t="s">
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
         <v>545</v>
       </c>
-      <c r="L203">
-        <v>1</v>
+      <c r="P203" t="s">
+        <v>545</v>
       </c>
       <c r="Q203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S203">
-        <v>0.0024123</v>
+        <v>0.00237775</v>
       </c>
     </row>
     <row r="204" spans="1:19">
@@ -15323,16 +15326,16 @@
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N204" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O204" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="P204" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="Q204">
         <v>1</v>
@@ -15341,7 +15344,7 @@
         <v>3</v>
       </c>
       <c r="S204">
-        <v>0.0036238</v>
+        <v>0.003462292</v>
       </c>
     </row>
     <row r="205" spans="1:19">
@@ -15382,16 +15385,16 @@
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N205" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O205" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="P205" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Q205">
         <v>1</v>
@@ -15400,7 +15403,7 @@
         <v>3</v>
       </c>
       <c r="S205">
-        <v>0.0059233</v>
+        <v>0.0051835</v>
       </c>
     </row>
     <row r="206" spans="1:19">
@@ -15447,7 +15450,7 @@
         <v>3</v>
       </c>
       <c r="S206">
-        <v>0.0023714</v>
+        <v>0.002373667</v>
       </c>
     </row>
     <row r="207" spans="1:19">
@@ -15476,16 +15479,16 @@
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N207" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O207" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="P207" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="Q207">
         <v>1</v>
@@ -15494,7 +15497,7 @@
         <v>3</v>
       </c>
       <c r="S207">
-        <v>0.0010936</v>
+        <v>0.001319292</v>
       </c>
     </row>
     <row r="208" spans="1:19">
@@ -15535,16 +15538,16 @@
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="N208" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="O208" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="P208" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="Q208">
         <v>1</v>
@@ -15553,7 +15556,7 @@
         <v>3</v>
       </c>
       <c r="S208">
-        <v>0.0022899</v>
+        <v>0.003167083</v>
       </c>
     </row>
     <row r="209" spans="1:19">
@@ -15582,16 +15585,16 @@
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="N209" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="O209" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="P209" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="Q209">
         <v>1</v>
@@ -15600,7 +15603,7 @@
         <v>3</v>
       </c>
       <c r="S209">
-        <v>0.0034382</v>
+        <v>0.004111083</v>
       </c>
     </row>
     <row r="210" spans="1:19">
@@ -15629,16 +15632,16 @@
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N210" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O210" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="P210" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -15647,7 +15650,7 @@
         <v>3</v>
       </c>
       <c r="S210">
-        <v>0.0033726</v>
+        <v>0.004920917</v>
       </c>
     </row>
     <row r="211" spans="1:19">
@@ -15676,16 +15679,16 @@
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N211" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O211" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="P211" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="Q211">
         <v>1</v>
@@ -15694,7 +15697,7 @@
         <v>3</v>
       </c>
       <c r="S211">
-        <v>0.0038195</v>
+        <v>0.004730958</v>
       </c>
     </row>
     <row r="212" spans="1:19">
@@ -15723,16 +15726,16 @@
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="N212" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="O212" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="P212" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -15741,7 +15744,7 @@
         <v>3</v>
       </c>
       <c r="S212">
-        <v>0.0024782</v>
+        <v>0.003049917</v>
       </c>
     </row>
     <row r="213" spans="1:19">
@@ -15770,16 +15773,16 @@
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="N213" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="O213" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="P213" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="Q213">
         <v>1</v>
@@ -15788,7 +15791,7 @@
         <v>3</v>
       </c>
       <c r="S213">
-        <v>0.0013102</v>
+        <v>0.001549583</v>
       </c>
     </row>
     <row r="214" spans="1:19">
@@ -15835,7 +15838,7 @@
         <v>3</v>
       </c>
       <c r="S214">
-        <v>0.0019813</v>
+        <v>0.002387625</v>
       </c>
     </row>
     <row r="215" spans="1:19">
@@ -15894,7 +15897,7 @@
         <v>3</v>
       </c>
       <c r="S215">
-        <v>0.0038797</v>
+        <v>0.00452525</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -15923,16 +15926,16 @@
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="N216" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O216" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="P216" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="Q216">
         <v>1</v>
@@ -15941,7 +15944,7 @@
         <v>3</v>
       </c>
       <c r="S216">
-        <v>0.0018286</v>
+        <v>0.002271084</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -15970,16 +15973,16 @@
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N217" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="O217" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="P217" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="Q217">
         <v>1</v>
@@ -15988,7 +15991,7 @@
         <v>3</v>
       </c>
       <c r="S217">
-        <v>0.0019214</v>
+        <v>0.002445708</v>
       </c>
     </row>
     <row r="218" spans="1:19">
@@ -16016,26 +16019,26 @@
       <c r="H218" t="s">
         <v>642</v>
       </c>
-      <c r="I218" t="s">
-        <v>642</v>
-      </c>
       <c r="J218" t="s">
         <v>642</v>
       </c>
-      <c r="K218" t="s">
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="N218" t="s">
         <v>642</v>
       </c>
-      <c r="L218">
-        <v>1</v>
+      <c r="P218" t="s">
+        <v>642</v>
       </c>
       <c r="Q218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S218">
-        <v>0.0028443</v>
+        <v>0.00337375</v>
       </c>
     </row>
     <row r="219" spans="1:19">
@@ -16064,16 +16067,16 @@
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="N219" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O219" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="P219" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="Q219">
         <v>1</v>
@@ -16082,7 +16085,7 @@
         <v>3</v>
       </c>
       <c r="S219">
-        <v>0.006103</v>
+        <v>0.005184125</v>
       </c>
     </row>
     <row r="220" spans="1:19">
@@ -16111,16 +16114,16 @@
         <v>0</v>
       </c>
       <c r="M220" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N220" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="O220" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="P220" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -16129,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="S220">
-        <v>0.0026417</v>
+        <v>0.00247175</v>
       </c>
     </row>
     <row r="221" spans="1:19">
@@ -16170,13 +16173,13 @@
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="N221" t="s">
         <v>1146</v>
       </c>
       <c r="O221" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="P221" t="s">
         <v>1146</v>
@@ -16188,7 +16191,7 @@
         <v>2</v>
       </c>
       <c r="S221">
-        <v>0.0046689</v>
+        <v>0.004523417</v>
       </c>
     </row>
     <row r="222" spans="1:19">
@@ -16229,16 +16232,16 @@
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="N222" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O222" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="P222" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -16247,7 +16250,7 @@
         <v>3</v>
       </c>
       <c r="S222">
-        <v>0.0065133</v>
+        <v>0.005220875</v>
       </c>
     </row>
     <row r="223" spans="1:19">
@@ -16288,16 +16291,16 @@
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="N223" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="O223" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P223" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -16306,7 +16309,7 @@
         <v>3</v>
       </c>
       <c r="S223">
-        <v>0.0053793</v>
+        <v>0.004964958</v>
       </c>
     </row>
     <row r="224" spans="1:19">
@@ -16335,16 +16338,16 @@
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N224" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O224" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="P224" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="Q224">
         <v>1</v>
@@ -16353,7 +16356,7 @@
         <v>3</v>
       </c>
       <c r="S224">
-        <v>0.002523</v>
+        <v>0.002073333</v>
       </c>
     </row>
     <row r="225" spans="1:19">
@@ -16382,16 +16385,16 @@
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N225" t="s">
         <v>1147</v>
       </c>
       <c r="O225" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="P225" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="Q225">
         <v>1</v>
@@ -16400,7 +16403,7 @@
         <v>3</v>
       </c>
       <c r="S225">
-        <v>0.0037843</v>
+        <v>0.003356</v>
       </c>
     </row>
     <row r="226" spans="1:19">
@@ -16441,16 +16444,16 @@
         <v>1</v>
       </c>
       <c r="M226" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N226" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O226" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P226" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q226">
         <v>1</v>
@@ -16459,7 +16462,7 @@
         <v>3</v>
       </c>
       <c r="S226">
-        <v>0.0038013</v>
+        <v>0.003599417</v>
       </c>
     </row>
     <row r="227" spans="1:19">
@@ -16506,7 +16509,7 @@
         <v>3</v>
       </c>
       <c r="S227">
-        <v>0.0022106</v>
+        <v>0.001870958</v>
       </c>
     </row>
     <row r="228" spans="1:19">
@@ -16547,16 +16550,16 @@
         <v>1</v>
       </c>
       <c r="M228" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N228" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="O228" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="P228" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q228">
         <v>1</v>
@@ -16565,7 +16568,7 @@
         <v>3</v>
       </c>
       <c r="S228">
-        <v>0.0038152</v>
+        <v>0.003470959</v>
       </c>
     </row>
     <row r="229" spans="1:19">
@@ -16606,16 +16609,16 @@
         <v>1</v>
       </c>
       <c r="M229" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N229" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="O229" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="P229" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="Q229">
         <v>1</v>
@@ -16624,7 +16627,7 @@
         <v>3</v>
       </c>
       <c r="S229">
-        <v>0.0021658</v>
+        <v>0.002011</v>
       </c>
     </row>
     <row r="230" spans="1:19">
@@ -16665,16 +16668,16 @@
         <v>1</v>
       </c>
       <c r="M230" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="N230" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O230" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="P230" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="Q230">
         <v>1</v>
@@ -16683,7 +16686,7 @@
         <v>3</v>
       </c>
       <c r="S230">
-        <v>0.0058417</v>
+        <v>0.005282625</v>
       </c>
     </row>
     <row r="231" spans="1:19">
@@ -16724,16 +16727,16 @@
         <v>1</v>
       </c>
       <c r="M231" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N231" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O231" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="P231" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Q231">
         <v>1</v>
@@ -16742,7 +16745,7 @@
         <v>3</v>
       </c>
       <c r="S231">
-        <v>0.0041545</v>
+        <v>0.003374458</v>
       </c>
     </row>
     <row r="232" spans="1:19">
@@ -16783,16 +16786,16 @@
         <v>1</v>
       </c>
       <c r="M232" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="N232" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O232" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="P232" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="Q232">
         <v>1</v>
@@ -16801,7 +16804,7 @@
         <v>3</v>
       </c>
       <c r="S232">
-        <v>0.0037791</v>
+        <v>0.003420083</v>
       </c>
     </row>
     <row r="233" spans="1:19">
@@ -16842,16 +16845,16 @@
         <v>1</v>
       </c>
       <c r="M233" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N233" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="O233" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="P233" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Q233">
         <v>1</v>
@@ -16860,7 +16863,7 @@
         <v>3</v>
       </c>
       <c r="S233">
-        <v>0.0040803</v>
+        <v>0.003628375</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -16907,7 +16910,7 @@
         <v>3</v>
       </c>
       <c r="S234">
-        <v>0.003716</v>
+        <v>0.003004708</v>
       </c>
     </row>
     <row r="235" spans="1:19">
@@ -16936,16 +16939,16 @@
         <v>1</v>
       </c>
       <c r="M235" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N235" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="O235" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P235" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Q235">
         <v>1</v>
@@ -16954,7 +16957,7 @@
         <v>3</v>
       </c>
       <c r="S235">
-        <v>0.0049497</v>
+        <v>0.004071458</v>
       </c>
     </row>
     <row r="236" spans="1:19">
@@ -16983,16 +16986,16 @@
         <v>1</v>
       </c>
       <c r="M236" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N236" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O236" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="P236" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="Q236">
         <v>1</v>
@@ -17001,7 +17004,7 @@
         <v>3</v>
       </c>
       <c r="S236">
-        <v>0.0040981</v>
+        <v>0.003721791</v>
       </c>
     </row>
     <row r="237" spans="1:19">
@@ -17029,26 +17032,26 @@
       <c r="H237" t="s">
         <v>680</v>
       </c>
-      <c r="I237" t="s">
-        <v>680</v>
-      </c>
       <c r="J237" t="s">
         <v>680</v>
       </c>
-      <c r="K237" t="s">
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="N237" t="s">
         <v>680</v>
       </c>
-      <c r="L237">
-        <v>1</v>
+      <c r="P237" t="s">
+        <v>680</v>
       </c>
       <c r="Q237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S237">
-        <v>0.002242</v>
+        <v>0.001801958</v>
       </c>
     </row>
     <row r="238" spans="1:19">
@@ -17089,16 +17092,16 @@
         <v>1</v>
       </c>
       <c r="M238" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="N238" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O238" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P238" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="Q238">
         <v>1</v>
@@ -17107,7 +17110,7 @@
         <v>3</v>
       </c>
       <c r="S238">
-        <v>0.0074213</v>
+        <v>0.006448459</v>
       </c>
     </row>
     <row r="239" spans="1:19">
@@ -17136,16 +17139,16 @@
         <v>1</v>
       </c>
       <c r="M239" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N239" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="O239" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P239" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q239">
         <v>1</v>
@@ -17154,7 +17157,7 @@
         <v>3</v>
       </c>
       <c r="S239">
-        <v>0.001674</v>
+        <v>0.001207084</v>
       </c>
     </row>
     <row r="240" spans="1:19">
@@ -17183,16 +17186,16 @@
         <v>1</v>
       </c>
       <c r="M240" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="N240" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O240" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="P240" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Q240">
         <v>1</v>
@@ -17201,7 +17204,7 @@
         <v>3</v>
       </c>
       <c r="S240">
-        <v>0.0021533</v>
+        <v>0.001645959</v>
       </c>
     </row>
     <row r="241" spans="1:19">
@@ -17230,16 +17233,16 @@
         <v>1</v>
       </c>
       <c r="M241" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N241" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O241" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="P241" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -17248,7 +17251,7 @@
         <v>3</v>
       </c>
       <c r="S241">
-        <v>0.0046092</v>
+        <v>0.003735125</v>
       </c>
     </row>
     <row r="242" spans="1:19">
@@ -17289,16 +17292,16 @@
         <v>1</v>
       </c>
       <c r="M242" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N242" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="O242" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="P242" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -17307,7 +17310,7 @@
         <v>3</v>
       </c>
       <c r="S242">
-        <v>0.0059403</v>
+        <v>0.005032958</v>
       </c>
     </row>
     <row r="243" spans="1:19">
@@ -17354,7 +17357,7 @@
         <v>3</v>
       </c>
       <c r="S243">
-        <v>0.0040497</v>
+        <v>0.003239959</v>
       </c>
     </row>
     <row r="244" spans="1:19">
@@ -17383,16 +17386,16 @@
         <v>1</v>
       </c>
       <c r="M244" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="N244" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O244" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="P244" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="Q244">
         <v>1</v>
@@ -17401,7 +17404,7 @@
         <v>3</v>
       </c>
       <c r="S244">
-        <v>0.0034138</v>
+        <v>0.003150875</v>
       </c>
     </row>
     <row r="245" spans="1:19">
@@ -17442,16 +17445,16 @@
         <v>1</v>
       </c>
       <c r="M245" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N245" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="O245" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="P245" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Q245">
         <v>1</v>
@@ -17460,7 +17463,7 @@
         <v>3</v>
       </c>
       <c r="S245">
-        <v>0.0055118</v>
+        <v>0.004704875</v>
       </c>
     </row>
     <row r="246" spans="1:19">
@@ -17489,16 +17492,16 @@
         <v>1</v>
       </c>
       <c r="M246" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N246" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O246" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="P246" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="Q246">
         <v>1</v>
@@ -17507,7 +17510,7 @@
         <v>3</v>
       </c>
       <c r="S246">
-        <v>0.0046276</v>
+        <v>0.003574375</v>
       </c>
     </row>
     <row r="247" spans="1:19">
@@ -17536,16 +17539,16 @@
         <v>1</v>
       </c>
       <c r="M247" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="N247" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O247" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P247" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -17554,7 +17557,7 @@
         <v>3</v>
       </c>
       <c r="S247">
-        <v>0.0013148</v>
+        <v>0.001160875</v>
       </c>
     </row>
     <row r="248" spans="1:19">
@@ -17595,16 +17598,16 @@
         <v>1</v>
       </c>
       <c r="M248" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="N248" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="O248" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="P248" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q248">
         <v>1</v>
@@ -17613,7 +17616,7 @@
         <v>3</v>
       </c>
       <c r="S248">
-        <v>0.0021892</v>
+        <v>0.0018055</v>
       </c>
     </row>
     <row r="249" spans="1:19">
@@ -17629,38 +17632,32 @@
       <c r="H249" t="s">
         <v>688</v>
       </c>
-      <c r="I249" t="s">
-        <v>688</v>
-      </c>
       <c r="J249" t="s">
         <v>688</v>
       </c>
-      <c r="K249" t="s">
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249" t="s">
+        <v>988</v>
+      </c>
+      <c r="N249" t="s">
         <v>688</v>
-      </c>
-      <c r="L249">
-        <v>1</v>
-      </c>
-      <c r="M249" t="s">
-        <v>987</v>
-      </c>
-      <c r="N249" t="s">
-        <v>538</v>
       </c>
       <c r="O249">
         <v>4</v>
       </c>
-      <c r="P249">
-        <v>1</v>
+      <c r="P249" t="s">
+        <v>688</v>
       </c>
       <c r="Q249">
         <v>0</v>
       </c>
       <c r="R249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S249">
-        <v>0.0031142</v>
+        <v>0.002620459</v>
       </c>
     </row>
     <row r="250" spans="1:19">
@@ -17701,16 +17698,16 @@
         <v>1</v>
       </c>
       <c r="M250" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="N250" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O250" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="P250" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="Q250">
         <v>1</v>
@@ -17719,7 +17716,7 @@
         <v>3</v>
       </c>
       <c r="S250">
-        <v>0.0034721</v>
+        <v>0.003035542</v>
       </c>
     </row>
     <row r="251" spans="1:19">
@@ -17760,16 +17757,16 @@
         <v>1</v>
       </c>
       <c r="M251" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N251" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O251" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="P251" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="Q251">
         <v>1</v>
@@ -17778,7 +17775,7 @@
         <v>3</v>
       </c>
       <c r="S251">
-        <v>0.0053232</v>
+        <v>0.004425917</v>
       </c>
     </row>
     <row r="252" spans="1:19">
@@ -17825,7 +17822,7 @@
         <v>3</v>
       </c>
       <c r="S252">
-        <v>0.0050941</v>
+        <v>0.004184375</v>
       </c>
     </row>
     <row r="253" spans="1:19">
@@ -17854,7 +17851,7 @@
         <v>1</v>
       </c>
       <c r="M253" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N253" t="s">
         <v>1148</v>
@@ -17872,7 +17869,7 @@
         <v>3</v>
       </c>
       <c r="S253">
-        <v>7.53E-05</v>
+        <v>5.4333E-05</v>
       </c>
     </row>
     <row r="254" spans="1:19">
@@ -17913,16 +17910,16 @@
         <v>1</v>
       </c>
       <c r="M254" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N254" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O254" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="P254" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="Q254">
         <v>1</v>
@@ -17931,7 +17928,7 @@
         <v>3</v>
       </c>
       <c r="S254">
-        <v>0.0067678</v>
+        <v>0.005221084</v>
       </c>
     </row>
     <row r="255" spans="1:19">
@@ -17963,25 +17960,25 @@
         <v>693</v>
       </c>
       <c r="J255" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K255" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L255">
         <v>1</v>
       </c>
       <c r="M255" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="N255" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="O255" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P255" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="Q255">
         <v>1</v>
@@ -17990,7 +17987,7 @@
         <v>3</v>
       </c>
       <c r="S255">
-        <v>0.0046733</v>
+        <v>0.003958208</v>
       </c>
     </row>
     <row r="256" spans="1:19">
@@ -18019,16 +18016,16 @@
         <v>1</v>
       </c>
       <c r="M256" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N256" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="O256" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="P256" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="Q256">
         <v>1</v>
@@ -18037,7 +18034,7 @@
         <v>3</v>
       </c>
       <c r="S256">
-        <v>0.0061765</v>
+        <v>0.0050485</v>
       </c>
     </row>
     <row r="257" spans="1:19">
@@ -18078,16 +18075,16 @@
         <v>1</v>
       </c>
       <c r="M257" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="N257" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O257" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="P257" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="Q257">
         <v>1</v>
@@ -18096,7 +18093,7 @@
         <v>3</v>
       </c>
       <c r="S257">
-        <v>0.0046989</v>
+        <v>0.004244334</v>
       </c>
     </row>
     <row r="258" spans="1:19">
@@ -18118,15 +18115,9 @@
       <c r="H258" t="s">
         <v>696</v>
       </c>
-      <c r="I258" t="s">
-        <v>498</v>
-      </c>
       <c r="J258" t="s">
         <v>696</v>
       </c>
-      <c r="K258" t="s">
-        <v>498</v>
-      </c>
       <c r="L258">
         <v>0</v>
       </c>
@@ -18149,7 +18140,7 @@
         <v>1</v>
       </c>
       <c r="S258">
-        <v>0.0034428</v>
+        <v>0.003069583</v>
       </c>
     </row>
     <row r="259" spans="1:19">
@@ -18178,13 +18169,13 @@
         <v>1</v>
       </c>
       <c r="M259" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N259" t="s">
         <v>1149</v>
       </c>
       <c r="O259" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="P259" t="s">
         <v>1149</v>
@@ -18196,7 +18187,7 @@
         <v>2</v>
       </c>
       <c r="S259">
-        <v>0.0027246</v>
+        <v>0.002091375</v>
       </c>
     </row>
     <row r="260" spans="1:19">
@@ -18243,7 +18234,7 @@
         <v>3</v>
       </c>
       <c r="S260">
-        <v>0.0038441</v>
+        <v>0.003361459</v>
       </c>
     </row>
     <row r="261" spans="1:19">
@@ -18290,7 +18281,7 @@
         <v>3</v>
       </c>
       <c r="S261">
-        <v>0.0059227</v>
+        <v>0.004963875</v>
       </c>
     </row>
     <row r="262" spans="1:19">
@@ -18319,16 +18310,16 @@
         <v>1</v>
       </c>
       <c r="M262" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N262" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O262" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="P262" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Q262">
         <v>1</v>
@@ -18337,7 +18328,7 @@
         <v>3</v>
       </c>
       <c r="S262">
-        <v>0.0029139</v>
+        <v>0.002386041</v>
       </c>
     </row>
     <row r="263" spans="1:19">
@@ -18366,16 +18357,16 @@
         <v>1</v>
       </c>
       <c r="M263" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="N263" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O263" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="P263" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="Q263">
         <v>1</v>
@@ -18384,7 +18375,7 @@
         <v>3</v>
       </c>
       <c r="S263">
-        <v>0.0050107</v>
+        <v>0.004686083</v>
       </c>
     </row>
     <row r="264" spans="1:19">
@@ -18431,7 +18422,7 @@
         <v>1</v>
       </c>
       <c r="S264">
-        <v>0.0059278</v>
+        <v>0.004603333</v>
       </c>
     </row>
     <row r="265" spans="1:19">
@@ -18460,10 +18451,10 @@
         <v>1</v>
       </c>
       <c r="M265" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N265" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="O265">
         <v>4</v>
@@ -18478,7 +18469,7 @@
         <v>3</v>
       </c>
       <c r="S265">
-        <v>0.0028087</v>
+        <v>0.002200083</v>
       </c>
     </row>
     <row r="266" spans="1:19">
@@ -18507,16 +18498,16 @@
         <v>1</v>
       </c>
       <c r="M266" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N266" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O266" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="P266" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Q266">
         <v>1</v>
@@ -18525,7 +18516,7 @@
         <v>3</v>
       </c>
       <c r="S266">
-        <v>0.0008274000000000001</v>
+        <v>0.000682792</v>
       </c>
     </row>
     <row r="267" spans="1:19">
@@ -18554,16 +18545,16 @@
         <v>1</v>
       </c>
       <c r="M267" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N267" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O267" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="P267" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q267">
         <v>1</v>
@@ -18572,7 +18563,7 @@
         <v>3</v>
       </c>
       <c r="S267">
-        <v>0.0022574</v>
+        <v>0.001978833</v>
       </c>
     </row>
     <row r="268" spans="1:19">
@@ -18613,16 +18604,16 @@
         <v>1</v>
       </c>
       <c r="M268" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N268" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O268" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="P268" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Q268">
         <v>1</v>
@@ -18631,7 +18622,7 @@
         <v>3</v>
       </c>
       <c r="S268">
-        <v>0.006276</v>
+        <v>0.005076291</v>
       </c>
     </row>
     <row r="269" spans="1:19">
@@ -18672,16 +18663,16 @@
         <v>1</v>
       </c>
       <c r="M269" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N269" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O269" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P269" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -18690,7 +18681,7 @@
         <v>3</v>
       </c>
       <c r="S269">
-        <v>0.006477</v>
+        <v>0.005594</v>
       </c>
     </row>
     <row r="270" spans="1:19">
@@ -18737,7 +18728,7 @@
         <v>3</v>
       </c>
       <c r="S270">
-        <v>0.0053233</v>
+        <v>0.004480167</v>
       </c>
     </row>
     <row r="271" spans="1:19">
@@ -18778,16 +18769,16 @@
         <v>1</v>
       </c>
       <c r="M271" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N271" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="O271" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="P271" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -18796,7 +18787,7 @@
         <v>3</v>
       </c>
       <c r="S271">
-        <v>0.0037335</v>
+        <v>0.003549125</v>
       </c>
     </row>
     <row r="272" spans="1:19">
@@ -18837,16 +18828,16 @@
         <v>1</v>
       </c>
       <c r="M272" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N272" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O272" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="P272" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="Q272">
         <v>1</v>
@@ -18855,7 +18846,7 @@
         <v>3</v>
       </c>
       <c r="S272">
-        <v>0.0054988</v>
+        <v>0.004409875</v>
       </c>
     </row>
     <row r="273" spans="1:19">
@@ -18896,16 +18887,16 @@
         <v>1</v>
       </c>
       <c r="M273" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="N273" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="O273" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="P273" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="Q273">
         <v>1</v>
@@ -18914,7 +18905,7 @@
         <v>3</v>
       </c>
       <c r="S273">
-        <v>0.0016149</v>
+        <v>0.001387959</v>
       </c>
     </row>
     <row r="274" spans="1:19">
@@ -18955,16 +18946,16 @@
         <v>1</v>
       </c>
       <c r="M274" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N274" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O274" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="P274" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Q274">
         <v>1</v>
@@ -18973,7 +18964,7 @@
         <v>3</v>
       </c>
       <c r="S274">
-        <v>0.0056864</v>
+        <v>0.004770916</v>
       </c>
     </row>
     <row r="275" spans="1:19">
@@ -19014,13 +19005,13 @@
         <v>0</v>
       </c>
       <c r="M275" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N275" t="s">
         <v>1150</v>
       </c>
       <c r="O275" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="P275" t="s">
         <v>1150</v>
@@ -19032,7 +19023,7 @@
         <v>1</v>
       </c>
       <c r="S275">
-        <v>0.006537</v>
+        <v>0.005193125</v>
       </c>
     </row>
     <row r="276" spans="1:19">
@@ -19061,16 +19052,16 @@
         <v>1</v>
       </c>
       <c r="M276" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N276" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="O276" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="P276" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="Q276">
         <v>1</v>
@@ -19079,7 +19070,7 @@
         <v>3</v>
       </c>
       <c r="S276">
-        <v>0.0011572</v>
+        <v>0.000908875</v>
       </c>
     </row>
     <row r="277" spans="1:19">
@@ -19108,16 +19099,16 @@
         <v>1</v>
       </c>
       <c r="M277" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="N277" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O277" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="P277" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="Q277">
         <v>1</v>
@@ -19126,7 +19117,7 @@
         <v>3</v>
       </c>
       <c r="S277">
-        <v>0.0025944</v>
+        <v>0.002086792</v>
       </c>
     </row>
     <row r="278" spans="1:19">
@@ -19155,16 +19146,16 @@
         <v>1</v>
       </c>
       <c r="M278" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N278" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O278" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P278" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="Q278">
         <v>1</v>
@@ -19173,7 +19164,7 @@
         <v>3</v>
       </c>
       <c r="S278">
-        <v>0.0031228</v>
+        <v>0.002870542</v>
       </c>
     </row>
     <row r="279" spans="1:19">
@@ -19202,16 +19193,16 @@
         <v>1</v>
       </c>
       <c r="M279" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="N279" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="O279" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="P279" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q279">
         <v>1</v>
@@ -19220,7 +19211,7 @@
         <v>3</v>
       </c>
       <c r="S279">
-        <v>0.0022327</v>
+        <v>0.001967292</v>
       </c>
     </row>
     <row r="280" spans="1:19">
@@ -19249,16 +19240,16 @@
         <v>1</v>
       </c>
       <c r="M280" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N280" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="O280" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="P280" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Q280">
         <v>1</v>
@@ -19267,7 +19258,7 @@
         <v>3</v>
       </c>
       <c r="S280">
-        <v>0.0034017</v>
+        <v>0.003219916</v>
       </c>
     </row>
     <row r="281" spans="1:19">
@@ -19308,16 +19299,16 @@
         <v>1</v>
       </c>
       <c r="M281" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N281" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="O281" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="P281" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Q281">
         <v>1</v>
@@ -19326,7 +19317,7 @@
         <v>3</v>
       </c>
       <c r="S281">
-        <v>0.0035017</v>
+        <v>0.002860625</v>
       </c>
     </row>
     <row r="282" spans="1:19">
@@ -19355,16 +19346,16 @@
         <v>1</v>
       </c>
       <c r="M282" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N282" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="O282" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="P282" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="Q282">
         <v>1</v>
@@ -19373,7 +19364,7 @@
         <v>3</v>
       </c>
       <c r="S282">
-        <v>0.0025859</v>
+        <v>0.002397458</v>
       </c>
     </row>
     <row r="283" spans="1:19">
@@ -19420,7 +19411,7 @@
         <v>3</v>
       </c>
       <c r="S283">
-        <v>0.0044349</v>
+        <v>0.003790584</v>
       </c>
     </row>
     <row r="284" spans="1:19">
@@ -19467,7 +19458,7 @@
         <v>3</v>
       </c>
       <c r="S284">
-        <v>0.0004731</v>
+        <v>0.000402083</v>
       </c>
     </row>
     <row r="285" spans="1:19">
@@ -19508,16 +19499,16 @@
         <v>1</v>
       </c>
       <c r="M285" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N285" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O285" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="P285" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="Q285">
         <v>1</v>
@@ -19526,7 +19517,7 @@
         <v>3</v>
       </c>
       <c r="S285">
-        <v>0.0059194</v>
+        <v>0.005095292</v>
       </c>
     </row>
     <row r="286" spans="1:19">
@@ -19573,7 +19564,7 @@
         <v>1</v>
       </c>
       <c r="S286">
-        <v>0.0026954</v>
+        <v>0.002177458</v>
       </c>
     </row>
     <row r="287" spans="1:19">
@@ -19620,7 +19611,7 @@
         <v>3</v>
       </c>
       <c r="S287">
-        <v>0.0012729</v>
+        <v>0.001291917</v>
       </c>
     </row>
     <row r="288" spans="1:19">
@@ -19661,10 +19652,10 @@
         <v>1</v>
       </c>
       <c r="M288" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O288" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="Q288">
         <v>0</v>
@@ -19673,7 +19664,7 @@
         <v>2</v>
       </c>
       <c r="S288">
-        <v>0.0042638</v>
+        <v>0.003929792</v>
       </c>
     </row>
     <row r="289" spans="1:19">
@@ -19702,16 +19693,16 @@
         <v>1</v>
       </c>
       <c r="M289" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N289" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O289" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="P289" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="Q289">
         <v>1</v>
@@ -19720,7 +19711,7 @@
         <v>3</v>
       </c>
       <c r="S289">
-        <v>0.0038939</v>
+        <v>0.003564041</v>
       </c>
     </row>
     <row r="290" spans="1:19">
@@ -19733,41 +19724,41 @@
       <c r="C290" t="s">
         <v>478</v>
       </c>
-      <c r="D290" t="s">
-        <v>478</v>
-      </c>
       <c r="E290" t="s">
         <v>478</v>
       </c>
-      <c r="F290" t="s">
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="I290" t="s">
         <v>478</v>
       </c>
-      <c r="G290">
-        <v>1</v>
+      <c r="K290" t="s">
+        <v>478</v>
       </c>
       <c r="L290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M290" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N290" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O290" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="P290" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="Q290">
         <v>1</v>
       </c>
       <c r="R290">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S290">
-        <v>0.0032108</v>
+        <v>0.002763292</v>
       </c>
     </row>
     <row r="291" spans="1:19">
@@ -19814,7 +19805,7 @@
         <v>3</v>
       </c>
       <c r="S291">
-        <v>0.0012912</v>
+        <v>0.0011975</v>
       </c>
     </row>
     <row r="292" spans="1:19">
@@ -19843,16 +19834,16 @@
         <v>1</v>
       </c>
       <c r="M292" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N292" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O292" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="P292" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -19861,7 +19852,7 @@
         <v>3</v>
       </c>
       <c r="S292">
-        <v>0.0035265</v>
+        <v>0.00260025</v>
       </c>
     </row>
     <row r="293" spans="1:19">
@@ -19908,7 +19899,7 @@
         <v>3</v>
       </c>
       <c r="S293">
-        <v>0.0032292</v>
+        <v>0.002774209</v>
       </c>
     </row>
     <row r="294" spans="1:19">
@@ -19949,16 +19940,16 @@
         <v>1</v>
       </c>
       <c r="M294" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="N294" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="O294" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P294" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="Q294">
         <v>1</v>
@@ -19967,7 +19958,7 @@
         <v>3</v>
       </c>
       <c r="S294">
-        <v>0.0044819</v>
+        <v>0.004098</v>
       </c>
     </row>
     <row r="295" spans="1:19">
@@ -19996,16 +19987,16 @@
         <v>1</v>
       </c>
       <c r="M295" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N295" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="O295" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="P295" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="Q295">
         <v>1</v>
@@ -20014,7 +20005,7 @@
         <v>3</v>
       </c>
       <c r="S295">
-        <v>0.0032096</v>
+        <v>0.003054875</v>
       </c>
     </row>
     <row r="296" spans="1:19">
@@ -20043,16 +20034,16 @@
         <v>1</v>
       </c>
       <c r="M296" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N296" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="O296" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="P296" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="Q296">
         <v>1</v>
@@ -20061,7 +20052,7 @@
         <v>3</v>
       </c>
       <c r="S296">
-        <v>0.0036672</v>
+        <v>0.003642666</v>
       </c>
     </row>
     <row r="297" spans="1:19">
@@ -20102,16 +20093,16 @@
         <v>1</v>
       </c>
       <c r="M297" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N297" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O297" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P297" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="Q297">
         <v>1</v>
@@ -20120,7 +20111,7 @@
         <v>3</v>
       </c>
       <c r="S297">
-        <v>0.0053184</v>
+        <v>0.004889209</v>
       </c>
     </row>
     <row r="298" spans="1:19">
@@ -20161,16 +20152,16 @@
         <v>1</v>
       </c>
       <c r="M298" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="N298" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="O298" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="P298" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="Q298">
         <v>1</v>
@@ -20179,7 +20170,7 @@
         <v>3</v>
       </c>
       <c r="S298">
-        <v>0.0042691</v>
+        <v>0.004085917</v>
       </c>
     </row>
     <row r="299" spans="1:19">
@@ -20220,16 +20211,16 @@
         <v>1</v>
       </c>
       <c r="M299" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N299" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="O299" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="P299" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="Q299">
         <v>1</v>
@@ -20238,7 +20229,7 @@
         <v>3</v>
       </c>
       <c r="S299">
-        <v>0.0055183</v>
+        <v>0.005181542</v>
       </c>
     </row>
     <row r="300" spans="1:19">
@@ -20285,7 +20276,7 @@
         <v>3</v>
       </c>
       <c r="S300">
-        <v>0.0040509</v>
+        <v>0.003601125</v>
       </c>
     </row>
     <row r="301" spans="1:19">
@@ -20326,16 +20317,16 @@
         <v>1</v>
       </c>
       <c r="M301" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N301" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O301" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="P301" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="Q301">
         <v>1</v>
@@ -20344,7 +20335,7 @@
         <v>3</v>
       </c>
       <c r="S301">
-        <v>0.004627</v>
+        <v>0.00438225</v>
       </c>
     </row>
     <row r="302" spans="1:19">
@@ -20373,16 +20364,16 @@
         <v>1</v>
       </c>
       <c r="M302" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N302" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="O302" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P302" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="Q302">
         <v>1</v>
@@ -20391,7 +20382,7 @@
         <v>3</v>
       </c>
       <c r="S302">
-        <v>0.0019597</v>
+        <v>0.001977875</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -20432,16 +20423,16 @@
         <v>1</v>
       </c>
       <c r="M303" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="N303" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O303" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="P303" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="Q303">
         <v>1</v>
@@ -20450,7 +20441,7 @@
         <v>3</v>
       </c>
       <c r="S303">
-        <v>0.0059503</v>
+        <v>0.005653708</v>
       </c>
     </row>
     <row r="304" spans="1:19">
@@ -20479,16 +20470,16 @@
         <v>1</v>
       </c>
       <c r="M304" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="N304" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="O304" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="P304" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="Q304">
         <v>1</v>
@@ -20497,7 +20488,7 @@
         <v>3</v>
       </c>
       <c r="S304">
-        <v>0.0024364</v>
+        <v>0.002186958</v>
       </c>
     </row>
     <row r="305" spans="1:19">
@@ -20556,7 +20547,7 @@
         <v>1</v>
       </c>
       <c r="S305">
-        <v>0.003612</v>
+        <v>0.00362275</v>
       </c>
     </row>
     <row r="306" spans="1:19">
@@ -20603,7 +20594,7 @@
         <v>3</v>
       </c>
       <c r="S306">
-        <v>0.0039149</v>
+        <v>0.003900334</v>
       </c>
     </row>
     <row r="307" spans="1:19">
@@ -20628,29 +20619,29 @@
       <c r="G307">
         <v>1</v>
       </c>
+      <c r="I307" t="s">
+        <v>801</v>
+      </c>
+      <c r="K307" t="s">
+        <v>801</v>
+      </c>
       <c r="L307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M307" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N307" t="s">
-        <v>1028</v>
+        <v>801</v>
       </c>
       <c r="O307" t="s">
-        <v>1028</v>
-      </c>
-      <c r="P307" t="s">
-        <v>1028</v>
+        <v>801</v>
       </c>
       <c r="Q307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S307">
-        <v>0.0028059</v>
+        <v>0.002630667</v>
       </c>
     </row>
     <row r="308" spans="1:19">
@@ -20697,7 +20688,7 @@
         <v>3</v>
       </c>
       <c r="S308">
-        <v>0.0033171</v>
+        <v>0.003324292</v>
       </c>
     </row>
     <row r="309" spans="1:19">
@@ -20750,7 +20741,7 @@
         <v>2</v>
       </c>
       <c r="S309">
-        <v>0.0103568</v>
+        <v>0.005276</v>
       </c>
     </row>
     <row r="310" spans="1:19">
@@ -20797,7 +20788,7 @@
         <v>3</v>
       </c>
       <c r="S310">
-        <v>0.0032923</v>
+        <v>0.002475542</v>
       </c>
     </row>
     <row r="311" spans="1:19">
@@ -20856,7 +20847,7 @@
         <v>3</v>
       </c>
       <c r="S311">
-        <v>0.0062911</v>
+        <v>0.006214959</v>
       </c>
     </row>
     <row r="312" spans="1:19">
@@ -20903,7 +20894,7 @@
         <v>3</v>
       </c>
       <c r="S312">
-        <v>0.0046709</v>
+        <v>0.004320916</v>
       </c>
     </row>
     <row r="313" spans="1:19">
@@ -20950,7 +20941,7 @@
         <v>3</v>
       </c>
       <c r="S313">
-        <v>0.0039035</v>
+        <v>0.00364375</v>
       </c>
     </row>
     <row r="314" spans="1:19">
@@ -21009,7 +21000,7 @@
         <v>3</v>
       </c>
       <c r="S314">
-        <v>0.0067512</v>
+        <v>0.00595875</v>
       </c>
     </row>
     <row r="315" spans="1:19">
@@ -21056,7 +21047,7 @@
         <v>3</v>
       </c>
       <c r="S315">
-        <v>0.0038903</v>
+        <v>0.003202625</v>
       </c>
     </row>
     <row r="316" spans="1:19">
@@ -21103,7 +21094,7 @@
         <v>3</v>
       </c>
       <c r="S316">
-        <v>0.0018731</v>
+        <v>0.001617458</v>
       </c>
     </row>
     <row r="317" spans="1:19">
@@ -21150,7 +21141,7 @@
         <v>3</v>
       </c>
       <c r="S317">
-        <v>0.0016188</v>
+        <v>0.001418084</v>
       </c>
     </row>
     <row r="318" spans="1:19">
@@ -21197,7 +21188,7 @@
         <v>3</v>
       </c>
       <c r="S318">
-        <v>0.0027408</v>
+        <v>0.0023695</v>
       </c>
     </row>
     <row r="319" spans="1:19">
@@ -21244,7 +21235,7 @@
         <v>3</v>
       </c>
       <c r="S319">
-        <v>0.0058853</v>
+        <v>0.005039208</v>
       </c>
     </row>
     <row r="320" spans="1:19">
@@ -21303,7 +21294,7 @@
         <v>3</v>
       </c>
       <c r="S320">
-        <v>0.0042217</v>
+        <v>0.003549417</v>
       </c>
     </row>
     <row r="321" spans="1:19">
@@ -21350,7 +21341,7 @@
         <v>3</v>
       </c>
       <c r="S321">
-        <v>0.0065039</v>
+        <v>0.005719167</v>
       </c>
     </row>
     <row r="322" spans="1:19">
@@ -21409,7 +21400,7 @@
         <v>3</v>
       </c>
       <c r="S322">
-        <v>0.0014238</v>
+        <v>0.001197333</v>
       </c>
     </row>
     <row r="323" spans="1:19">
@@ -21456,7 +21447,7 @@
         <v>3</v>
       </c>
       <c r="S323">
-        <v>0.0019366</v>
+        <v>0.001672333</v>
       </c>
     </row>
     <row r="324" spans="1:19">
@@ -21503,7 +21494,7 @@
         <v>3</v>
       </c>
       <c r="S324">
-        <v>0.0023786</v>
+        <v>0.001934666</v>
       </c>
     </row>
     <row r="325" spans="1:19">
@@ -21550,7 +21541,7 @@
         <v>3</v>
       </c>
       <c r="S325">
-        <v>0.0045168</v>
+        <v>0.003887667</v>
       </c>
     </row>
     <row r="326" spans="1:19">
@@ -21609,7 +21600,7 @@
         <v>3</v>
       </c>
       <c r="S326">
-        <v>0.003478</v>
+        <v>0.003223333</v>
       </c>
     </row>
     <row r="327" spans="1:19">
@@ -21656,7 +21647,7 @@
         <v>3</v>
       </c>
       <c r="S327">
-        <v>0.0035381</v>
+        <v>0.002908875</v>
       </c>
     </row>
     <row r="328" spans="1:19">
@@ -21715,7 +21706,7 @@
         <v>3</v>
       </c>
       <c r="S328">
-        <v>0.0058232</v>
+        <v>0.004922042</v>
       </c>
     </row>
     <row r="329" spans="1:19">
@@ -21762,7 +21753,7 @@
         <v>3</v>
       </c>
       <c r="S329">
-        <v>0.001007</v>
+        <v>0.000848083</v>
       </c>
     </row>
     <row r="330" spans="1:19">
@@ -21809,7 +21800,7 @@
         <v>3</v>
       </c>
       <c r="S330">
-        <v>0.0036043</v>
+        <v>0.003189416</v>
       </c>
     </row>
     <row r="331" spans="1:19">
@@ -21868,7 +21859,7 @@
         <v>3</v>
       </c>
       <c r="S331">
-        <v>0.0040949</v>
+        <v>0.003269917</v>
       </c>
     </row>
     <row r="332" spans="1:19">
@@ -21927,7 +21918,7 @@
         <v>3</v>
       </c>
       <c r="S332">
-        <v>0.0049237</v>
+        <v>0.004117625</v>
       </c>
     </row>
     <row r="333" spans="1:19">
@@ -21986,7 +21977,7 @@
         <v>3</v>
       </c>
       <c r="S333">
-        <v>0.0028089</v>
+        <v>0.002275541</v>
       </c>
     </row>
     <row r="334" spans="1:19">
@@ -22033,7 +22024,7 @@
         <v>3</v>
       </c>
       <c r="S334">
-        <v>0.003739</v>
+        <v>0.003051291</v>
       </c>
     </row>
     <row r="335" spans="1:19">
@@ -22080,7 +22071,7 @@
         <v>3</v>
       </c>
       <c r="S335">
-        <v>0.0038559</v>
+        <v>0.003294125</v>
       </c>
     </row>
     <row r="336" spans="1:19">
@@ -22127,7 +22118,7 @@
         <v>3</v>
       </c>
       <c r="S336">
-        <v>0.0040922</v>
+        <v>0.003545458</v>
       </c>
     </row>
     <row r="337" spans="1:19">
@@ -22186,7 +22177,7 @@
         <v>3</v>
       </c>
       <c r="S337">
-        <v>0.0036479</v>
+        <v>0.003013667</v>
       </c>
     </row>
     <row r="338" spans="1:19">
@@ -22245,7 +22236,7 @@
         <v>3</v>
       </c>
       <c r="S338">
-        <v>0.0054015</v>
+        <v>0.004257209</v>
       </c>
     </row>
     <row r="339" spans="1:19">
@@ -22292,7 +22283,7 @@
         <v>3</v>
       </c>
       <c r="S339">
-        <v>0.00522</v>
+        <v>0.00440275</v>
       </c>
     </row>
     <row r="340" spans="1:19">
@@ -22339,7 +22330,7 @@
         <v>3</v>
       </c>
       <c r="S340">
-        <v>0.0032594</v>
+        <v>0.002808917</v>
       </c>
     </row>
     <row r="341" spans="1:19">
@@ -22398,7 +22389,7 @@
         <v>3</v>
       </c>
       <c r="S341">
-        <v>0.0052447</v>
+        <v>0.004295334</v>
       </c>
     </row>
     <row r="342" spans="1:19">
@@ -22451,7 +22442,7 @@
         <v>2</v>
       </c>
       <c r="S342">
-        <v>0.0051455</v>
+        <v>0.004215208</v>
       </c>
     </row>
     <row r="343" spans="1:19">
@@ -22498,7 +22489,7 @@
         <v>3</v>
       </c>
       <c r="S343">
-        <v>0.0036947</v>
+        <v>0.003119333</v>
       </c>
     </row>
     <row r="344" spans="1:19">
@@ -22545,7 +22536,7 @@
         <v>3</v>
       </c>
       <c r="S344">
-        <v>0.0032877</v>
+        <v>0.002783875</v>
       </c>
     </row>
     <row r="345" spans="1:19">
@@ -22592,7 +22583,7 @@
         <v>3</v>
       </c>
       <c r="S345">
-        <v>0.0030953</v>
+        <v>0.0025995</v>
       </c>
     </row>
     <row r="346" spans="1:19">
@@ -22639,7 +22630,7 @@
         <v>3</v>
       </c>
       <c r="S346">
-        <v>0.0047837</v>
+        <v>0.003713792</v>
       </c>
     </row>
     <row r="347" spans="1:19">
@@ -22698,7 +22689,7 @@
         <v>3</v>
       </c>
       <c r="S347">
-        <v>0.006799</v>
+        <v>0.00594175</v>
       </c>
     </row>
     <row r="348" spans="1:19">
@@ -22745,7 +22736,7 @@
         <v>3</v>
       </c>
       <c r="S348">
-        <v>0.0041323</v>
+        <v>0.003302167</v>
       </c>
     </row>
     <row r="349" spans="1:19">
@@ -22804,7 +22795,7 @@
         <v>3</v>
       </c>
       <c r="S349">
-        <v>0.0017556</v>
+        <v>0.001393833</v>
       </c>
     </row>
     <row r="350" spans="1:19">
@@ -22863,7 +22854,7 @@
         <v>3</v>
       </c>
       <c r="S350">
-        <v>0.0029427</v>
+        <v>0.002042375</v>
       </c>
     </row>
     <row r="351" spans="1:19">
@@ -22922,7 +22913,7 @@
         <v>3</v>
       </c>
       <c r="S351">
-        <v>0.007219</v>
+        <v>0.006077208</v>
       </c>
     </row>
     <row r="352" spans="1:19">
@@ -22969,7 +22960,7 @@
         <v>3</v>
       </c>
       <c r="S352">
-        <v>0.0010334</v>
+        <v>0.000840666</v>
       </c>
     </row>
     <row r="353" spans="1:19">
@@ -23028,7 +23019,7 @@
         <v>3</v>
       </c>
       <c r="S353">
-        <v>0.0031904</v>
+        <v>0.002722584</v>
       </c>
     </row>
     <row r="354" spans="1:19">
@@ -23075,7 +23066,7 @@
         <v>3</v>
       </c>
       <c r="S354">
-        <v>0.0057966</v>
+        <v>0.004976125</v>
       </c>
     </row>
     <row r="355" spans="1:19">
@@ -23119,13 +23110,13 @@
         <v>1068</v>
       </c>
       <c r="N355" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O355" t="s">
         <v>1068</v>
       </c>
       <c r="P355" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Q355">
         <v>0</v>
@@ -23134,7 +23125,7 @@
         <v>2</v>
       </c>
       <c r="S355">
-        <v>0.0040674</v>
+        <v>0.00380225</v>
       </c>
     </row>
     <row r="356" spans="1:19">
@@ -23193,7 +23184,7 @@
         <v>3</v>
       </c>
       <c r="S356">
-        <v>0.0041117</v>
+        <v>0.003859917</v>
       </c>
     </row>
     <row r="357" spans="1:19">
@@ -23222,16 +23213,16 @@
         <v>1</v>
       </c>
       <c r="M357" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N357" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O357" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="P357" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="Q357">
         <v>1</v>
@@ -23240,7 +23231,7 @@
         <v>3</v>
       </c>
       <c r="S357">
-        <v>0.0054689</v>
+        <v>0.004625375</v>
       </c>
     </row>
     <row r="358" spans="1:19">
@@ -23299,7 +23290,7 @@
         <v>3</v>
       </c>
       <c r="S358">
-        <v>0.0038323</v>
+        <v>0.003209125</v>
       </c>
     </row>
     <row r="359" spans="1:19">
@@ -23358,7 +23349,7 @@
         <v>3</v>
       </c>
       <c r="S359">
-        <v>0.0043474</v>
+        <v>0.004084792</v>
       </c>
     </row>
     <row r="360" spans="1:19">
@@ -23417,7 +23408,7 @@
         <v>3</v>
       </c>
       <c r="S360">
-        <v>0.0042142</v>
+        <v>0.003825792</v>
       </c>
     </row>
     <row r="361" spans="1:19">
@@ -23445,26 +23436,26 @@
       <c r="H361" t="s">
         <v>748</v>
       </c>
-      <c r="I361" t="s">
-        <v>748</v>
-      </c>
       <c r="J361" t="s">
         <v>748</v>
       </c>
-      <c r="K361" t="s">
+      <c r="L361">
+        <v>0</v>
+      </c>
+      <c r="N361" t="s">
         <v>748</v>
       </c>
-      <c r="L361">
-        <v>1</v>
+      <c r="P361" t="s">
+        <v>748</v>
       </c>
       <c r="Q361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S361">
-        <v>0.0016664</v>
+        <v>0.001355792</v>
       </c>
     </row>
     <row r="362" spans="1:19">
@@ -23511,7 +23502,7 @@
         <v>3</v>
       </c>
       <c r="S362">
-        <v>0.0037842</v>
+        <v>0.003097459</v>
       </c>
     </row>
     <row r="363" spans="1:19">
@@ -23570,7 +23561,7 @@
         <v>3</v>
       </c>
       <c r="S363">
-        <v>0.0033549</v>
+        <v>0.002750625</v>
       </c>
     </row>
     <row r="364" spans="1:19">
@@ -23623,7 +23614,7 @@
         <v>2</v>
       </c>
       <c r="S364">
-        <v>0.0060352</v>
+        <v>0.00493675</v>
       </c>
     </row>
     <row r="365" spans="1:19">
@@ -23670,7 +23661,7 @@
         <v>3</v>
       </c>
       <c r="S365">
-        <v>0.0040994</v>
+        <v>0.003262375</v>
       </c>
     </row>
     <row r="366" spans="1:19">
@@ -23717,7 +23708,7 @@
         <v>3</v>
       </c>
       <c r="S366">
-        <v>0.0054718</v>
+        <v>0.004304</v>
       </c>
     </row>
     <row r="367" spans="1:19">
@@ -23770,7 +23761,7 @@
         <v>2</v>
       </c>
       <c r="S367">
-        <v>0.0054367</v>
+        <v>0.004434958</v>
       </c>
     </row>
     <row r="368" spans="1:19">
@@ -23829,7 +23820,7 @@
         <v>3</v>
       </c>
       <c r="S368">
-        <v>0.0046818</v>
+        <v>0.003759416</v>
       </c>
     </row>
     <row r="369" spans="1:19">
@@ -23870,16 +23861,16 @@
         <v>1</v>
       </c>
       <c r="M369" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N369" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O369" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P369" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Q369">
         <v>1</v>
@@ -23888,7 +23879,7 @@
         <v>3</v>
       </c>
       <c r="S369">
-        <v>0.0060154</v>
+        <v>0.005255125</v>
       </c>
     </row>
     <row r="370" spans="1:19">
@@ -23935,7 +23926,7 @@
         <v>3</v>
       </c>
       <c r="S370">
-        <v>0.0037364</v>
+        <v>0.00321625</v>
       </c>
     </row>
     <row r="371" spans="1:19">
@@ -23982,7 +23973,7 @@
         <v>3</v>
       </c>
       <c r="S371">
-        <v>0.0029674</v>
+        <v>0.002681167</v>
       </c>
     </row>
     <row r="372" spans="1:19">
@@ -24041,7 +24032,7 @@
         <v>3</v>
       </c>
       <c r="S372">
-        <v>0.0007638</v>
+        <v>0.000765959</v>
       </c>
     </row>
     <row r="373" spans="1:19">
@@ -24082,16 +24073,16 @@
         <v>1</v>
       </c>
       <c r="M373" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="N373" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O373" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="P373" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Q373">
         <v>1</v>
@@ -24100,7 +24091,7 @@
         <v>3</v>
       </c>
       <c r="S373">
-        <v>0.0052782</v>
+        <v>0.004709292</v>
       </c>
     </row>
     <row r="374" spans="1:19">
@@ -24159,7 +24150,7 @@
         <v>3</v>
       </c>
       <c r="S374">
-        <v>0.0053911</v>
+        <v>0.004122916</v>
       </c>
     </row>
     <row r="375" spans="1:19">
@@ -24218,7 +24209,7 @@
         <v>3</v>
       </c>
       <c r="S375">
-        <v>0.0051367</v>
+        <v>0.004397666</v>
       </c>
     </row>
     <row r="376" spans="1:19">
@@ -24265,7 +24256,7 @@
         <v>3</v>
       </c>
       <c r="S376">
-        <v>0.0053517</v>
+        <v>0.004242625</v>
       </c>
     </row>
     <row r="377" spans="1:19">
@@ -24312,7 +24303,7 @@
         <v>3</v>
       </c>
       <c r="S377">
-        <v>0.0050707</v>
+        <v>0.00447575</v>
       </c>
     </row>
     <row r="378" spans="1:19">
@@ -24359,7 +24350,7 @@
         <v>3</v>
       </c>
       <c r="S378">
-        <v>0.0042627</v>
+        <v>0.0037775</v>
       </c>
     </row>
     <row r="379" spans="1:19">
@@ -24406,7 +24397,7 @@
         <v>3</v>
       </c>
       <c r="S379">
-        <v>0.0021615</v>
+        <v>0.001961</v>
       </c>
     </row>
     <row r="380" spans="1:19">
@@ -24465,7 +24456,7 @@
         <v>3</v>
       </c>
       <c r="S380">
-        <v>0.0033542</v>
+        <v>0.003364375</v>
       </c>
     </row>
     <row r="381" spans="1:19">
@@ -24524,7 +24515,7 @@
         <v>3</v>
       </c>
       <c r="S381">
-        <v>0.0054945</v>
+        <v>0.005355959</v>
       </c>
     </row>
     <row r="382" spans="1:19">
@@ -24571,7 +24562,7 @@
         <v>3</v>
       </c>
       <c r="S382">
-        <v>0.003937</v>
+        <v>0.003218541</v>
       </c>
     </row>
     <row r="383" spans="1:19">
@@ -24630,7 +24621,7 @@
         <v>3</v>
       </c>
       <c r="S383">
-        <v>0.0019385</v>
+        <v>0.002244208</v>
       </c>
     </row>
     <row r="384" spans="1:19">
@@ -24689,7 +24680,7 @@
         <v>3</v>
       </c>
       <c r="S384">
-        <v>0.0017987</v>
+        <v>0.001663375</v>
       </c>
     </row>
     <row r="385" spans="1:19">
@@ -24736,7 +24727,7 @@
         <v>3</v>
       </c>
       <c r="S385">
-        <v>0.0048302</v>
+        <v>0.004444</v>
       </c>
     </row>
     <row r="386" spans="1:19">
@@ -24795,7 +24786,7 @@
         <v>3</v>
       </c>
       <c r="S386">
-        <v>0.0034797</v>
+        <v>0.003324709</v>
       </c>
     </row>
     <row r="387" spans="1:19">
@@ -24842,7 +24833,7 @@
         <v>3</v>
       </c>
       <c r="S387">
-        <v>0.0026746</v>
+        <v>0.002517916</v>
       </c>
     </row>
     <row r="388" spans="1:19">
@@ -24901,7 +24892,7 @@
         <v>3</v>
       </c>
       <c r="S388">
-        <v>0.0067623</v>
+        <v>0.006562583</v>
       </c>
     </row>
     <row r="389" spans="1:19">
@@ -24960,7 +24951,7 @@
         <v>3</v>
       </c>
       <c r="S389">
-        <v>0.0040317</v>
+        <v>0.004190042</v>
       </c>
     </row>
     <row r="390" spans="1:19">
@@ -25019,7 +25010,7 @@
         <v>3</v>
       </c>
       <c r="S390">
-        <v>0.0041583</v>
+        <v>0.003972791</v>
       </c>
     </row>
     <row r="391" spans="1:19">
@@ -25078,7 +25069,7 @@
         <v>3</v>
       </c>
       <c r="S391">
-        <v>0.0041096</v>
+        <v>0.004221792</v>
       </c>
     </row>
     <row r="392" spans="1:19">
@@ -25137,7 +25128,7 @@
         <v>3</v>
       </c>
       <c r="S392">
-        <v>0.0041395</v>
+        <v>0.004014333</v>
       </c>
     </row>
     <row r="393" spans="1:19">
@@ -25196,7 +25187,7 @@
         <v>3</v>
       </c>
       <c r="S393">
-        <v>0.0048628</v>
+        <v>0.004924167</v>
       </c>
     </row>
     <row r="394" spans="1:19">
@@ -25255,7 +25246,7 @@
         <v>3</v>
       </c>
       <c r="S394">
-        <v>0.0038044</v>
+        <v>0.003402125</v>
       </c>
     </row>
     <row r="395" spans="1:19">
@@ -25283,26 +25274,26 @@
       <c r="H395" t="s">
         <v>538</v>
       </c>
-      <c r="I395" t="s">
-        <v>538</v>
-      </c>
       <c r="J395" t="s">
         <v>538</v>
       </c>
-      <c r="K395" t="s">
+      <c r="L395">
+        <v>0</v>
+      </c>
+      <c r="N395" t="s">
         <v>538</v>
       </c>
-      <c r="L395">
+      <c r="P395">
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R395">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S395">
-        <v>0.0022899</v>
+        <v>0.002129917</v>
       </c>
     </row>
     <row r="396" spans="1:19">
@@ -25361,7 +25352,7 @@
         <v>3</v>
       </c>
       <c r="S396">
-        <v>0.0009513</v>
+        <v>0.000887167</v>
       </c>
     </row>
     <row r="397" spans="1:19">
@@ -25408,7 +25399,7 @@
         <v>3</v>
       </c>
       <c r="S397">
-        <v>0.0030317</v>
+        <v>0.002832958</v>
       </c>
     </row>
     <row r="398" spans="1:19">
@@ -25455,7 +25446,7 @@
         <v>3</v>
       </c>
       <c r="S398">
-        <v>0.0024764</v>
+        <v>0.002407041</v>
       </c>
     </row>
     <row r="399" spans="1:19">
@@ -25514,7 +25505,7 @@
         <v>3</v>
       </c>
       <c r="S399">
-        <v>0.0041233</v>
+        <v>0.004001208</v>
       </c>
     </row>
     <row r="400" spans="1:19">
@@ -25561,7 +25552,7 @@
         <v>3</v>
       </c>
       <c r="S400">
-        <v>0.0033277</v>
+        <v>0.003168333</v>
       </c>
     </row>
     <row r="401" spans="1:19">
@@ -25620,7 +25611,7 @@
         <v>3</v>
       </c>
       <c r="S401">
-        <v>0.003126</v>
+        <v>0.0032245</v>
       </c>
     </row>
     <row r="402" spans="1:19">
@@ -25667,7 +25658,7 @@
         <v>3</v>
       </c>
       <c r="S402">
-        <v>0.0033538</v>
+        <v>0.003423292</v>
       </c>
     </row>
     <row r="403" spans="1:19">
@@ -25714,7 +25705,7 @@
         <v>3</v>
       </c>
       <c r="S403">
-        <v>0.0018058</v>
+        <v>0.001842875</v>
       </c>
     </row>
     <row r="404" spans="1:19">
@@ -25761,7 +25752,7 @@
         <v>3</v>
       </c>
       <c r="S404">
-        <v>0.0048492</v>
+        <v>0.004982208</v>
       </c>
     </row>
     <row r="405" spans="1:19">
@@ -25808,7 +25799,7 @@
         <v>3</v>
       </c>
       <c r="S405">
-        <v>0.0033068</v>
+        <v>0.003173333</v>
       </c>
     </row>
     <row r="406" spans="1:19">
@@ -25867,7 +25858,7 @@
         <v>3</v>
       </c>
       <c r="S406">
-        <v>0.0063689</v>
+        <v>0.006173291</v>
       </c>
     </row>
     <row r="407" spans="1:19">
@@ -25914,7 +25905,7 @@
         <v>3</v>
       </c>
       <c r="S407">
-        <v>0.0037879</v>
+        <v>0.003872667</v>
       </c>
     </row>
     <row r="408" spans="1:19">
@@ -25973,7 +25964,7 @@
         <v>2</v>
       </c>
       <c r="S408">
-        <v>0.0059176</v>
+        <v>0.006256333</v>
       </c>
     </row>
     <row r="409" spans="1:19">
@@ -26020,7 +26011,7 @@
         <v>3</v>
       </c>
       <c r="S409">
-        <v>0.0004092</v>
+        <v>0.000490209</v>
       </c>
     </row>
     <row r="410" spans="1:19">
@@ -26067,7 +26058,7 @@
         <v>3</v>
       </c>
       <c r="S410">
-        <v>0.0025972</v>
+        <v>0.003440875</v>
       </c>
     </row>
     <row r="411" spans="1:19">
@@ -26126,7 +26117,7 @@
         <v>3</v>
       </c>
       <c r="S411">
-        <v>0.0039771</v>
+        <v>0.004763209</v>
       </c>
     </row>
     <row r="412" spans="1:19">
@@ -26185,7 +26176,7 @@
         <v>3</v>
       </c>
       <c r="S412">
-        <v>0.0023475</v>
+        <v>0.003277583</v>
       </c>
     </row>
     <row r="413" spans="1:19">
@@ -26232,7 +26223,7 @@
         <v>3</v>
       </c>
       <c r="S413">
-        <v>0.0031652</v>
+        <v>0.004159666</v>
       </c>
     </row>
     <row r="414" spans="1:19">
@@ -26291,7 +26282,7 @@
         <v>3</v>
       </c>
       <c r="S414">
-        <v>0.0018484</v>
+        <v>0.002795791</v>
       </c>
     </row>
     <row r="415" spans="1:19">
@@ -26350,7 +26341,7 @@
         <v>3</v>
       </c>
       <c r="S415">
-        <v>0.0035833</v>
+        <v>0.004458166</v>
       </c>
     </row>
     <row r="416" spans="1:19">
@@ -26409,7 +26400,7 @@
         <v>3</v>
       </c>
       <c r="S416">
-        <v>0.0019676</v>
+        <v>0.00279075</v>
       </c>
     </row>
     <row r="417" spans="1:19">
@@ -26456,7 +26447,7 @@
         <v>3</v>
       </c>
       <c r="S417">
-        <v>0.0003738</v>
+        <v>0.000480667</v>
       </c>
     </row>
     <row r="418" spans="1:19">
@@ -26503,7 +26494,7 @@
         <v>3</v>
       </c>
       <c r="S418">
-        <v>0.0010024</v>
+        <v>0.001416375</v>
       </c>
     </row>
     <row r="419" spans="1:19">
@@ -26544,16 +26535,16 @@
         <v>1</v>
       </c>
       <c r="M419" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N419" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O419" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="P419" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q419">
         <v>1</v>
@@ -26562,7 +26553,7 @@
         <v>3</v>
       </c>
       <c r="S419">
-        <v>0.0016129</v>
+        <v>0.0022135</v>
       </c>
     </row>
     <row r="420" spans="1:19">
@@ -26609,7 +26600,7 @@
         <v>3</v>
       </c>
       <c r="S420">
-        <v>0.0013014</v>
+        <v>0.0016775</v>
       </c>
     </row>
     <row r="421" spans="1:19">
@@ -26668,7 +26659,7 @@
         <v>3</v>
       </c>
       <c r="S421">
-        <v>0.0020518</v>
+        <v>0.002527625</v>
       </c>
     </row>
     <row r="422" spans="1:19">
@@ -26727,7 +26718,7 @@
         <v>3</v>
       </c>
       <c r="S422">
-        <v>0.0028182</v>
+        <v>0.003764</v>
       </c>
     </row>
     <row r="423" spans="1:19">
@@ -26774,7 +26765,7 @@
         <v>3</v>
       </c>
       <c r="S423">
-        <v>0.0036975</v>
+        <v>0.004477875</v>
       </c>
     </row>
     <row r="424" spans="1:19">
@@ -26833,7 +26824,7 @@
         <v>3</v>
       </c>
       <c r="S424">
-        <v>0.0028315</v>
+        <v>0.003434708</v>
       </c>
     </row>
     <row r="425" spans="1:19">
@@ -26892,7 +26883,7 @@
         <v>3</v>
       </c>
       <c r="S425">
-        <v>0.0023693</v>
+        <v>0.003413709</v>
       </c>
     </row>
     <row r="426" spans="1:19">
@@ -26951,7 +26942,7 @@
         <v>3</v>
       </c>
       <c r="S426">
-        <v>0.0038111</v>
+        <v>0.0046015</v>
       </c>
     </row>
     <row r="427" spans="1:19">
@@ -27010,7 +27001,7 @@
         <v>3</v>
       </c>
       <c r="S427">
-        <v>0.0021623</v>
+        <v>0.002628042</v>
       </c>
     </row>
     <row r="428" spans="1:19">
@@ -27063,7 +27054,7 @@
         <v>2</v>
       </c>
       <c r="S428">
-        <v>0.0027807</v>
+        <v>0.003560833</v>
       </c>
     </row>
     <row r="429" spans="1:19">
@@ -27110,7 +27101,7 @@
         <v>3</v>
       </c>
       <c r="S429">
-        <v>0.0028229</v>
+        <v>0.003480583</v>
       </c>
     </row>
     <row r="430" spans="1:19">
@@ -27169,7 +27160,7 @@
         <v>3</v>
       </c>
       <c r="S430">
-        <v>0.0047819</v>
+        <v>0.006738125</v>
       </c>
     </row>
     <row r="431" spans="1:19">
@@ -27228,7 +27219,7 @@
         <v>3</v>
       </c>
       <c r="S431">
-        <v>0.002851</v>
+        <v>0.00369325</v>
       </c>
     </row>
     <row r="432" spans="1:19">
@@ -27287,7 +27278,7 @@
         <v>3</v>
       </c>
       <c r="S432">
-        <v>0.003249</v>
+        <v>0.004146666</v>
       </c>
     </row>
     <row r="433" spans="1:19">
@@ -27319,10 +27310,10 @@
         <v>693</v>
       </c>
       <c r="J433" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K433" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L433">
         <v>1</v>
@@ -27334,7 +27325,7 @@
         <v>3</v>
       </c>
       <c r="S433">
-        <v>0.0016155</v>
+        <v>0.002241792</v>
       </c>
     </row>
     <row r="434" spans="1:19">
@@ -27381,7 +27372,7 @@
         <v>3</v>
       </c>
       <c r="S434">
-        <v>0.0046757</v>
+        <v>0.004731417</v>
       </c>
     </row>
     <row r="435" spans="1:19">
@@ -27428,7 +27419,7 @@
         <v>3</v>
       </c>
       <c r="S435">
-        <v>0.0031024</v>
+        <v>0.002998458</v>
       </c>
     </row>
     <row r="436" spans="1:19">
@@ -27457,16 +27448,16 @@
         <v>1</v>
       </c>
       <c r="M436" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="N436" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O436" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P436" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Q436">
         <v>1</v>
@@ -27475,7 +27466,7 @@
         <v>3</v>
       </c>
       <c r="S436">
-        <v>0.0050465</v>
+        <v>0.005027791</v>
       </c>
     </row>
     <row r="437" spans="1:19">
@@ -27515,14 +27506,20 @@
       <c r="L437">
         <v>1</v>
       </c>
+      <c r="N437" t="s">
+        <v>1152</v>
+      </c>
+      <c r="P437" t="s">
+        <v>1152</v>
+      </c>
       <c r="Q437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R437">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S437">
-        <v>0.0010849</v>
+        <v>0.000971875</v>
       </c>
     </row>
     <row r="438" spans="1:19">
@@ -27569,7 +27566,7 @@
         <v>3</v>
       </c>
       <c r="S438">
-        <v>0.0023002</v>
+        <v>0.002126875</v>
       </c>
     </row>
     <row r="439" spans="1:19">
@@ -27616,7 +27613,7 @@
         <v>3</v>
       </c>
       <c r="S439">
-        <v>0.0058349</v>
+        <v>0.005397125</v>
       </c>
     </row>
     <row r="440" spans="1:19">
@@ -27675,7 +27672,7 @@
         <v>3</v>
       </c>
       <c r="S440">
-        <v>0.0068717</v>
+        <v>0.0069985</v>
       </c>
     </row>
     <row r="441" spans="1:19">
@@ -27734,7 +27731,7 @@
         <v>3</v>
       </c>
       <c r="S441">
-        <v>0.003538</v>
+        <v>0.003444416</v>
       </c>
     </row>
     <row r="442" spans="1:19">
@@ -27793,7 +27790,7 @@
         <v>3</v>
       </c>
       <c r="S442">
-        <v>0.0021952</v>
+        <v>0.002075083</v>
       </c>
     </row>
     <row r="443" spans="1:19">
@@ -27840,7 +27837,7 @@
         <v>3</v>
       </c>
       <c r="S443">
-        <v>0.0007901</v>
+        <v>0.0008319170000000001</v>
       </c>
     </row>
     <row r="444" spans="1:19">
@@ -27899,7 +27896,7 @@
         <v>3</v>
       </c>
       <c r="S444">
-        <v>0.0064854</v>
+        <v>0.005308333</v>
       </c>
     </row>
     <row r="445" spans="1:19">
@@ -27958,7 +27955,7 @@
         <v>3</v>
       </c>
       <c r="S445">
-        <v>0.0049093</v>
+        <v>0.0047925</v>
       </c>
     </row>
     <row r="446" spans="1:19">
@@ -28017,7 +28014,7 @@
         <v>2</v>
       </c>
       <c r="S446">
-        <v>0.0062104</v>
+        <v>0.005865208</v>
       </c>
     </row>
     <row r="447" spans="1:19">
@@ -28064,7 +28061,7 @@
         <v>3</v>
       </c>
       <c r="S447">
-        <v>0.0034291</v>
+        <v>0.00304875</v>
       </c>
     </row>
     <row r="448" spans="1:19">
@@ -28093,16 +28090,16 @@
         <v>1</v>
       </c>
       <c r="M448" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N448" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O448" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P448" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q448">
         <v>1</v>
@@ -28111,7 +28108,7 @@
         <v>3</v>
       </c>
       <c r="S448">
-        <v>0.0037822</v>
+        <v>0.003359583</v>
       </c>
     </row>
     <row r="449" spans="1:19">
@@ -28158,7 +28155,7 @@
         <v>3</v>
       </c>
       <c r="S449">
-        <v>0.0027785</v>
+        <v>0.002748084</v>
       </c>
     </row>
     <row r="450" spans="1:19">
@@ -28217,7 +28214,7 @@
         <v>3</v>
       </c>
       <c r="S450">
-        <v>0.003817</v>
+        <v>0.003742125</v>
       </c>
     </row>
     <row r="451" spans="1:19">
@@ -28264,10 +28261,10 @@
         <v>1137</v>
       </c>
       <c r="O451" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="P451" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="Q451">
         <v>1</v>
@@ -28276,7 +28273,7 @@
         <v>3</v>
       </c>
       <c r="S451">
-        <v>0.0051971</v>
+        <v>0.004614167</v>
       </c>
     </row>
   </sheetData>

--- a/CTG.xlsx
+++ b/CTG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5112" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5112" uniqueCount="1161">
   <si>
     <t>correct</t>
   </si>
@@ -2420,6 +2420,9 @@
     <t>Vĩnh Hưng</t>
   </si>
   <si>
+    <t>Đạ Tẻh</t>
+  </si>
+  <si>
     <t>quy nhơn</t>
   </si>
   <si>
@@ -3101,9 +3104,6 @@
     <t>An Thuận</t>
   </si>
   <si>
-    <t>Đạ Tẻh</t>
-  </si>
-  <si>
     <t>Hội An</t>
   </si>
   <si>
@@ -3456,9 +3456,6 @@
   </si>
   <si>
     <t>Vĩnh Hiệp</t>
-  </si>
-  <si>
-    <t>Gia Tân</t>
   </si>
   <si>
     <t>Hoằng Quý</t>
@@ -3883,19 +3880,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B2">
         <v>1350</v>
       </c>
       <c r="C2">
-        <v>9.6</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D2">
-        <v>0.0049</v>
+        <v>0.0051</v>
       </c>
       <c r="E2">
-        <v>0.0023</v>
+        <v>0.0025</v>
       </c>
     </row>
   </sheetData>
@@ -4008,13 +4005,13 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N2" t="s">
         <v>488</v>
       </c>
       <c r="O2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P2" t="s">
         <v>488</v>
@@ -4026,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="S2">
-        <v>0.004908625</v>
+        <v>0.005091083</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4073,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0.003614833</v>
+        <v>0.003417</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4126,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001754291</v>
+        <v>0.0021175</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4185,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>0.003631209</v>
+        <v>0.00382175</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4226,16 +4223,16 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="N6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="P6" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4244,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <v>0.001582084</v>
+        <v>0.00157625</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4285,16 +4282,16 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="O7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="P7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -4303,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>0.002898583</v>
+        <v>0.002891</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4344,16 +4341,16 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="O8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="P8" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -4362,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="S8">
-        <v>0.002729375</v>
+        <v>0.003083375</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4403,16 +4400,16 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="N9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="P9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -4421,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="S9">
-        <v>0.003130583</v>
+        <v>0.003424458</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4462,16 +4459,16 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="N10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="O10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -4480,7 +4477,7 @@
         <v>3</v>
       </c>
       <c r="S10">
-        <v>0.00299325</v>
+        <v>0.003059792</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4521,16 +4518,16 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="O11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -4539,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="S11">
-        <v>0.002088833</v>
+        <v>0.00249525</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4586,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="S12">
-        <v>0.002731417</v>
+        <v>0.003095292</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4627,16 +4624,16 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="O13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="P13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -4645,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="S13">
-        <v>0.003121166</v>
+        <v>0.00314025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4686,16 +4683,16 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="P14" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -4704,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="S14">
-        <v>0.000910041</v>
+        <v>0.000922875</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4745,16 +4742,16 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="N15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="O15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P15" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -4763,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="S15">
-        <v>0.002889333</v>
+        <v>0.003251833</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4804,16 +4801,16 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="N16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="O16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="P16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="Q16">
         <v>1</v>
@@ -4822,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="S16">
-        <v>0.001865542</v>
+        <v>0.002056667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4863,13 +4860,13 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N17" t="s">
         <v>1139</v>
       </c>
       <c r="O17" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="P17" t="s">
         <v>1139</v>
@@ -4881,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="S17">
-        <v>0.00333675</v>
+        <v>0.00361775</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4922,16 +4919,16 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="O18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="P18" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -4940,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="S18">
-        <v>0.002578916</v>
+        <v>0.003017708</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4981,16 +4978,16 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="N19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="P19" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4999,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>0.002958458</v>
+        <v>0.003412083</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5040,16 +5037,16 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="O20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="P20" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5058,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="S20">
-        <v>0.003099042</v>
+        <v>0.003472916</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -5099,16 +5096,16 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="O21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P21" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -5117,7 +5114,7 @@
         <v>3</v>
       </c>
       <c r="S21">
-        <v>0.002825125</v>
+        <v>0.0030485</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -5158,16 +5155,16 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="O22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P22" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5176,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="S22">
-        <v>0.003194167</v>
+        <v>0.003302125</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5235,7 +5232,7 @@
         <v>3</v>
       </c>
       <c r="S23">
-        <v>0.001662</v>
+        <v>0.001763208</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -5276,16 +5273,16 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="O24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="P24" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -5294,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="S24">
-        <v>0.001950709</v>
+        <v>0.002104333</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5335,16 +5332,16 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="P25" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5353,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="S25">
-        <v>0.001950584</v>
+        <v>0.002004125</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5394,16 +5391,16 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="N26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -5412,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="S26">
-        <v>0.001276875</v>
+        <v>0.001340084</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5453,16 +5450,16 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -5471,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="S27">
-        <v>0.003819583</v>
+        <v>0.00415325</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5512,16 +5509,16 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="N28" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="O28" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="P28" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -5530,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="S28">
-        <v>0.003067709</v>
+        <v>0.003216625</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5571,16 +5568,16 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="N29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="O29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="P29" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -5589,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="S29">
-        <v>0.003144833</v>
+        <v>0.003326125</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5612,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="S30">
-        <v>5.83E-07</v>
+        <v>7.08E-07</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5653,16 +5650,16 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="N31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="O31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P31" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -5671,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="S31">
-        <v>0.00179775</v>
+        <v>0.001866208</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5712,16 +5709,16 @@
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="O32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="P32" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -5730,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="S32">
-        <v>0.003919125</v>
+        <v>0.004085916</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5771,16 +5768,16 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="O33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="P33" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -5789,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="S33">
-        <v>0.001038833</v>
+        <v>0.001145625</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5830,16 +5827,16 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="N34" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O34" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="P34" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -5848,7 +5845,7 @@
         <v>3</v>
       </c>
       <c r="S34">
-        <v>0.00104725</v>
+        <v>0.001255</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5889,16 +5886,16 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="N35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="O35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P35" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -5907,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="S35">
-        <v>0.001833292</v>
+        <v>0.0020015</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5948,13 +5945,13 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N36" t="s">
         <v>1140</v>
       </c>
       <c r="O36" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="P36" t="s">
         <v>1140</v>
@@ -5966,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="S36">
-        <v>0.0029055</v>
+        <v>0.003080959</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -6007,16 +6004,16 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N37" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="O37" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="P37" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -6025,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="S37">
-        <v>0.003099375</v>
+        <v>0.003398125</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -6066,16 +6063,16 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N38" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="O38" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="P38" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -6084,7 +6081,7 @@
         <v>3</v>
       </c>
       <c r="S38">
-        <v>0.004268667</v>
+        <v>0.004828</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -6143,7 +6140,7 @@
         <v>3</v>
       </c>
       <c r="S39">
-        <v>0.003012375</v>
+        <v>0.003514042</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -6184,16 +6181,16 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N40" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O40" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P40" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -6202,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="S40">
-        <v>0.003531</v>
+        <v>0.003915541</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -6243,16 +6240,16 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="N41" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O41" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P41" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -6261,7 +6258,7 @@
         <v>3</v>
       </c>
       <c r="S41">
-        <v>0.00341425</v>
+        <v>0.003527958</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -6302,16 +6299,16 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N42" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="O42" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="P42" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -6320,7 +6317,7 @@
         <v>3</v>
       </c>
       <c r="S42">
-        <v>0.003129792</v>
+        <v>0.003129708</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -6379,7 +6376,7 @@
         <v>3</v>
       </c>
       <c r="S43">
-        <v>0.002064542</v>
+        <v>0.002131708</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6420,16 +6417,16 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="O44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="P44" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -6438,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="S44">
-        <v>0.00291475</v>
+        <v>0.003196875</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6461,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="S45">
-        <v>4.58E-07</v>
+        <v>6.250000000000001E-07</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6502,16 +6499,16 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="N46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="P46" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -6520,7 +6517,7 @@
         <v>3</v>
       </c>
       <c r="S46">
-        <v>0.003182791</v>
+        <v>0.003171083</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6561,16 +6558,16 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="N47" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="O47" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="P47" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -6579,7 +6576,7 @@
         <v>3</v>
       </c>
       <c r="S47">
-        <v>0.004582709</v>
+        <v>0.0045425</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6638,7 +6635,7 @@
         <v>3</v>
       </c>
       <c r="S48">
-        <v>0.0022155</v>
+        <v>0.002162791</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6679,16 +6676,16 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="N49" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="O49" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P49" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -6697,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="S49">
-        <v>0.003188542</v>
+        <v>0.003190125</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6744,7 +6741,7 @@
         <v>3</v>
       </c>
       <c r="S50">
-        <v>0.002586083</v>
+        <v>0.0026415</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -6803,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="S51">
-        <v>0.002648292</v>
+        <v>0.002714333</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -6844,16 +6841,16 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="N52" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="O52" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="P52" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -6862,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="S52">
-        <v>0.003438916</v>
+        <v>0.003449375</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -6903,16 +6900,16 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="N53" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="O53" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="P53" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -6921,7 +6918,7 @@
         <v>3</v>
       </c>
       <c r="S53">
-        <v>0.003296417</v>
+        <v>0.003410417</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -6962,16 +6959,16 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="N54" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="O54" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="P54" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -6980,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="S54">
-        <v>0.003676917</v>
+        <v>0.004437459</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -7021,13 +7018,13 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N55" t="s">
         <v>1141</v>
       </c>
       <c r="O55" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="P55" t="s">
         <v>1141</v>
@@ -7039,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="S55">
-        <v>0.002895542</v>
+        <v>0.002955417</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -7080,16 +7077,16 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="N56" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="O56" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="P56" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -7098,7 +7095,7 @@
         <v>3</v>
       </c>
       <c r="S56">
-        <v>0.003424041</v>
+        <v>0.003357458</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -7139,16 +7136,16 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N57" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="O57" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="P57" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -7157,7 +7154,7 @@
         <v>3</v>
       </c>
       <c r="S57">
-        <v>0.001653833</v>
+        <v>0.00179475</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -7198,16 +7195,16 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="N58" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="O58" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P58" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -7216,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="S58">
-        <v>0.003597667</v>
+        <v>0.003734333</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -7257,16 +7254,16 @@
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="N59" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="O59" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P59" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -7275,7 +7272,7 @@
         <v>3</v>
       </c>
       <c r="S59">
-        <v>0.002951875</v>
+        <v>0.002962916</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -7316,13 +7313,13 @@
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="N60" t="s">
         <v>1142</v>
       </c>
       <c r="O60" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="P60" t="s">
         <v>1142</v>
@@ -7334,7 +7331,7 @@
         <v>2</v>
       </c>
       <c r="S60">
-        <v>0.002134458</v>
+        <v>0.002191291</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -7375,16 +7372,16 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N61" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="O61" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="P61" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -7393,7 +7390,7 @@
         <v>3</v>
       </c>
       <c r="S61">
-        <v>0.00325525</v>
+        <v>0.003366625</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -7434,16 +7431,16 @@
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="O62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P62" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -7452,7 +7449,7 @@
         <v>3</v>
       </c>
       <c r="S62">
-        <v>0.003741292</v>
+        <v>0.003880541</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -7493,16 +7490,16 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="N63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="P63" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -7511,7 +7508,7 @@
         <v>3</v>
       </c>
       <c r="S63">
-        <v>0.00192</v>
+        <v>0.002031875</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -7552,16 +7549,16 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="O64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="P64" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -7570,7 +7567,7 @@
         <v>3</v>
       </c>
       <c r="S64">
-        <v>0.002958875</v>
+        <v>0.003347083</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -7629,7 +7626,7 @@
         <v>2</v>
       </c>
       <c r="S65">
-        <v>0.002427875</v>
+        <v>0.0027405</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -7670,16 +7667,16 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="N66" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="O66" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="P66" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -7688,7 +7685,7 @@
         <v>3</v>
       </c>
       <c r="S66">
-        <v>0.0032615</v>
+        <v>0.003466875</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -7747,7 +7744,7 @@
         <v>2</v>
       </c>
       <c r="S67">
-        <v>0.001381833</v>
+        <v>0.001505083</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -7788,16 +7785,16 @@
         <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="N68" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="O68" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="P68" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -7806,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="S68">
-        <v>0.003005792</v>
+        <v>0.003138333</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -7847,16 +7844,16 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="N69" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="O69" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="P69" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -7865,7 +7862,7 @@
         <v>3</v>
       </c>
       <c r="S69">
-        <v>0.002738416</v>
+        <v>0.002833083</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -7906,16 +7903,16 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P70" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -7924,7 +7921,7 @@
         <v>3</v>
       </c>
       <c r="S70">
-        <v>0.003626667</v>
+        <v>0.003967208</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -7965,16 +7962,16 @@
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="N71" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="O71" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="P71" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -7983,7 +7980,7 @@
         <v>3</v>
       </c>
       <c r="S71">
-        <v>0.002723583</v>
+        <v>0.003015084</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -8024,16 +8021,16 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="N72" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="O72" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="P72" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -8042,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="S72">
-        <v>0.002803667</v>
+        <v>0.002974084</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -8083,16 +8080,16 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N73" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="O73" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="P73" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -8101,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="S73">
-        <v>0.002432208</v>
+        <v>0.002516917</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -8142,16 +8139,16 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="N74" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O74" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="P74" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -8160,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="S74">
-        <v>0.002468125</v>
+        <v>0.002891625</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -8201,16 +8198,16 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N75" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="O75" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="P75" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -8219,7 +8216,7 @@
         <v>3</v>
       </c>
       <c r="S75">
-        <v>0.001938334</v>
+        <v>0.002021667</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -8278,7 +8275,7 @@
         <v>2</v>
       </c>
       <c r="S76">
-        <v>0.001866125</v>
+        <v>0.001997875</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -8319,10 +8316,10 @@
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="N77" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O77">
         <v>5</v>
@@ -8337,7 +8334,7 @@
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.004631833</v>
+        <v>0.004888667</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -8378,16 +8375,16 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N78" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="O78" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="P78" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -8396,7 +8393,7 @@
         <v>3</v>
       </c>
       <c r="S78">
-        <v>0.003056084</v>
+        <v>0.003473458</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -8455,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="S79">
-        <v>0.002348584</v>
+        <v>0.002371583</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -8502,7 +8499,7 @@
         <v>3</v>
       </c>
       <c r="S80">
-        <v>0.002245</v>
+        <v>0.002319334</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -8543,16 +8540,16 @@
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N81" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="O81" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="P81" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -8561,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="S81">
-        <v>0.003704625</v>
+        <v>0.004128833</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -8602,16 +8599,16 @@
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="N82" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O82" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="P82" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -8620,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="S82">
-        <v>0.0032195</v>
+        <v>0.003633084</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -8661,16 +8658,16 @@
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N83" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="O83" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="P83" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -8679,7 +8676,7 @@
         <v>3</v>
       </c>
       <c r="S83">
-        <v>0.003551375</v>
+        <v>0.004040958</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -8720,16 +8717,16 @@
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N84" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="O84" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="P84" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -8738,7 +8735,7 @@
         <v>3</v>
       </c>
       <c r="S84">
-        <v>0.001863625</v>
+        <v>0.002321375</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -8779,16 +8776,16 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N85" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="O85" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="P85" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -8797,7 +8794,7 @@
         <v>3</v>
       </c>
       <c r="S85">
-        <v>0.002810208</v>
+        <v>0.002976792</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -8838,16 +8835,16 @@
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="N86" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O86" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="P86" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -8856,7 +8853,7 @@
         <v>3</v>
       </c>
       <c r="S86">
-        <v>0.002821334</v>
+        <v>0.002996792</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -8879,7 +8876,7 @@
         <v>3</v>
       </c>
       <c r="S87">
-        <v>5E-07</v>
+        <v>6.250000000000001E-07</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -8920,16 +8917,16 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="N88" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="O88" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="P88" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -8938,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="S88">
-        <v>0.003689792</v>
+        <v>0.003842708</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -8979,16 +8976,16 @@
         <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="N89" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O89" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="P89" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -8997,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="S89">
-        <v>0.002840791</v>
+        <v>0.002936125</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -9038,16 +9035,16 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="N90" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="O90" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="P90" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -9056,7 +9053,7 @@
         <v>3</v>
       </c>
       <c r="S90">
-        <v>0.003142375</v>
+        <v>0.00324025</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -9097,16 +9094,16 @@
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="N91" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="O91" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="P91" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -9115,7 +9112,7 @@
         <v>3</v>
       </c>
       <c r="S91">
-        <v>0.003045167</v>
+        <v>0.003439875</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -9156,16 +9153,16 @@
         <v>1</v>
       </c>
       <c r="M92" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N92" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O92" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="P92" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -9174,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="S92">
-        <v>0.003736333</v>
+        <v>0.004004208</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -9215,16 +9212,16 @@
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="N93" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="O93" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="P93" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -9233,7 +9230,7 @@
         <v>3</v>
       </c>
       <c r="S93">
-        <v>0.001411167</v>
+        <v>0.001408459</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -9274,10 +9271,10 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="O94" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -9286,7 +9283,7 @@
         <v>2</v>
       </c>
       <c r="S94">
-        <v>0.003441583</v>
+        <v>0.003961583</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -9327,16 +9324,16 @@
         <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="N95" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="O95" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="P95" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Q95">
         <v>1</v>
@@ -9345,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="S95">
-        <v>0.003364292</v>
+        <v>0.003709916</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -9386,16 +9383,16 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="O96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="P96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -9404,7 +9401,7 @@
         <v>3</v>
       </c>
       <c r="S96">
-        <v>0.00394575</v>
+        <v>0.00439275</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -9445,16 +9442,16 @@
         <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="O97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="P97" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -9463,7 +9460,7 @@
         <v>3</v>
       </c>
       <c r="S97">
-        <v>0.003981458</v>
+        <v>0.004477458</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -9504,16 +9501,16 @@
         <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N98" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="O98" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="P98" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="Q98">
         <v>1</v>
@@ -9522,7 +9519,7 @@
         <v>3</v>
       </c>
       <c r="S98">
-        <v>0.003230042</v>
+        <v>0.003348917</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -9563,16 +9560,16 @@
         <v>1</v>
       </c>
       <c r="M99" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="N99" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="O99" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="P99" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="Q99">
         <v>1</v>
@@ -9581,7 +9578,7 @@
         <v>3</v>
       </c>
       <c r="S99">
-        <v>0.002872125</v>
+        <v>0.0029325</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -9622,16 +9619,16 @@
         <v>1</v>
       </c>
       <c r="M100" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N100" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O100" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P100" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -9640,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="S100">
-        <v>0.003065292</v>
+        <v>0.003402083</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -9681,16 +9678,16 @@
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N101" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="O101" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="P101" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="Q101">
         <v>1</v>
@@ -9699,7 +9696,7 @@
         <v>3</v>
       </c>
       <c r="S101">
-        <v>0.003813667</v>
+        <v>0.004180708</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -9740,16 +9737,16 @@
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N102" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="O102" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P102" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="Q102">
         <v>1</v>
@@ -9758,7 +9755,7 @@
         <v>3</v>
       </c>
       <c r="S102">
-        <v>0.00370675</v>
+        <v>0.004043584</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -9799,16 +9796,16 @@
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N103" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="O103" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="P103" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -9817,7 +9814,7 @@
         <v>3</v>
       </c>
       <c r="S103">
-        <v>0.003141417</v>
+        <v>0.003632583</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -9858,16 +9855,16 @@
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="N104" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="O104" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="P104" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -9876,7 +9873,7 @@
         <v>3</v>
       </c>
       <c r="S104">
-        <v>0.002337708</v>
+        <v>0.002405625</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -9917,16 +9914,16 @@
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="N105" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="O105" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="P105" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -9935,7 +9932,7 @@
         <v>3</v>
       </c>
       <c r="S105">
-        <v>0.003288125</v>
+        <v>0.003328</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -9994,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="S106">
-        <v>0.002812541</v>
+        <v>0.002876584</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -10035,16 +10032,16 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="N107" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="O107" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="P107" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="Q107">
         <v>1</v>
@@ -10053,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="S107">
-        <v>0.003260416</v>
+        <v>0.003184959</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -10094,16 +10091,16 @@
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="N108" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="O108" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="P108" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -10112,7 +10109,7 @@
         <v>3</v>
       </c>
       <c r="S108">
-        <v>0.001864542</v>
+        <v>0.001833833</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -10153,16 +10150,16 @@
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N109" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="O109" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="P109" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -10171,7 +10168,7 @@
         <v>3</v>
       </c>
       <c r="S109">
-        <v>0.00323925</v>
+        <v>0.003210292</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -10194,7 +10191,7 @@
         <v>3</v>
       </c>
       <c r="S110">
-        <v>5E-07</v>
+        <v>6.66E-07</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -10235,16 +10232,16 @@
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="N111" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="O111" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="P111" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="Q111">
         <v>1</v>
@@ -10253,7 +10250,7 @@
         <v>3</v>
       </c>
       <c r="S111">
-        <v>0.0031245</v>
+        <v>0.003623709</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -10294,16 +10291,16 @@
         <v>1</v>
       </c>
       <c r="M112" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="N112" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="O112" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P112" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="Q112">
         <v>1</v>
@@ -10312,7 +10309,7 @@
         <v>3</v>
       </c>
       <c r="S112">
-        <v>0.003843292</v>
+        <v>0.004278958</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -10353,16 +10350,16 @@
         <v>1</v>
       </c>
       <c r="M113" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="N113" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="O113" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="P113" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="Q113">
         <v>1</v>
@@ -10371,7 +10368,7 @@
         <v>3</v>
       </c>
       <c r="S113">
-        <v>0.002555542</v>
+        <v>0.0028085</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -10418,7 +10415,7 @@
         <v>3</v>
       </c>
       <c r="S114">
-        <v>0.002603042</v>
+        <v>0.002704375</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -10465,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="S115">
-        <v>0.002814916</v>
+        <v>0.002996833</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -10506,16 +10503,16 @@
         <v>1</v>
       </c>
       <c r="M116" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N116" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="O116" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="P116" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="Q116">
         <v>1</v>
@@ -10524,7 +10521,7 @@
         <v>3</v>
       </c>
       <c r="S116">
-        <v>0.002462209</v>
+        <v>0.00244825</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -10565,16 +10562,16 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N117" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="O117" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="P117" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -10583,7 +10580,7 @@
         <v>3</v>
       </c>
       <c r="S117">
-        <v>0.001684916</v>
+        <v>0.001672875</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -10624,16 +10621,16 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N118" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="O118" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="P118" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -10642,7 +10639,7 @@
         <v>3</v>
       </c>
       <c r="S118">
-        <v>0.003533042</v>
+        <v>0.003817417</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -10683,16 +10680,16 @@
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="O119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="P119" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="Q119">
         <v>1</v>
@@ -10701,7 +10698,7 @@
         <v>3</v>
       </c>
       <c r="S119">
-        <v>0.003425959</v>
+        <v>0.003484875</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -10742,16 +10739,16 @@
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="N120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="O120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="P120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -10760,7 +10757,7 @@
         <v>3</v>
       </c>
       <c r="S120">
-        <v>0.00233825</v>
+        <v>0.002342666</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -10801,16 +10798,16 @@
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="O121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="P121" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="Q121">
         <v>1</v>
@@ -10819,7 +10816,7 @@
         <v>3</v>
       </c>
       <c r="S121">
-        <v>0.001512833</v>
+        <v>0.00175125</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -10860,16 +10857,16 @@
         <v>1</v>
       </c>
       <c r="M122" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N122" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="O122" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="P122" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -10878,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="S122">
-        <v>0.003080375</v>
+        <v>0.003350167</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -10919,16 +10916,16 @@
         <v>1</v>
       </c>
       <c r="M123" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="N123" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="O123" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="P123" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="Q123">
         <v>1</v>
@@ -10937,7 +10934,7 @@
         <v>3</v>
       </c>
       <c r="S123">
-        <v>0.004009583</v>
+        <v>0.004083292</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -10978,7 +10975,7 @@
         <v>2</v>
       </c>
       <c r="S124">
-        <v>0.002689958</v>
+        <v>0.003104375</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -11037,7 +11034,7 @@
         <v>3</v>
       </c>
       <c r="S125">
-        <v>0.0025715</v>
+        <v>0.002461583</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -11078,16 +11075,16 @@
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="N126" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="O126" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="P126" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="Q126">
         <v>1</v>
@@ -11096,7 +11093,7 @@
         <v>3</v>
       </c>
       <c r="S126">
-        <v>0.002777334</v>
+        <v>0.002320667</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -11137,16 +11134,16 @@
         <v>1</v>
       </c>
       <c r="M127" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N127" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="O127" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="P127" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -11155,7 +11152,7 @@
         <v>3</v>
       </c>
       <c r="S127">
-        <v>0.004216292</v>
+        <v>0.004301041</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -11196,16 +11193,16 @@
         <v>1</v>
       </c>
       <c r="M128" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="N128" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="O128" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="P128" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -11214,7 +11211,7 @@
         <v>3</v>
       </c>
       <c r="S128">
-        <v>0.002509459</v>
+        <v>0.002722709</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -11255,25 +11252,25 @@
         <v>1</v>
       </c>
       <c r="M129" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N129" t="s">
-        <v>1147</v>
+        <v>901</v>
       </c>
       <c r="O129" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="P129" t="s">
-        <v>1147</v>
+        <v>901</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S129">
-        <v>0.00253325</v>
+        <v>0.002773625</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -11332,7 +11329,7 @@
         <v>3</v>
       </c>
       <c r="S130">
-        <v>0.002250042</v>
+        <v>0.002370667</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -11373,16 +11370,16 @@
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N131" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="O131" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="P131" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="Q131">
         <v>1</v>
@@ -11391,7 +11388,7 @@
         <v>3</v>
       </c>
       <c r="S131">
-        <v>0.002650625</v>
+        <v>0.002983292</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -11450,7 +11447,7 @@
         <v>3</v>
       </c>
       <c r="S132">
-        <v>0.002443625</v>
+        <v>0.002529458</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -11491,16 +11488,16 @@
         <v>1</v>
       </c>
       <c r="M133" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N133" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="O133" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="P133" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -11509,7 +11506,7 @@
         <v>3</v>
       </c>
       <c r="S133">
-        <v>0.002010084</v>
+        <v>0.002046292</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -11550,16 +11547,16 @@
         <v>1</v>
       </c>
       <c r="M134" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N134" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O134" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="P134" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -11568,7 +11565,7 @@
         <v>3</v>
       </c>
       <c r="S134">
-        <v>0.003656584</v>
+        <v>0.003792875</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -11609,16 +11606,16 @@
         <v>1</v>
       </c>
       <c r="M135" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N135" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O135" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P135" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Q135">
         <v>1</v>
@@ -11627,7 +11624,7 @@
         <v>3</v>
       </c>
       <c r="S135">
-        <v>0.002913375</v>
+        <v>0.003057833</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -11668,16 +11665,16 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="O136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="P136" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="Q136">
         <v>1</v>
@@ -11686,7 +11683,7 @@
         <v>3</v>
       </c>
       <c r="S136">
-        <v>0.003206875</v>
+        <v>0.003369541</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -11727,16 +11724,16 @@
         <v>1</v>
       </c>
       <c r="M137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="N137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="O137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="P137" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -11745,7 +11742,7 @@
         <v>3</v>
       </c>
       <c r="S137">
-        <v>0.002730916</v>
+        <v>0.002784667</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -11786,16 +11783,16 @@
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="N138" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="O138" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="P138" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="Q138">
         <v>1</v>
@@ -11804,7 +11801,7 @@
         <v>3</v>
       </c>
       <c r="S138">
-        <v>0.002211333</v>
+        <v>0.002477542</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -11845,16 +11842,16 @@
         <v>1</v>
       </c>
       <c r="M139" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N139" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="O139" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="P139" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="Q139">
         <v>1</v>
@@ -11863,7 +11860,7 @@
         <v>3</v>
       </c>
       <c r="S139">
-        <v>0.003542792</v>
+        <v>0.003813625</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -11922,7 +11919,7 @@
         <v>3</v>
       </c>
       <c r="S140">
-        <v>0.001997333</v>
+        <v>0.002167333</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -11957,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="P141">
         <v>5</v>
@@ -11969,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="S141">
-        <v>0.001399292</v>
+        <v>0.001490834</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -12010,16 +12007,16 @@
         <v>1</v>
       </c>
       <c r="M142" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N142" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="O142" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="P142" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="Q142">
         <v>1</v>
@@ -12028,7 +12025,7 @@
         <v>3</v>
       </c>
       <c r="S142">
-        <v>0.002302</v>
+        <v>0.002597083</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -12069,16 +12066,16 @@
         <v>1</v>
       </c>
       <c r="M143" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N143" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="O143" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="P143" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -12087,7 +12084,7 @@
         <v>3</v>
       </c>
       <c r="S143">
-        <v>0.004080542</v>
+        <v>0.004489333</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -12119,25 +12116,25 @@
         <v>799</v>
       </c>
       <c r="J144" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="K144" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="L144">
         <v>1</v>
       </c>
       <c r="M144" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N144" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="O144" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="P144" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -12146,7 +12143,7 @@
         <v>3</v>
       </c>
       <c r="S144">
-        <v>0.002833458</v>
+        <v>0.002950583</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -12187,16 +12184,16 @@
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="N145" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="O145" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="P145" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="Q145">
         <v>1</v>
@@ -12205,7 +12202,7 @@
         <v>3</v>
       </c>
       <c r="S145">
-        <v>0.002898</v>
+        <v>0.002876041</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -12246,16 +12243,16 @@
         <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N146" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="O146" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="P146" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="Q146">
         <v>1</v>
@@ -12264,7 +12261,7 @@
         <v>3</v>
       </c>
       <c r="S146">
-        <v>0.003547708</v>
+        <v>0.003712958</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -12305,16 +12302,16 @@
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="N147" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="O147" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="P147" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="Q147">
         <v>1</v>
@@ -12323,7 +12320,7 @@
         <v>3</v>
       </c>
       <c r="S147">
-        <v>0.002708792</v>
+        <v>0.002915</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -12364,16 +12361,16 @@
         <v>1</v>
       </c>
       <c r="M148" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N148" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="O148" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="P148" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -12382,7 +12379,7 @@
         <v>3</v>
       </c>
       <c r="S148">
-        <v>0.002926208</v>
+        <v>0.003188875</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -12423,16 +12420,16 @@
         <v>1</v>
       </c>
       <c r="M149" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N149" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="O149" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="P149" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="Q149">
         <v>1</v>
@@ -12441,7 +12438,7 @@
         <v>3</v>
       </c>
       <c r="S149">
-        <v>0.001395334</v>
+        <v>0.001498417</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -12500,7 +12497,7 @@
         <v>3</v>
       </c>
       <c r="S150">
-        <v>0.002488541</v>
+        <v>0.002450041</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -12541,16 +12538,16 @@
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N151" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="O151" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="P151" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Q151">
         <v>1</v>
@@ -12559,7 +12556,7 @@
         <v>3</v>
       </c>
       <c r="S151">
-        <v>0.003623208</v>
+        <v>0.003825666</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -12588,16 +12585,16 @@
         <v>1</v>
       </c>
       <c r="M152" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N152" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="O152" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="P152" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -12606,7 +12603,7 @@
         <v>3</v>
       </c>
       <c r="S152">
-        <v>0.002760208</v>
+        <v>0.002849541</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -12665,7 +12662,7 @@
         <v>3</v>
       </c>
       <c r="S153">
-        <v>0.002718417</v>
+        <v>0.002883541</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -12712,7 +12709,7 @@
         <v>3</v>
       </c>
       <c r="S154">
-        <v>0.002091791</v>
+        <v>0.002213625</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -12741,16 +12738,16 @@
         <v>1</v>
       </c>
       <c r="M155" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N155" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="O155" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="P155" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -12759,7 +12756,7 @@
         <v>3</v>
       </c>
       <c r="S155">
-        <v>0.001701041</v>
+        <v>0.001734417</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -12788,16 +12785,16 @@
         <v>1</v>
       </c>
       <c r="M156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="N156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="O156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="P156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -12806,7 +12803,7 @@
         <v>3</v>
       </c>
       <c r="S156">
-        <v>0.001330959</v>
+        <v>0.001388167</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -12853,7 +12850,7 @@
         <v>3</v>
       </c>
       <c r="S157">
-        <v>0.002302291</v>
+        <v>0.00240075</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -12882,16 +12879,16 @@
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N158" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O158" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="P158" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="Q158">
         <v>1</v>
@@ -12900,7 +12897,7 @@
         <v>3</v>
       </c>
       <c r="S158">
-        <v>0.002677333</v>
+        <v>0.003067917</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -12941,16 +12938,16 @@
         <v>1</v>
       </c>
       <c r="M159" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="N159" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O159" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="P159" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="Q159">
         <v>1</v>
@@ -12959,7 +12956,7 @@
         <v>3</v>
       </c>
       <c r="S159">
-        <v>0.002045542</v>
+        <v>0.002024208</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -13000,16 +12997,16 @@
         <v>1</v>
       </c>
       <c r="M160" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N160" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="O160" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="P160" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -13018,7 +13015,7 @@
         <v>3</v>
       </c>
       <c r="S160">
-        <v>0.003094417</v>
+        <v>0.003186375</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -13059,16 +13056,16 @@
         <v>1</v>
       </c>
       <c r="M161" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N161" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="O161" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="P161" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="Q161">
         <v>1</v>
@@ -13077,7 +13074,7 @@
         <v>3</v>
       </c>
       <c r="S161">
-        <v>0.002667833</v>
+        <v>0.002712542</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -13118,16 +13115,16 @@
         <v>1</v>
       </c>
       <c r="M162" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N162" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="O162" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="P162" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="Q162">
         <v>1</v>
@@ -13136,7 +13133,7 @@
         <v>3</v>
       </c>
       <c r="S162">
-        <v>0.003783542</v>
+        <v>0.003924416</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -13177,16 +13174,16 @@
         <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N163" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O163" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="P163" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -13195,7 +13192,7 @@
         <v>3</v>
       </c>
       <c r="S163">
-        <v>0.002327083</v>
+        <v>0.002358458</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -13223,32 +13220,32 @@
       <c r="H164" t="s">
         <v>646</v>
       </c>
+      <c r="I164" t="s">
+        <v>646</v>
+      </c>
       <c r="J164" t="s">
         <v>646</v>
       </c>
+      <c r="K164" t="s">
+        <v>646</v>
+      </c>
       <c r="L164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M164" t="s">
         <v>646</v>
       </c>
-      <c r="N164" t="s">
-        <v>646</v>
-      </c>
       <c r="O164" t="s">
         <v>646</v>
       </c>
-      <c r="P164" t="s">
-        <v>646</v>
-      </c>
       <c r="Q164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R164">
         <v>2</v>
       </c>
       <c r="S164">
-        <v>0.001873542</v>
+        <v>0.001987166</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -13289,16 +13286,16 @@
         <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="N165" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="O165" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="P165" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -13307,7 +13304,7 @@
         <v>3</v>
       </c>
       <c r="S165">
-        <v>0.002172541</v>
+        <v>0.002345209</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -13348,16 +13345,16 @@
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="N166" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="O166" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="P166" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="Q166">
         <v>1</v>
@@ -13366,7 +13363,7 @@
         <v>3</v>
       </c>
       <c r="S166">
-        <v>0.002525125</v>
+        <v>0.002946083</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -13413,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="S167">
-        <v>0.002118834</v>
+        <v>0.002480417</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -13442,16 +13439,16 @@
         <v>1</v>
       </c>
       <c r="M168" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="N168" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="O168" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="P168" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -13460,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="S168">
-        <v>0.0019445</v>
+        <v>0.002245417</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -13507,7 +13504,7 @@
         <v>3</v>
       </c>
       <c r="S169">
-        <v>0.000791667</v>
+        <v>0.000847625</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -13554,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="S170">
-        <v>0.000735333</v>
+        <v>0.00075425</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -13595,16 +13592,16 @@
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N171" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O171" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="P171" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Q171">
         <v>1</v>
@@ -13613,7 +13610,7 @@
         <v>3</v>
       </c>
       <c r="S171">
-        <v>0.00105575</v>
+        <v>0.001373042</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -13660,7 +13657,7 @@
         <v>3</v>
       </c>
       <c r="S172">
-        <v>0.001923791</v>
+        <v>0.002132375</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -13689,16 +13686,16 @@
         <v>1</v>
       </c>
       <c r="M173" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="N173" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="O173" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="P173" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="Q173">
         <v>1</v>
@@ -13707,7 +13704,7 @@
         <v>3</v>
       </c>
       <c r="S173">
-        <v>0.001621625</v>
+        <v>0.001674958</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -13736,16 +13733,16 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="N174" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="O174" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="P174" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="Q174">
         <v>1</v>
@@ -13754,7 +13751,7 @@
         <v>3</v>
       </c>
       <c r="S174">
-        <v>0.002742959</v>
+        <v>0.002911584</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -13795,16 +13792,16 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N175" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="O175" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="P175" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="Q175">
         <v>1</v>
@@ -13813,7 +13810,7 @@
         <v>3</v>
       </c>
       <c r="S175">
-        <v>0.002602959</v>
+        <v>0.002690166</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -13842,16 +13839,16 @@
         <v>1</v>
       </c>
       <c r="M176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="N176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="O176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="P176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Q176">
         <v>1</v>
@@ -13860,7 +13857,7 @@
         <v>3</v>
       </c>
       <c r="S176">
-        <v>0.002430875</v>
+        <v>0.002603125</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -13889,16 +13886,16 @@
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="N177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="P177" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="Q177">
         <v>1</v>
@@ -13907,7 +13904,7 @@
         <v>3</v>
       </c>
       <c r="S177">
-        <v>0.002092125</v>
+        <v>0.002277375</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -13948,16 +13945,16 @@
         <v>1</v>
       </c>
       <c r="M178" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N178" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="O178" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="P178" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="Q178">
         <v>1</v>
@@ -13966,7 +13963,7 @@
         <v>3</v>
       </c>
       <c r="S178">
-        <v>0.002800208</v>
+        <v>0.002860709</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -13995,16 +13992,16 @@
         <v>1</v>
       </c>
       <c r="M179" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="N179" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="O179" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="P179" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="Q179">
         <v>1</v>
@@ -14013,7 +14010,7 @@
         <v>3</v>
       </c>
       <c r="S179">
-        <v>0.000817417</v>
+        <v>0.000886291</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -14054,16 +14051,16 @@
         <v>1</v>
       </c>
       <c r="M180" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N180" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="O180" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="P180" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -14072,7 +14069,7 @@
         <v>3</v>
       </c>
       <c r="S180">
-        <v>0.001284083</v>
+        <v>0.00143425</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -14131,7 +14128,7 @@
         <v>3</v>
       </c>
       <c r="S181">
-        <v>0.003210625</v>
+        <v>0.003764375</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -14172,16 +14169,16 @@
         <v>1</v>
       </c>
       <c r="M182" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="N182" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="O182" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="P182" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Q182">
         <v>1</v>
@@ -14190,7 +14187,7 @@
         <v>3</v>
       </c>
       <c r="S182">
-        <v>0.000733167</v>
+        <v>0.000853083</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -14231,16 +14228,16 @@
         <v>1</v>
       </c>
       <c r="M183" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N183" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="O183" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="P183" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="Q183">
         <v>1</v>
@@ -14249,7 +14246,7 @@
         <v>3</v>
       </c>
       <c r="S183">
-        <v>0.002941625</v>
+        <v>0.003095042</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -14296,7 +14293,7 @@
         <v>3</v>
       </c>
       <c r="S184">
-        <v>0.003117208</v>
+        <v>0.003489167</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -14343,7 +14340,7 @@
         <v>3</v>
       </c>
       <c r="S185">
-        <v>0.002795166</v>
+        <v>0.003114167</v>
       </c>
     </row>
     <row r="186" spans="1:19">
@@ -14390,7 +14387,7 @@
         <v>3</v>
       </c>
       <c r="S186">
-        <v>0.00174</v>
+        <v>0.001885084</v>
       </c>
     </row>
     <row r="187" spans="1:19">
@@ -14431,16 +14428,16 @@
         <v>1</v>
       </c>
       <c r="M187" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="N187" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O187" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="P187" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -14449,7 +14446,7 @@
         <v>3</v>
       </c>
       <c r="S187">
-        <v>0.002263708</v>
+        <v>0.002357042</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -14496,7 +14493,7 @@
         <v>3</v>
       </c>
       <c r="S188">
-        <v>0.001905333</v>
+        <v>0.002065209</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -14543,7 +14540,7 @@
         <v>3</v>
       </c>
       <c r="S189">
-        <v>0.002398375</v>
+        <v>0.002539084</v>
       </c>
     </row>
     <row r="190" spans="1:19">
@@ -14572,16 +14569,16 @@
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N190" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O190" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P190" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -14590,7 +14587,7 @@
         <v>3</v>
       </c>
       <c r="S190">
-        <v>0.0030685</v>
+        <v>0.003110958</v>
       </c>
     </row>
     <row r="191" spans="1:19">
@@ -14631,16 +14628,16 @@
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N191" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O191" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="P191" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="Q191">
         <v>1</v>
@@ -14649,7 +14646,7 @@
         <v>3</v>
       </c>
       <c r="S191">
-        <v>0.002889875</v>
+        <v>0.003132042</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -14678,16 +14675,16 @@
         <v>1</v>
       </c>
       <c r="M192" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="N192" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="O192" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="P192" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Q192">
         <v>1</v>
@@ -14696,7 +14693,7 @@
         <v>3</v>
       </c>
       <c r="S192">
-        <v>0.001259292</v>
+        <v>0.001336625</v>
       </c>
     </row>
     <row r="193" spans="1:19">
@@ -14737,16 +14734,16 @@
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="N193" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="O193" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="P193" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q193">
         <v>1</v>
@@ -14755,7 +14752,7 @@
         <v>3</v>
       </c>
       <c r="S193">
-        <v>0.000989708</v>
+        <v>0.001034</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -14796,16 +14793,16 @@
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="N194" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="O194" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="P194" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="Q194">
         <v>1</v>
@@ -14814,7 +14811,7 @@
         <v>3</v>
       </c>
       <c r="S194">
-        <v>0.003115042</v>
+        <v>0.003217292</v>
       </c>
     </row>
     <row r="195" spans="1:19">
@@ -14843,16 +14840,16 @@
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N195" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="O195" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P195" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -14861,7 +14858,7 @@
         <v>2</v>
       </c>
       <c r="S195">
-        <v>0.001501917</v>
+        <v>0.001568375</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -14902,16 +14899,16 @@
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="N196" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="O196" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="P196" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="Q196">
         <v>1</v>
@@ -14920,7 +14917,7 @@
         <v>3</v>
       </c>
       <c r="S196">
-        <v>0.00311425</v>
+        <v>0.003317958</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -14949,16 +14946,16 @@
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="N197" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="O197" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="P197" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="Q197">
         <v>1</v>
@@ -14967,7 +14964,7 @@
         <v>3</v>
       </c>
       <c r="S197">
-        <v>0.00270775</v>
+        <v>0.002823292</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -14996,16 +14993,16 @@
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N198" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="O198" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="P198" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="Q198">
         <v>1</v>
@@ -15014,7 +15011,7 @@
         <v>3</v>
       </c>
       <c r="S198">
-        <v>0.000924875</v>
+        <v>0.000949958</v>
       </c>
     </row>
     <row r="199" spans="1:19">
@@ -15055,16 +15052,16 @@
         <v>1</v>
       </c>
       <c r="M199" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="N199" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O199" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="P199" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -15073,7 +15070,7 @@
         <v>3</v>
       </c>
       <c r="S199">
-        <v>0.002551584</v>
+        <v>0.002794792</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -15114,16 +15111,16 @@
         <v>1</v>
       </c>
       <c r="M200" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N200" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="O200" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="P200" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Q200">
         <v>1</v>
@@ -15132,7 +15129,7 @@
         <v>3</v>
       </c>
       <c r="S200">
-        <v>0.001887583</v>
+        <v>0.001805958</v>
       </c>
     </row>
     <row r="201" spans="1:19">
@@ -15173,16 +15170,16 @@
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="N201" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="O201" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="P201" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="Q201">
         <v>1</v>
@@ -15191,7 +15188,7 @@
         <v>3</v>
       </c>
       <c r="S201">
-        <v>0.003276834</v>
+        <v>0.003147292</v>
       </c>
     </row>
     <row r="202" spans="1:19">
@@ -15220,16 +15217,16 @@
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="N202" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="O202" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="P202" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="Q202">
         <v>1</v>
@@ -15238,7 +15235,7 @@
         <v>3</v>
       </c>
       <c r="S202">
-        <v>0.002464167</v>
+        <v>0.002486459</v>
       </c>
     </row>
     <row r="203" spans="1:19">
@@ -15285,7 +15282,7 @@
         <v>3</v>
       </c>
       <c r="S203">
-        <v>0.001467959</v>
+        <v>0.001515083</v>
       </c>
     </row>
     <row r="204" spans="1:19">
@@ -15326,16 +15323,16 @@
         <v>1</v>
       </c>
       <c r="M204" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="N204" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O204" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="P204" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="Q204">
         <v>1</v>
@@ -15344,7 +15341,7 @@
         <v>3</v>
       </c>
       <c r="S204">
-        <v>0.002097083</v>
+        <v>0.00230075</v>
       </c>
     </row>
     <row r="205" spans="1:19">
@@ -15385,16 +15382,16 @@
         <v>1</v>
       </c>
       <c r="M205" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N205" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="O205" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="P205" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Q205">
         <v>1</v>
@@ -15403,7 +15400,7 @@
         <v>3</v>
       </c>
       <c r="S205">
-        <v>0.003209708</v>
+        <v>0.003483209</v>
       </c>
     </row>
     <row r="206" spans="1:19">
@@ -15450,7 +15447,7 @@
         <v>3</v>
       </c>
       <c r="S206">
-        <v>0.001528417</v>
+        <v>0.001626334</v>
       </c>
     </row>
     <row r="207" spans="1:19">
@@ -15479,16 +15476,16 @@
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="N207" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O207" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="P207" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="Q207">
         <v>1</v>
@@ -15497,7 +15494,7 @@
         <v>3</v>
       </c>
       <c r="S207">
-        <v>0.000829042</v>
+        <v>0.000952333</v>
       </c>
     </row>
     <row r="208" spans="1:19">
@@ -15538,16 +15535,16 @@
         <v>1</v>
       </c>
       <c r="M208" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="N208" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="O208" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="P208" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="Q208">
         <v>1</v>
@@ -15556,7 +15553,7 @@
         <v>3</v>
       </c>
       <c r="S208">
-        <v>0.001801291</v>
+        <v>0.002146333</v>
       </c>
     </row>
     <row r="209" spans="1:19">
@@ -15585,16 +15582,16 @@
         <v>1</v>
       </c>
       <c r="M209" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="N209" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="O209" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="P209" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="Q209">
         <v>1</v>
@@ -15603,7 +15600,7 @@
         <v>3</v>
       </c>
       <c r="S209">
-        <v>0.002678458</v>
+        <v>0.002637542</v>
       </c>
     </row>
     <row r="210" spans="1:19">
@@ -15632,16 +15629,16 @@
         <v>1</v>
       </c>
       <c r="M210" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="N210" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="O210" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="P210" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="Q210">
         <v>1</v>
@@ -15650,7 +15647,7 @@
         <v>3</v>
       </c>
       <c r="S210">
-        <v>0.00257675</v>
+        <v>0.002589125</v>
       </c>
     </row>
     <row r="211" spans="1:19">
@@ -15679,16 +15676,16 @@
         <v>1</v>
       </c>
       <c r="M211" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N211" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O211" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="P211" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="Q211">
         <v>1</v>
@@ -15697,7 +15694,7 @@
         <v>3</v>
       </c>
       <c r="S211">
-        <v>0.0027945</v>
+        <v>0.002958167</v>
       </c>
     </row>
     <row r="212" spans="1:19">
@@ -15726,16 +15723,16 @@
         <v>1</v>
       </c>
       <c r="M212" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="N212" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="O212" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="P212" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -15744,7 +15741,7 @@
         <v>3</v>
       </c>
       <c r="S212">
-        <v>0.001778958</v>
+        <v>0.002094333</v>
       </c>
     </row>
     <row r="213" spans="1:19">
@@ -15773,16 +15770,16 @@
         <v>1</v>
       </c>
       <c r="M213" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="N213" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="O213" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="P213" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="Q213">
         <v>1</v>
@@ -15791,7 +15788,7 @@
         <v>3</v>
       </c>
       <c r="S213">
-        <v>0.001035833</v>
+        <v>0.001188167</v>
       </c>
     </row>
     <row r="214" spans="1:19">
@@ -15838,7 +15835,7 @@
         <v>3</v>
       </c>
       <c r="S214">
-        <v>0.0015045</v>
+        <v>0.00164825</v>
       </c>
     </row>
     <row r="215" spans="1:19">
@@ -15897,7 +15894,7 @@
         <v>3</v>
       </c>
       <c r="S215">
-        <v>0.00288275</v>
+        <v>0.002890875</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -15926,16 +15923,16 @@
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="N216" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O216" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="P216" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="Q216">
         <v>1</v>
@@ -15944,7 +15941,7 @@
         <v>3</v>
       </c>
       <c r="S216">
-        <v>0.001434542</v>
+        <v>0.001538917</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -15973,16 +15970,16 @@
         <v>1</v>
       </c>
       <c r="M217" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N217" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="O217" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="P217" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="Q217">
         <v>1</v>
@@ -15991,7 +15988,7 @@
         <v>3</v>
       </c>
       <c r="S217">
-        <v>0.001430166</v>
+        <v>0.001532083</v>
       </c>
     </row>
     <row r="218" spans="1:19">
@@ -16038,7 +16035,7 @@
         <v>3</v>
       </c>
       <c r="S218">
-        <v>0.001906791</v>
+        <v>0.00236275</v>
       </c>
     </row>
     <row r="219" spans="1:19">
@@ -16067,16 +16064,16 @@
         <v>1</v>
       </c>
       <c r="M219" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="N219" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O219" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="P219" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="Q219">
         <v>1</v>
@@ -16085,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="S219">
-        <v>0.003115125</v>
+        <v>0.003493875</v>
       </c>
     </row>
     <row r="220" spans="1:19">
@@ -16114,16 +16111,16 @@
         <v>0</v>
       </c>
       <c r="M220" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N220" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="O220" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="P220" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="Q220">
         <v>1</v>
@@ -16132,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="S220">
-        <v>0.001543541</v>
+        <v>0.001792208</v>
       </c>
     </row>
     <row r="221" spans="1:19">
@@ -16173,16 +16170,16 @@
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="N221" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="O221" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="P221" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -16191,7 +16188,7 @@
         <v>2</v>
       </c>
       <c r="S221">
-        <v>0.002665958</v>
+        <v>0.002979375</v>
       </c>
     </row>
     <row r="222" spans="1:19">
@@ -16232,16 +16229,16 @@
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="N222" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="O222" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="P222" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -16250,7 +16247,7 @@
         <v>3</v>
       </c>
       <c r="S222">
-        <v>0.003291042</v>
+        <v>0.003567834</v>
       </c>
     </row>
     <row r="223" spans="1:19">
@@ -16291,16 +16288,16 @@
         <v>1</v>
       </c>
       <c r="M223" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="N223" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="O223" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P223" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="Q223">
         <v>1</v>
@@ -16309,7 +16306,7 @@
         <v>3</v>
       </c>
       <c r="S223">
-        <v>0.003018833</v>
+        <v>0.003006708</v>
       </c>
     </row>
     <row r="224" spans="1:19">
@@ -16338,16 +16335,16 @@
         <v>1</v>
       </c>
       <c r="M224" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="N224" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O224" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="P224" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q224">
         <v>1</v>
@@ -16356,7 +16353,7 @@
         <v>3</v>
       </c>
       <c r="S224">
-        <v>0.001296542</v>
+        <v>0.001316541</v>
       </c>
     </row>
     <row r="225" spans="1:19">
@@ -16385,16 +16382,16 @@
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N225" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O225" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P225" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Q225">
         <v>1</v>
@@ -16403,7 +16400,7 @@
         <v>3</v>
       </c>
       <c r="S225">
-        <v>0.00202725</v>
+        <v>0.002114209</v>
       </c>
     </row>
     <row r="226" spans="1:19">
@@ -16444,16 +16441,16 @@
         <v>1</v>
       </c>
       <c r="M226" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N226" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O226" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P226" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q226">
         <v>1</v>
@@ -16462,7 +16459,7 @@
         <v>3</v>
       </c>
       <c r="S226">
-        <v>0.002102208</v>
+        <v>0.002279459</v>
       </c>
     </row>
     <row r="227" spans="1:19">
@@ -16509,7 +16506,7 @@
         <v>3</v>
       </c>
       <c r="S227">
-        <v>0.001138792</v>
+        <v>0.001162292</v>
       </c>
     </row>
     <row r="228" spans="1:19">
@@ -16550,16 +16547,16 @@
         <v>1</v>
       </c>
       <c r="M228" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="N228" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="O228" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="P228" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="Q228">
         <v>1</v>
@@ -16568,7 +16565,7 @@
         <v>3</v>
       </c>
       <c r="S228">
-        <v>0.00218675</v>
+        <v>0.00225625</v>
       </c>
     </row>
     <row r="229" spans="1:19">
@@ -16609,16 +16606,16 @@
         <v>1</v>
       </c>
       <c r="M229" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N229" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="O229" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="P229" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="Q229">
         <v>1</v>
@@ -16627,7 +16624,7 @@
         <v>3</v>
       </c>
       <c r="S229">
-        <v>0.001259416</v>
+        <v>0.001421458</v>
       </c>
     </row>
     <row r="230" spans="1:19">
@@ -16668,16 +16665,16 @@
         <v>1</v>
       </c>
       <c r="M230" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="N230" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O230" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="P230" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="Q230">
         <v>1</v>
@@ -16686,7 +16683,7 @@
         <v>3</v>
       </c>
       <c r="S230">
-        <v>0.003188</v>
+        <v>0.003365458</v>
       </c>
     </row>
     <row r="231" spans="1:19">
@@ -16727,16 +16724,16 @@
         <v>1</v>
       </c>
       <c r="M231" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N231" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O231" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="P231" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="Q231">
         <v>1</v>
@@ -16745,7 +16742,7 @@
         <v>3</v>
       </c>
       <c r="S231">
-        <v>0.002193417</v>
+        <v>0.00226425</v>
       </c>
     </row>
     <row r="232" spans="1:19">
@@ -16786,16 +16783,16 @@
         <v>1</v>
       </c>
       <c r="M232" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="N232" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="O232" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="P232" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="Q232">
         <v>1</v>
@@ -16804,7 +16801,7 @@
         <v>3</v>
       </c>
       <c r="S232">
-        <v>0.002046667</v>
+        <v>0.002150333</v>
       </c>
     </row>
     <row r="233" spans="1:19">
@@ -16845,16 +16842,16 @@
         <v>1</v>
       </c>
       <c r="M233" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N233" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="O233" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="P233" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Q233">
         <v>1</v>
@@ -16863,7 +16860,7 @@
         <v>3</v>
       </c>
       <c r="S233">
-        <v>0.002210167</v>
+        <v>0.002420833</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -16910,7 +16907,7 @@
         <v>3</v>
       </c>
       <c r="S234">
-        <v>0.001872542</v>
+        <v>0.00194725</v>
       </c>
     </row>
     <row r="235" spans="1:19">
@@ -16939,16 +16936,16 @@
         <v>1</v>
       </c>
       <c r="M235" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="N235" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="O235" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P235" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Q235">
         <v>1</v>
@@ -16957,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="S235">
-        <v>0.002446791</v>
+        <v>0.0026725</v>
       </c>
     </row>
     <row r="236" spans="1:19">
@@ -16986,16 +16983,16 @@
         <v>1</v>
       </c>
       <c r="M236" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N236" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="O236" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="P236" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="Q236">
         <v>1</v>
@@ -17004,7 +17001,7 @@
         <v>3</v>
       </c>
       <c r="S236">
-        <v>0.002172625</v>
+        <v>0.002445875</v>
       </c>
     </row>
     <row r="237" spans="1:19">
@@ -17051,7 +17048,7 @@
         <v>3</v>
       </c>
       <c r="S237">
-        <v>0.001128417</v>
+        <v>0.001279625</v>
       </c>
     </row>
     <row r="238" spans="1:19">
@@ -17092,16 +17089,16 @@
         <v>1</v>
       </c>
       <c r="M238" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="N238" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O238" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P238" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="Q238">
         <v>1</v>
@@ -17110,7 +17107,7 @@
         <v>3</v>
       </c>
       <c r="S238">
-        <v>0.003905958</v>
+        <v>0.004068583</v>
       </c>
     </row>
     <row r="239" spans="1:19">
@@ -17139,16 +17136,16 @@
         <v>1</v>
       </c>
       <c r="M239" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N239" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="O239" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P239" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Q239">
         <v>1</v>
@@ -17157,7 +17154,7 @@
         <v>3</v>
       </c>
       <c r="S239">
-        <v>0.000808166</v>
+        <v>0.000860625</v>
       </c>
     </row>
     <row r="240" spans="1:19">
@@ -17186,16 +17183,16 @@
         <v>1</v>
       </c>
       <c r="M240" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="N240" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O240" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="P240" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Q240">
         <v>1</v>
@@ -17204,7 +17201,7 @@
         <v>3</v>
       </c>
       <c r="S240">
-        <v>0.001051833</v>
+        <v>0.001075916</v>
       </c>
     </row>
     <row r="241" spans="1:19">
@@ -17233,16 +17230,16 @@
         <v>1</v>
       </c>
       <c r="M241" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="N241" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O241" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="P241" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="Q241">
         <v>1</v>
@@ -17251,7 +17248,7 @@
         <v>3</v>
       </c>
       <c r="S241">
-        <v>0.002314833</v>
+        <v>0.002720042</v>
       </c>
     </row>
     <row r="242" spans="1:19">
@@ -17292,16 +17289,16 @@
         <v>1</v>
       </c>
       <c r="M242" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N242" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="O242" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="P242" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="Q242">
         <v>1</v>
@@ -17310,7 +17307,7 @@
         <v>3</v>
       </c>
       <c r="S242">
-        <v>0.002956042</v>
+        <v>0.00313775</v>
       </c>
     </row>
     <row r="243" spans="1:19">
@@ -17357,7 +17354,7 @@
         <v>3</v>
       </c>
       <c r="S243">
-        <v>0.002038375</v>
+        <v>0.002038958</v>
       </c>
     </row>
     <row r="244" spans="1:19">
@@ -17386,16 +17383,16 @@
         <v>1</v>
       </c>
       <c r="M244" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="N244" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O244" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="P244" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Q244">
         <v>1</v>
@@ -17404,7 +17401,7 @@
         <v>3</v>
       </c>
       <c r="S244">
-        <v>0.001807167</v>
+        <v>0.001784709</v>
       </c>
     </row>
     <row r="245" spans="1:19">
@@ -17445,16 +17442,16 @@
         <v>1</v>
       </c>
       <c r="M245" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N245" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="O245" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="P245" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Q245">
         <v>1</v>
@@ -17463,7 +17460,7 @@
         <v>3</v>
       </c>
       <c r="S245">
-        <v>0.002744417</v>
+        <v>0.003087667</v>
       </c>
     </row>
     <row r="246" spans="1:19">
@@ -17492,16 +17489,16 @@
         <v>1</v>
       </c>
       <c r="M246" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N246" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O246" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="P246" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="Q246">
         <v>1</v>
@@ -17510,7 +17507,7 @@
         <v>3</v>
       </c>
       <c r="S246">
-        <v>0.002287417</v>
+        <v>0.002532708</v>
       </c>
     </row>
     <row r="247" spans="1:19">
@@ -17539,16 +17536,16 @@
         <v>1</v>
       </c>
       <c r="M247" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="N247" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O247" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P247" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -17557,7 +17554,7 @@
         <v>3</v>
       </c>
       <c r="S247">
-        <v>0.000655292</v>
+        <v>0.000693583</v>
       </c>
     </row>
     <row r="248" spans="1:19">
@@ -17598,16 +17595,16 @@
         <v>1</v>
       </c>
       <c r="M248" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="N248" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="O248" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="P248" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="Q248">
         <v>1</v>
@@ -17616,7 +17613,7 @@
         <v>3</v>
       </c>
       <c r="S248">
-        <v>0.001130334</v>
+        <v>0.001141458</v>
       </c>
     </row>
     <row r="249" spans="1:19">
@@ -17645,10 +17642,10 @@
         <v>1</v>
       </c>
       <c r="M249" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="N249" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="O249">
         <v>4</v>
@@ -17663,7 +17660,7 @@
         <v>3</v>
       </c>
       <c r="S249">
-        <v>0.001529375</v>
+        <v>0.001797125</v>
       </c>
     </row>
     <row r="250" spans="1:19">
@@ -17704,16 +17701,16 @@
         <v>1</v>
       </c>
       <c r="M250" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="N250" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="O250" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="P250" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="Q250">
         <v>1</v>
@@ -17722,7 +17719,7 @@
         <v>3</v>
       </c>
       <c r="S250">
-        <v>0.001738916</v>
+        <v>0.001915208</v>
       </c>
     </row>
     <row r="251" spans="1:19">
@@ -17763,16 +17760,16 @@
         <v>1</v>
       </c>
       <c r="M251" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N251" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O251" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="P251" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="Q251">
         <v>1</v>
@@ -17781,7 +17778,7 @@
         <v>3</v>
       </c>
       <c r="S251">
-        <v>0.002656</v>
+        <v>0.002961291</v>
       </c>
     </row>
     <row r="252" spans="1:19">
@@ -17828,7 +17825,7 @@
         <v>3</v>
       </c>
       <c r="S252">
-        <v>0.002580666</v>
+        <v>0.002735666</v>
       </c>
     </row>
     <row r="253" spans="1:19">
@@ -17857,10 +17854,10 @@
         <v>1</v>
       </c>
       <c r="M253" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="N253" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O253">
         <v>7</v>
@@ -17875,7 +17872,7 @@
         <v>3</v>
       </c>
       <c r="S253">
-        <v>3.0041E-05</v>
+        <v>4.8208E-05</v>
       </c>
     </row>
     <row r="254" spans="1:19">
@@ -17916,16 +17913,16 @@
         <v>1</v>
       </c>
       <c r="M254" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="N254" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="O254" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="P254" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="Q254">
         <v>1</v>
@@ -17934,7 +17931,7 @@
         <v>3</v>
       </c>
       <c r="S254">
-        <v>0.003289458</v>
+        <v>0.003648292</v>
       </c>
     </row>
     <row r="255" spans="1:19">
@@ -17966,25 +17963,25 @@
         <v>693</v>
       </c>
       <c r="J255" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K255" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L255">
         <v>1</v>
       </c>
       <c r="M255" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="N255" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="O255" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P255" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="Q255">
         <v>1</v>
@@ -17993,7 +17990,7 @@
         <v>3</v>
       </c>
       <c r="S255">
-        <v>0.002351333</v>
+        <v>0.002549917</v>
       </c>
     </row>
     <row r="256" spans="1:19">
@@ -18022,16 +18019,16 @@
         <v>1</v>
       </c>
       <c r="M256" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N256" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="O256" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="P256" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="Q256">
         <v>1</v>
@@ -18040,7 +18037,7 @@
         <v>3</v>
       </c>
       <c r="S256">
-        <v>0.003028709</v>
+        <v>0.003382833</v>
       </c>
     </row>
     <row r="257" spans="1:19">
@@ -18081,16 +18078,16 @@
         <v>1</v>
       </c>
       <c r="M257" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="N257" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="O257" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="P257" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="Q257">
         <v>1</v>
@@ -18099,7 +18096,7 @@
         <v>3</v>
       </c>
       <c r="S257">
-        <v>0.002324125</v>
+        <v>0.002621416</v>
       </c>
     </row>
     <row r="258" spans="1:19">
@@ -18146,7 +18143,7 @@
         <v>1</v>
       </c>
       <c r="S258">
-        <v>0.001749917</v>
+        <v>0.00205275</v>
       </c>
     </row>
     <row r="259" spans="1:19">
@@ -18175,16 +18172,16 @@
         <v>1</v>
       </c>
       <c r="M259" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N259" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O259" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="P259" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q259">
         <v>0</v>
@@ -18193,7 +18190,7 @@
         <v>2</v>
       </c>
       <c r="S259">
-        <v>0.001322375</v>
+        <v>0.001575375</v>
       </c>
     </row>
     <row r="260" spans="1:19">
@@ -18240,7 +18237,7 @@
         <v>3</v>
       </c>
       <c r="S260">
-        <v>0.001879417</v>
+        <v>0.00239375</v>
       </c>
     </row>
     <row r="261" spans="1:19">
@@ -18268,26 +18265,26 @@
       <c r="H261" t="s">
         <v>698</v>
       </c>
+      <c r="I261" t="s">
+        <v>698</v>
+      </c>
       <c r="J261" t="s">
         <v>698</v>
       </c>
+      <c r="K261" t="s">
+        <v>698</v>
+      </c>
       <c r="L261">
-        <v>0</v>
-      </c>
-      <c r="N261" t="s">
-        <v>698</v>
-      </c>
-      <c r="P261" t="s">
-        <v>698</v>
+        <v>1</v>
       </c>
       <c r="Q261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R261">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S261">
-        <v>0.003023667</v>
+        <v>0.003146542</v>
       </c>
     </row>
     <row r="262" spans="1:19">
@@ -18316,16 +18313,16 @@
         <v>1</v>
       </c>
       <c r="M262" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N262" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O262" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="P262" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Q262">
         <v>1</v>
@@ -18334,7 +18331,7 @@
         <v>3</v>
       </c>
       <c r="S262">
-        <v>0.00150225</v>
+        <v>0.001483583</v>
       </c>
     </row>
     <row r="263" spans="1:19">
@@ -18363,16 +18360,16 @@
         <v>1</v>
       </c>
       <c r="M263" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="N263" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O263" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="P263" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="Q263">
         <v>1</v>
@@ -18381,7 +18378,7 @@
         <v>3</v>
       </c>
       <c r="S263">
-        <v>0.002618458</v>
+        <v>0.002826375</v>
       </c>
     </row>
     <row r="264" spans="1:19">
@@ -18428,7 +18425,7 @@
         <v>1</v>
       </c>
       <c r="S264">
-        <v>0.002859833</v>
+        <v>0.003117042</v>
       </c>
     </row>
     <row r="265" spans="1:19">
@@ -18457,10 +18454,10 @@
         <v>1</v>
       </c>
       <c r="M265" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N265" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="O265">
         <v>4</v>
@@ -18475,7 +18472,7 @@
         <v>3</v>
       </c>
       <c r="S265">
-        <v>0.001309292</v>
+        <v>0.001408167</v>
       </c>
     </row>
     <row r="266" spans="1:19">
@@ -18504,16 +18501,16 @@
         <v>1</v>
       </c>
       <c r="M266" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N266" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O266" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="P266" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Q266">
         <v>1</v>
@@ -18522,7 +18519,7 @@
         <v>3</v>
       </c>
       <c r="S266">
-        <v>0.000425958</v>
+        <v>0.000453667</v>
       </c>
     </row>
     <row r="267" spans="1:19">
@@ -18551,16 +18548,16 @@
         <v>1</v>
       </c>
       <c r="M267" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="N267" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O267" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="P267" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="Q267">
         <v>1</v>
@@ -18569,7 +18566,7 @@
         <v>3</v>
       </c>
       <c r="S267">
-        <v>0.001186666</v>
+        <v>0.001334042</v>
       </c>
     </row>
     <row r="268" spans="1:19">
@@ -18610,16 +18607,16 @@
         <v>1</v>
       </c>
       <c r="M268" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="N268" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O268" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="P268" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Q268">
         <v>1</v>
@@ -18628,7 +18625,7 @@
         <v>3</v>
       </c>
       <c r="S268">
-        <v>0.003229375</v>
+        <v>0.003338083</v>
       </c>
     </row>
     <row r="269" spans="1:19">
@@ -18669,16 +18666,16 @@
         <v>1</v>
       </c>
       <c r="M269" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N269" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="O269" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P269" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="Q269">
         <v>1</v>
@@ -18687,7 +18684,7 @@
         <v>3</v>
       </c>
       <c r="S269">
-        <v>0.003364708</v>
+        <v>0.003430833</v>
       </c>
     </row>
     <row r="270" spans="1:19">
@@ -18734,7 +18731,7 @@
         <v>3</v>
       </c>
       <c r="S270">
-        <v>0.00279975</v>
+        <v>0.00287475</v>
       </c>
     </row>
     <row r="271" spans="1:19">
@@ -18775,16 +18772,16 @@
         <v>1</v>
       </c>
       <c r="M271" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N271" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="O271" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="P271" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="Q271">
         <v>1</v>
@@ -18793,7 +18790,7 @@
         <v>3</v>
       </c>
       <c r="S271">
-        <v>0.001962834</v>
+        <v>0.0020475</v>
       </c>
     </row>
     <row r="272" spans="1:19">
@@ -18834,16 +18831,16 @@
         <v>1</v>
       </c>
       <c r="M272" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="N272" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="O272" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="P272" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="Q272">
         <v>1</v>
@@ -18852,7 +18849,7 @@
         <v>3</v>
       </c>
       <c r="S272">
-        <v>0.002799791</v>
+        <v>0.002882125</v>
       </c>
     </row>
     <row r="273" spans="1:19">
@@ -18893,16 +18890,16 @@
         <v>1</v>
       </c>
       <c r="M273" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="N273" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="O273" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="P273" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="Q273">
         <v>1</v>
@@ -18911,7 +18908,7 @@
         <v>3</v>
       </c>
       <c r="S273">
-        <v>0.000835291</v>
+        <v>0.000871917</v>
       </c>
     </row>
     <row r="274" spans="1:19">
@@ -18952,16 +18949,16 @@
         <v>1</v>
       </c>
       <c r="M274" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N274" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O274" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="P274" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Q274">
         <v>1</v>
@@ -18970,7 +18967,7 @@
         <v>3</v>
       </c>
       <c r="S274">
-        <v>0.0028695</v>
+        <v>0.0030255</v>
       </c>
     </row>
     <row r="275" spans="1:19">
@@ -19011,16 +19008,16 @@
         <v>0</v>
       </c>
       <c r="M275" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="N275" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="O275" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="P275" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Q275">
         <v>0</v>
@@ -19029,7 +19026,7 @@
         <v>1</v>
       </c>
       <c r="S275">
-        <v>0.003177917</v>
+        <v>0.003414792</v>
       </c>
     </row>
     <row r="276" spans="1:19">
@@ -19058,16 +19055,16 @@
         <v>1</v>
       </c>
       <c r="M276" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N276" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="O276" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="P276" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="Q276">
         <v>1</v>
@@ -19076,7 +19073,7 @@
         <v>3</v>
       </c>
       <c r="S276">
-        <v>0.00055675</v>
+        <v>0.000621042</v>
       </c>
     </row>
     <row r="277" spans="1:19">
@@ -19105,16 +19102,16 @@
         <v>1</v>
       </c>
       <c r="M277" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="N277" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O277" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="P277" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="Q277">
         <v>1</v>
@@ -19123,7 +19120,7 @@
         <v>3</v>
       </c>
       <c r="S277">
-        <v>0.00131425</v>
+        <v>0.001392584</v>
       </c>
     </row>
     <row r="278" spans="1:19">
@@ -19152,16 +19149,16 @@
         <v>1</v>
       </c>
       <c r="M278" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="N278" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="O278" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P278" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="Q278">
         <v>1</v>
@@ -19170,7 +19167,7 @@
         <v>3</v>
       </c>
       <c r="S278">
-        <v>0.00184975</v>
+        <v>0.001916667</v>
       </c>
     </row>
     <row r="279" spans="1:19">
@@ -19199,16 +19196,16 @@
         <v>1</v>
       </c>
       <c r="M279" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="N279" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="O279" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="P279" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q279">
         <v>1</v>
@@ -19217,7 +19214,7 @@
         <v>3</v>
       </c>
       <c r="S279">
-        <v>0.001188042</v>
+        <v>0.001252875</v>
       </c>
     </row>
     <row r="280" spans="1:19">
@@ -19246,16 +19243,16 @@
         <v>1</v>
       </c>
       <c r="M280" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N280" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="O280" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="P280" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Q280">
         <v>1</v>
@@ -19264,7 +19261,7 @@
         <v>3</v>
       </c>
       <c r="S280">
-        <v>0.001855709</v>
+        <v>0.002103916</v>
       </c>
     </row>
     <row r="281" spans="1:19">
@@ -19305,16 +19302,16 @@
         <v>1</v>
       </c>
       <c r="M281" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="N281" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="O281" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="P281" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Q281">
         <v>1</v>
@@ -19323,7 +19320,7 @@
         <v>3</v>
       </c>
       <c r="S281">
-        <v>0.001756333</v>
+        <v>0.001872083</v>
       </c>
     </row>
     <row r="282" spans="1:19">
@@ -19352,16 +19349,16 @@
         <v>1</v>
       </c>
       <c r="M282" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N282" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="O282" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="P282" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="Q282">
         <v>1</v>
@@ -19370,7 +19367,7 @@
         <v>3</v>
       </c>
       <c r="S282">
-        <v>0.00151925</v>
+        <v>0.001555167</v>
       </c>
     </row>
     <row r="283" spans="1:19">
@@ -19417,7 +19414,7 @@
         <v>3</v>
       </c>
       <c r="S283">
-        <v>0.002393125</v>
+        <v>0.002526875</v>
       </c>
     </row>
     <row r="284" spans="1:19">
@@ -19464,7 +19461,7 @@
         <v>3</v>
       </c>
       <c r="S284">
-        <v>0.000285333</v>
+        <v>0.000285667</v>
       </c>
     </row>
     <row r="285" spans="1:19">
@@ -19505,16 +19502,16 @@
         <v>1</v>
       </c>
       <c r="M285" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N285" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="O285" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="P285" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="Q285">
         <v>1</v>
@@ -19523,7 +19520,7 @@
         <v>3</v>
       </c>
       <c r="S285">
-        <v>0.0031685</v>
+        <v>0.003301542</v>
       </c>
     </row>
     <row r="286" spans="1:19">
@@ -19570,7 +19567,7 @@
         <v>1</v>
       </c>
       <c r="S286">
-        <v>0.0013155</v>
+        <v>0.001383833</v>
       </c>
     </row>
     <row r="287" spans="1:19">
@@ -19617,7 +19614,7 @@
         <v>3</v>
       </c>
       <c r="S287">
-        <v>0.000724375</v>
+        <v>0.000725917</v>
       </c>
     </row>
     <row r="288" spans="1:19">
@@ -19658,10 +19655,10 @@
         <v>1</v>
       </c>
       <c r="M288" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O288" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="Q288">
         <v>0</v>
@@ -19670,7 +19667,7 @@
         <v>2</v>
       </c>
       <c r="S288">
-        <v>0.002353</v>
+        <v>0.00233225</v>
       </c>
     </row>
     <row r="289" spans="1:19">
@@ -19699,16 +19696,16 @@
         <v>1</v>
       </c>
       <c r="M289" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N289" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O289" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="P289" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="Q289">
         <v>1</v>
@@ -19717,7 +19714,7 @@
         <v>3</v>
       </c>
       <c r="S289">
-        <v>0.002093584</v>
+        <v>0.002154084</v>
       </c>
     </row>
     <row r="290" spans="1:19">
@@ -19746,16 +19743,16 @@
         <v>0</v>
       </c>
       <c r="M290" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="N290" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="O290" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="P290" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="Q290">
         <v>1</v>
@@ -19764,7 +19761,7 @@
         <v>1</v>
       </c>
       <c r="S290">
-        <v>0.001668208</v>
+        <v>0.001692375</v>
       </c>
     </row>
     <row r="291" spans="1:19">
@@ -19811,7 +19808,7 @@
         <v>3</v>
       </c>
       <c r="S291">
-        <v>0.00068725</v>
+        <v>0.000700583</v>
       </c>
     </row>
     <row r="292" spans="1:19">
@@ -19840,16 +19837,16 @@
         <v>1</v>
       </c>
       <c r="M292" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N292" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O292" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="P292" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="Q292">
         <v>1</v>
@@ -19858,7 +19855,7 @@
         <v>3</v>
       </c>
       <c r="S292">
-        <v>0.00158675</v>
+        <v>0.001610916</v>
       </c>
     </row>
     <row r="293" spans="1:19">
@@ -19905,7 +19902,7 @@
         <v>3</v>
       </c>
       <c r="S293">
-        <v>0.001765042</v>
+        <v>0.001799625</v>
       </c>
     </row>
     <row r="294" spans="1:19">
@@ -19946,16 +19943,16 @@
         <v>1</v>
       </c>
       <c r="M294" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="N294" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="O294" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P294" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="Q294">
         <v>1</v>
@@ -19964,7 +19961,7 @@
         <v>3</v>
       </c>
       <c r="S294">
-        <v>0.00257425</v>
+        <v>0.002668916</v>
       </c>
     </row>
     <row r="295" spans="1:19">
@@ -19993,16 +19990,16 @@
         <v>1</v>
       </c>
       <c r="M295" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N295" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="O295" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="P295" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="Q295">
         <v>1</v>
@@ -20011,7 +20008,7 @@
         <v>3</v>
       </c>
       <c r="S295">
-        <v>0.001836875</v>
+        <v>0.001930959</v>
       </c>
     </row>
     <row r="296" spans="1:19">
@@ -20040,16 +20037,16 @@
         <v>1</v>
       </c>
       <c r="M296" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N296" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="O296" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="P296" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="Q296">
         <v>1</v>
@@ -20058,7 +20055,7 @@
         <v>3</v>
       </c>
       <c r="S296">
-        <v>0.00216275</v>
+        <v>0.002308</v>
       </c>
     </row>
     <row r="297" spans="1:19">
@@ -20099,16 +20096,16 @@
         <v>1</v>
       </c>
       <c r="M297" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N297" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="O297" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P297" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="Q297">
         <v>1</v>
@@ -20117,7 +20114,7 @@
         <v>3</v>
       </c>
       <c r="S297">
-        <v>0.00305875</v>
+        <v>0.003332625</v>
       </c>
     </row>
     <row r="298" spans="1:19">
@@ -20158,16 +20155,16 @@
         <v>1</v>
       </c>
       <c r="M298" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="N298" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="O298" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="P298" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="Q298">
         <v>1</v>
@@ -20176,7 +20173,7 @@
         <v>3</v>
       </c>
       <c r="S298">
-        <v>0.002559708</v>
+        <v>0.002619292</v>
       </c>
     </row>
     <row r="299" spans="1:19">
@@ -20217,16 +20214,16 @@
         <v>1</v>
       </c>
       <c r="M299" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="N299" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="O299" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="P299" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="Q299">
         <v>1</v>
@@ -20235,7 +20232,7 @@
         <v>3</v>
       </c>
       <c r="S299">
-        <v>0.003283208</v>
+        <v>0.00354275</v>
       </c>
     </row>
     <row r="300" spans="1:19">
@@ -20282,7 +20279,7 @@
         <v>3</v>
       </c>
       <c r="S300">
-        <v>0.002223833</v>
+        <v>0.002543625</v>
       </c>
     </row>
     <row r="301" spans="1:19">
@@ -20323,16 +20320,16 @@
         <v>1</v>
       </c>
       <c r="M301" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N301" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O301" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="P301" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="Q301">
         <v>1</v>
@@ -20341,7 +20338,7 @@
         <v>3</v>
       </c>
       <c r="S301">
-        <v>0.0027055</v>
+        <v>0.003107</v>
       </c>
     </row>
     <row r="302" spans="1:19">
@@ -20370,16 +20367,16 @@
         <v>1</v>
       </c>
       <c r="M302" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N302" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="O302" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P302" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="Q302">
         <v>1</v>
@@ -20388,7 +20385,7 @@
         <v>3</v>
       </c>
       <c r="S302">
-        <v>0.001155292</v>
+        <v>0.001229209</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -20429,16 +20426,16 @@
         <v>1</v>
       </c>
       <c r="M303" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="N303" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O303" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="P303" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="Q303">
         <v>1</v>
@@ -20447,7 +20444,7 @@
         <v>3</v>
       </c>
       <c r="S303">
-        <v>0.003588416</v>
+        <v>0.00349075</v>
       </c>
     </row>
     <row r="304" spans="1:19">
@@ -20476,16 +20473,16 @@
         <v>1</v>
       </c>
       <c r="M304" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="N304" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="O304" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="P304" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="Q304">
         <v>1</v>
@@ -20494,7 +20491,7 @@
         <v>3</v>
       </c>
       <c r="S304">
-        <v>0.00129575</v>
+        <v>0.001327334</v>
       </c>
     </row>
     <row r="305" spans="1:19">
@@ -20553,7 +20550,7 @@
         <v>1</v>
       </c>
       <c r="S305">
-        <v>0.002174208</v>
+        <v>0.002188458</v>
       </c>
     </row>
     <row r="306" spans="1:19">
@@ -20600,7 +20597,7 @@
         <v>3</v>
       </c>
       <c r="S306">
-        <v>0.002361041</v>
+        <v>0.002603958</v>
       </c>
     </row>
     <row r="307" spans="1:19">
@@ -20625,29 +20622,29 @@
       <c r="G307">
         <v>1</v>
       </c>
+      <c r="I307" t="s">
+        <v>801</v>
+      </c>
+      <c r="K307" t="s">
+        <v>801</v>
+      </c>
       <c r="L307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M307" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N307" t="s">
-        <v>1028</v>
+        <v>801</v>
       </c>
       <c r="O307" t="s">
-        <v>1028</v>
-      </c>
-      <c r="P307" t="s">
-        <v>1028</v>
+        <v>801</v>
       </c>
       <c r="Q307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S307">
-        <v>0.001614167</v>
+        <v>0.001601667</v>
       </c>
     </row>
     <row r="308" spans="1:19">
@@ -20694,7 +20691,7 @@
         <v>3</v>
       </c>
       <c r="S308">
-        <v>0.001926</v>
+        <v>0.001854708</v>
       </c>
     </row>
     <row r="309" spans="1:19">
@@ -20747,7 +20744,7 @@
         <v>2</v>
       </c>
       <c r="S309">
-        <v>0.003445875</v>
+        <v>0.003351042</v>
       </c>
     </row>
     <row r="310" spans="1:19">
@@ -20794,7 +20791,7 @@
         <v>3</v>
       </c>
       <c r="S310">
-        <v>0.001415</v>
+        <v>0.001418709</v>
       </c>
     </row>
     <row r="311" spans="1:19">
@@ -20853,7 +20850,7 @@
         <v>3</v>
       </c>
       <c r="S311">
-        <v>0.00380725</v>
+        <v>0.004099</v>
       </c>
     </row>
     <row r="312" spans="1:19">
@@ -20900,7 +20897,7 @@
         <v>3</v>
       </c>
       <c r="S312">
-        <v>0.002801292</v>
+        <v>0.00295625</v>
       </c>
     </row>
     <row r="313" spans="1:19">
@@ -20947,7 +20944,7 @@
         <v>3</v>
       </c>
       <c r="S313">
-        <v>0.002263625</v>
+        <v>0.002289458</v>
       </c>
     </row>
     <row r="314" spans="1:19">
@@ -21006,7 +21003,7 @@
         <v>3</v>
       </c>
       <c r="S314">
-        <v>0.003815333</v>
+        <v>0.003912791</v>
       </c>
     </row>
     <row r="315" spans="1:19">
@@ -21053,7 +21050,7 @@
         <v>3</v>
       </c>
       <c r="S315">
-        <v>0.001977833</v>
+        <v>0.002094917</v>
       </c>
     </row>
     <row r="316" spans="1:19">
@@ -21100,7 +21097,7 @@
         <v>3</v>
       </c>
       <c r="S316">
-        <v>0.0009987500000000001</v>
+        <v>0.001044917</v>
       </c>
     </row>
     <row r="317" spans="1:19">
@@ -21147,7 +21144,7 @@
         <v>3</v>
       </c>
       <c r="S317">
-        <v>0.000900417</v>
+        <v>0.0009816250000000001</v>
       </c>
     </row>
     <row r="318" spans="1:19">
@@ -21194,7 +21191,7 @@
         <v>3</v>
       </c>
       <c r="S318">
-        <v>0.001396583</v>
+        <v>0.001456084</v>
       </c>
     </row>
     <row r="319" spans="1:19">
@@ -21241,7 +21238,7 @@
         <v>3</v>
       </c>
       <c r="S319">
-        <v>0.003171917</v>
+        <v>0.003212833</v>
       </c>
     </row>
     <row r="320" spans="1:19">
@@ -21300,7 +21297,7 @@
         <v>3</v>
       </c>
       <c r="S320">
-        <v>0.002140083</v>
+        <v>0.0022315</v>
       </c>
     </row>
     <row r="321" spans="1:19">
@@ -21347,7 +21344,7 @@
         <v>3</v>
       </c>
       <c r="S321">
-        <v>0.003470042</v>
+        <v>0.003783334</v>
       </c>
     </row>
     <row r="322" spans="1:19">
@@ -21406,7 +21403,7 @@
         <v>3</v>
       </c>
       <c r="S322">
-        <v>0.0007445</v>
+        <v>0.000802917</v>
       </c>
     </row>
     <row r="323" spans="1:19">
@@ -21453,7 +21450,7 @@
         <v>3</v>
       </c>
       <c r="S323">
-        <v>0.001066542</v>
+        <v>0.001013875</v>
       </c>
     </row>
     <row r="324" spans="1:19">
@@ -21500,7 +21497,7 @@
         <v>3</v>
       </c>
       <c r="S324">
-        <v>0.00121675</v>
+        <v>0.001245042</v>
       </c>
     </row>
     <row r="325" spans="1:19">
@@ -21547,7 +21544,7 @@
         <v>3</v>
       </c>
       <c r="S325">
-        <v>0.00239775</v>
+        <v>0.00237175</v>
       </c>
     </row>
     <row r="326" spans="1:19">
@@ -21606,7 +21603,7 @@
         <v>3</v>
       </c>
       <c r="S326">
-        <v>0.001764333</v>
+        <v>0.001914625</v>
       </c>
     </row>
     <row r="327" spans="1:19">
@@ -21653,7 +21650,7 @@
         <v>3</v>
       </c>
       <c r="S327">
-        <v>0.001862875</v>
+        <v>0.001895833</v>
       </c>
     </row>
     <row r="328" spans="1:19">
@@ -21712,7 +21709,7 @@
         <v>3</v>
       </c>
       <c r="S328">
-        <v>0.003100167</v>
+        <v>0.003159875</v>
       </c>
     </row>
     <row r="329" spans="1:19">
@@ -21759,7 +21756,7 @@
         <v>3</v>
       </c>
       <c r="S329">
-        <v>0.000508833</v>
+        <v>0.00051575</v>
       </c>
     </row>
     <row r="330" spans="1:19">
@@ -21806,7 +21803,7 @@
         <v>3</v>
       </c>
       <c r="S330">
-        <v>0.0019155</v>
+        <v>0.001885333</v>
       </c>
     </row>
     <row r="331" spans="1:19">
@@ -21865,7 +21862,7 @@
         <v>3</v>
       </c>
       <c r="S331">
-        <v>0.001998875</v>
+        <v>0.002019917</v>
       </c>
     </row>
     <row r="332" spans="1:19">
@@ -21924,7 +21921,7 @@
         <v>3</v>
       </c>
       <c r="S332">
-        <v>0.002532083</v>
+        <v>0.00259825</v>
       </c>
     </row>
     <row r="333" spans="1:19">
@@ -21983,7 +21980,7 @@
         <v>3</v>
       </c>
       <c r="S333">
-        <v>0.001473166</v>
+        <v>0.0014515</v>
       </c>
     </row>
     <row r="334" spans="1:19">
@@ -22030,7 +22027,7 @@
         <v>3</v>
       </c>
       <c r="S334">
-        <v>0.001828875</v>
+        <v>0.001929292</v>
       </c>
     </row>
     <row r="335" spans="1:19">
@@ -22077,7 +22074,7 @@
         <v>3</v>
       </c>
       <c r="S335">
-        <v>0.001969167</v>
+        <v>0.002197417</v>
       </c>
     </row>
     <row r="336" spans="1:19">
@@ -22124,7 +22121,7 @@
         <v>3</v>
       </c>
       <c r="S336">
-        <v>0.002073041</v>
+        <v>0.002149833</v>
       </c>
     </row>
     <row r="337" spans="1:19">
@@ -22183,7 +22180,7 @@
         <v>3</v>
       </c>
       <c r="S337">
-        <v>0.001834208</v>
+        <v>0.002006208</v>
       </c>
     </row>
     <row r="338" spans="1:19">
@@ -22242,7 +22239,7 @@
         <v>3</v>
       </c>
       <c r="S338">
-        <v>0.002730292</v>
+        <v>0.002960125</v>
       </c>
     </row>
     <row r="339" spans="1:19">
@@ -22289,7 +22286,7 @@
         <v>3</v>
       </c>
       <c r="S339">
-        <v>0.002614333</v>
+        <v>0.002793834</v>
       </c>
     </row>
     <row r="340" spans="1:19">
@@ -22336,7 +22333,7 @@
         <v>3</v>
       </c>
       <c r="S340">
-        <v>0.001688333</v>
+        <v>0.001782625</v>
       </c>
     </row>
     <row r="341" spans="1:19">
@@ -22395,7 +22392,7 @@
         <v>3</v>
       </c>
       <c r="S341">
-        <v>0.002632875</v>
+        <v>0.002745334</v>
       </c>
     </row>
     <row r="342" spans="1:19">
@@ -22448,7 +22445,7 @@
         <v>2</v>
       </c>
       <c r="S342">
-        <v>0.002473875</v>
+        <v>0.002580209</v>
       </c>
     </row>
     <row r="343" spans="1:19">
@@ -22495,7 +22492,7 @@
         <v>3</v>
       </c>
       <c r="S343">
-        <v>0.001873333</v>
+        <v>0.001883292</v>
       </c>
     </row>
     <row r="344" spans="1:19">
@@ -22542,7 +22539,7 @@
         <v>3</v>
       </c>
       <c r="S344">
-        <v>0.001708083</v>
+        <v>0.00174275</v>
       </c>
     </row>
     <row r="345" spans="1:19">
@@ -22589,7 +22586,7 @@
         <v>3</v>
       </c>
       <c r="S345">
-        <v>0.001641334</v>
+        <v>0.001573042</v>
       </c>
     </row>
     <row r="346" spans="1:19">
@@ -22636,7 +22633,7 @@
         <v>3</v>
       </c>
       <c r="S346">
-        <v>0.002562416</v>
+        <v>0.00234025</v>
       </c>
     </row>
     <row r="347" spans="1:19">
@@ -22695,7 +22692,7 @@
         <v>3</v>
       </c>
       <c r="S347">
-        <v>0.003861875</v>
+        <v>0.003822292</v>
       </c>
     </row>
     <row r="348" spans="1:19">
@@ -22742,7 +22739,7 @@
         <v>3</v>
       </c>
       <c r="S348">
-        <v>0.002021791</v>
+        <v>0.002123125</v>
       </c>
     </row>
     <row r="349" spans="1:19">
@@ -22801,7 +22798,7 @@
         <v>3</v>
       </c>
       <c r="S349">
-        <v>0.000878584</v>
+        <v>0.000946833</v>
       </c>
     </row>
     <row r="350" spans="1:19">
@@ -22860,7 +22857,7 @@
         <v>3</v>
       </c>
       <c r="S350">
-        <v>0.001316667</v>
+        <v>0.001332708</v>
       </c>
     </row>
     <row r="351" spans="1:19">
@@ -22919,7 +22916,7 @@
         <v>3</v>
       </c>
       <c r="S351">
-        <v>0.003856875</v>
+        <v>0.003887792</v>
       </c>
     </row>
     <row r="352" spans="1:19">
@@ -22966,7 +22963,7 @@
         <v>3</v>
       </c>
       <c r="S352">
-        <v>0.000593459</v>
+        <v>0.000571167</v>
       </c>
     </row>
     <row r="353" spans="1:19">
@@ -23025,7 +23022,7 @@
         <v>3</v>
       </c>
       <c r="S353">
-        <v>0.00162275</v>
+        <v>0.001712542</v>
       </c>
     </row>
     <row r="354" spans="1:19">
@@ -23072,7 +23069,7 @@
         <v>3</v>
       </c>
       <c r="S354">
-        <v>0.002859334</v>
+        <v>0.003206125</v>
       </c>
     </row>
     <row r="355" spans="1:19">
@@ -23116,13 +23113,13 @@
         <v>1068</v>
       </c>
       <c r="N355" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O355" t="s">
         <v>1068</v>
       </c>
       <c r="P355" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Q355">
         <v>0</v>
@@ -23131,7 +23128,7 @@
         <v>2</v>
       </c>
       <c r="S355">
-        <v>0.002077208</v>
+        <v>0.002183084</v>
       </c>
     </row>
     <row r="356" spans="1:19">
@@ -23190,7 +23187,7 @@
         <v>3</v>
       </c>
       <c r="S356">
-        <v>0.002028125</v>
+        <v>0.0021205</v>
       </c>
     </row>
     <row r="357" spans="1:19">
@@ -23219,16 +23216,16 @@
         <v>1</v>
       </c>
       <c r="M357" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N357" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O357" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="P357" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Q357">
         <v>1</v>
@@ -23237,7 +23234,7 @@
         <v>3</v>
       </c>
       <c r="S357">
-        <v>0.002788625</v>
+        <v>0.002946333</v>
       </c>
     </row>
     <row r="358" spans="1:19">
@@ -23296,7 +23293,7 @@
         <v>3</v>
       </c>
       <c r="S358">
-        <v>0.001950042</v>
+        <v>0.002037625</v>
       </c>
     </row>
     <row r="359" spans="1:19">
@@ -23355,7 +23352,7 @@
         <v>3</v>
       </c>
       <c r="S359">
-        <v>0.002320416</v>
+        <v>0.002381958</v>
       </c>
     </row>
     <row r="360" spans="1:19">
@@ -23414,7 +23411,7 @@
         <v>3</v>
       </c>
       <c r="S360">
-        <v>0.002176166</v>
+        <v>0.002314542</v>
       </c>
     </row>
     <row r="361" spans="1:19">
@@ -23461,7 +23458,7 @@
         <v>3</v>
       </c>
       <c r="S361">
-        <v>0.000845917</v>
+        <v>0.0009291669999999999</v>
       </c>
     </row>
     <row r="362" spans="1:19">
@@ -23508,7 +23505,7 @@
         <v>3</v>
       </c>
       <c r="S362">
-        <v>0.001848834</v>
+        <v>0.001964125</v>
       </c>
     </row>
     <row r="363" spans="1:19">
@@ -23567,7 +23564,7 @@
         <v>3</v>
       </c>
       <c r="S363">
-        <v>0.001709167</v>
+        <v>0.001767542</v>
       </c>
     </row>
     <row r="364" spans="1:19">
@@ -23620,7 +23617,7 @@
         <v>2</v>
       </c>
       <c r="S364">
-        <v>0.003031959</v>
+        <v>0.003211333</v>
       </c>
     </row>
     <row r="365" spans="1:19">
@@ -23667,7 +23664,7 @@
         <v>3</v>
       </c>
       <c r="S365">
-        <v>0.001934958</v>
+        <v>0.002011458</v>
       </c>
     </row>
     <row r="366" spans="1:19">
@@ -23714,7 +23711,7 @@
         <v>3</v>
       </c>
       <c r="S366">
-        <v>0.002709167</v>
+        <v>0.002785375</v>
       </c>
     </row>
     <row r="367" spans="1:19">
@@ -23767,7 +23764,7 @@
         <v>2</v>
       </c>
       <c r="S367">
-        <v>0.002808083</v>
+        <v>0.002881875</v>
       </c>
     </row>
     <row r="368" spans="1:19">
@@ -23826,7 +23823,7 @@
         <v>3</v>
       </c>
       <c r="S368">
-        <v>0.00235175</v>
+        <v>0.002451625</v>
       </c>
     </row>
     <row r="369" spans="1:19">
@@ -23867,16 +23864,16 @@
         <v>1</v>
       </c>
       <c r="M369" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N369" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="O369" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="P369" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Q369">
         <v>1</v>
@@ -23885,7 +23882,7 @@
         <v>3</v>
       </c>
       <c r="S369">
-        <v>0.003099042</v>
+        <v>0.003127791</v>
       </c>
     </row>
     <row r="370" spans="1:19">
@@ -23932,7 +23929,7 @@
         <v>3</v>
       </c>
       <c r="S370">
-        <v>0.001822042</v>
+        <v>0.00189925</v>
       </c>
     </row>
     <row r="371" spans="1:19">
@@ -23979,7 +23976,7 @@
         <v>3</v>
       </c>
       <c r="S371">
-        <v>0.001527625</v>
+        <v>0.001604125</v>
       </c>
     </row>
     <row r="372" spans="1:19">
@@ -24038,7 +24035,7 @@
         <v>3</v>
       </c>
       <c r="S372">
-        <v>0.000410417</v>
+        <v>0.00044775</v>
       </c>
     </row>
     <row r="373" spans="1:19">
@@ -24079,16 +24076,16 @@
         <v>1</v>
       </c>
       <c r="M373" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="N373" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="O373" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="P373" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="Q373">
         <v>1</v>
@@ -24097,7 +24094,7 @@
         <v>3</v>
       </c>
       <c r="S373">
-        <v>0.002667792</v>
+        <v>0.002738875</v>
       </c>
     </row>
     <row r="374" spans="1:19">
@@ -24156,7 +24153,7 @@
         <v>3</v>
       </c>
       <c r="S374">
-        <v>0.0027275</v>
+        <v>0.002786583</v>
       </c>
     </row>
     <row r="375" spans="1:19">
@@ -24215,7 +24212,7 @@
         <v>3</v>
       </c>
       <c r="S375">
-        <v>0.002599584</v>
+        <v>0.002794833</v>
       </c>
     </row>
     <row r="376" spans="1:19">
@@ -24262,7 +24259,7 @@
         <v>3</v>
       </c>
       <c r="S376">
-        <v>0.002685875</v>
+        <v>0.002927459</v>
       </c>
     </row>
     <row r="377" spans="1:19">
@@ -24309,7 +24306,7 @@
         <v>3</v>
       </c>
       <c r="S377">
-        <v>0.002608416</v>
+        <v>0.002903166</v>
       </c>
     </row>
     <row r="378" spans="1:19">
@@ -24356,7 +24353,7 @@
         <v>3</v>
       </c>
       <c r="S378">
-        <v>0.002319334</v>
+        <v>0.002464709</v>
       </c>
     </row>
     <row r="379" spans="1:19">
@@ -24403,7 +24400,7 @@
         <v>3</v>
       </c>
       <c r="S379">
-        <v>0.001252041</v>
+        <v>0.001304333</v>
       </c>
     </row>
     <row r="380" spans="1:19">
@@ -24462,7 +24459,7 @@
         <v>3</v>
       </c>
       <c r="S380">
-        <v>0.0020025</v>
+        <v>0.002076</v>
       </c>
     </row>
     <row r="381" spans="1:19">
@@ -24521,7 +24518,7 @@
         <v>3</v>
       </c>
       <c r="S381">
-        <v>0.00312325</v>
+        <v>0.003378875</v>
       </c>
     </row>
     <row r="382" spans="1:19">
@@ -24568,7 +24565,7 @@
         <v>3</v>
       </c>
       <c r="S382">
-        <v>0.001937292</v>
+        <v>0.002107791</v>
       </c>
     </row>
     <row r="383" spans="1:19">
@@ -24627,7 +24624,7 @@
         <v>3</v>
       </c>
       <c r="S383">
-        <v>0.001159459</v>
+        <v>0.001211833</v>
       </c>
     </row>
     <row r="384" spans="1:19">
@@ -24686,7 +24683,7 @@
         <v>3</v>
       </c>
       <c r="S384">
-        <v>0.001038666</v>
+        <v>0.001062333</v>
       </c>
     </row>
     <row r="385" spans="1:19">
@@ -24733,7 +24730,7 @@
         <v>3</v>
       </c>
       <c r="S385">
-        <v>0.00288</v>
+        <v>0.003175334</v>
       </c>
     </row>
     <row r="386" spans="1:19">
@@ -24792,7 +24789,7 @@
         <v>3</v>
       </c>
       <c r="S386">
-        <v>0.001989458</v>
+        <v>0.002133333</v>
       </c>
     </row>
     <row r="387" spans="1:19">
@@ -24839,7 +24836,7 @@
         <v>3</v>
       </c>
       <c r="S387">
-        <v>0.001547</v>
+        <v>0.001699917</v>
       </c>
     </row>
     <row r="388" spans="1:19">
@@ -24898,7 +24895,7 @@
         <v>3</v>
       </c>
       <c r="S388">
-        <v>0.004111625</v>
+        <v>0.004555834</v>
       </c>
     </row>
     <row r="389" spans="1:19">
@@ -24957,7 +24954,7 @@
         <v>3</v>
       </c>
       <c r="S389">
-        <v>0.0025355</v>
+        <v>0.002751542</v>
       </c>
     </row>
     <row r="390" spans="1:19">
@@ -25016,7 +25013,7 @@
         <v>3</v>
       </c>
       <c r="S390">
-        <v>0.00239925</v>
+        <v>0.002504125</v>
       </c>
     </row>
     <row r="391" spans="1:19">
@@ -25075,7 +25072,7 @@
         <v>3</v>
       </c>
       <c r="S391">
-        <v>0.002623917</v>
+        <v>0.002846417</v>
       </c>
     </row>
     <row r="392" spans="1:19">
@@ -25134,7 +25131,7 @@
         <v>3</v>
       </c>
       <c r="S392">
-        <v>0.0024285</v>
+        <v>0.00259925</v>
       </c>
     </row>
     <row r="393" spans="1:19">
@@ -25193,7 +25190,7 @@
         <v>3</v>
       </c>
       <c r="S393">
-        <v>0.003078625</v>
+        <v>0.003335625</v>
       </c>
     </row>
     <row r="394" spans="1:19">
@@ -25252,7 +25249,7 @@
         <v>3</v>
       </c>
       <c r="S394">
-        <v>0.002178333</v>
+        <v>0.00229375</v>
       </c>
     </row>
     <row r="395" spans="1:19">
@@ -25299,7 +25296,7 @@
         <v>3</v>
       </c>
       <c r="S395">
-        <v>0.00133975</v>
+        <v>0.001521791</v>
       </c>
     </row>
     <row r="396" spans="1:19">
@@ -25358,7 +25355,7 @@
         <v>3</v>
       </c>
       <c r="S396">
-        <v>0.0005452500000000001</v>
+        <v>0.000667083</v>
       </c>
     </row>
     <row r="397" spans="1:19">
@@ -25405,7 +25402,7 @@
         <v>3</v>
       </c>
       <c r="S397">
-        <v>0.001819</v>
+        <v>0.001927083</v>
       </c>
     </row>
     <row r="398" spans="1:19">
@@ -25452,7 +25449,7 @@
         <v>3</v>
       </c>
       <c r="S398">
-        <v>0.001501333</v>
+        <v>0.001556334</v>
       </c>
     </row>
     <row r="399" spans="1:19">
@@ -25511,7 +25508,7 @@
         <v>3</v>
       </c>
       <c r="S399">
-        <v>0.002542041</v>
+        <v>0.002615</v>
       </c>
     </row>
     <row r="400" spans="1:19">
@@ -25558,7 +25555,7 @@
         <v>3</v>
       </c>
       <c r="S400">
-        <v>0.001908</v>
+        <v>0.001997792</v>
       </c>
     </row>
     <row r="401" spans="1:19">
@@ -25617,7 +25614,7 @@
         <v>3</v>
       </c>
       <c r="S401">
-        <v>0.001934667</v>
+        <v>0.002070292</v>
       </c>
     </row>
     <row r="402" spans="1:19">
@@ -25664,7 +25661,7 @@
         <v>3</v>
       </c>
       <c r="S402">
-        <v>0.002052875</v>
+        <v>0.002198875</v>
       </c>
     </row>
     <row r="403" spans="1:19">
@@ -25711,7 +25708,7 @@
         <v>3</v>
       </c>
       <c r="S403">
-        <v>0.001125875</v>
+        <v>0.001158</v>
       </c>
     </row>
     <row r="404" spans="1:19">
@@ -25758,7 +25755,7 @@
         <v>3</v>
       </c>
       <c r="S404">
-        <v>0.003036458</v>
+        <v>0.003227459</v>
       </c>
     </row>
     <row r="405" spans="1:19">
@@ -25805,7 +25802,7 @@
         <v>3</v>
       </c>
       <c r="S405">
-        <v>0.001877458</v>
+        <v>0.002012</v>
       </c>
     </row>
     <row r="406" spans="1:19">
@@ -25864,7 +25861,7 @@
         <v>3</v>
       </c>
       <c r="S406">
-        <v>0.003888542</v>
+        <v>0.004220459</v>
       </c>
     </row>
     <row r="407" spans="1:19">
@@ -25911,7 +25908,7 @@
         <v>3</v>
       </c>
       <c r="S407">
-        <v>0.002256292</v>
+        <v>0.002552084</v>
       </c>
     </row>
     <row r="408" spans="1:19">
@@ -25955,13 +25952,13 @@
         <v>1107</v>
       </c>
       <c r="N408" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="O408" t="s">
         <v>1107</v>
       </c>
       <c r="P408" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Q408">
         <v>0</v>
@@ -25970,7 +25967,7 @@
         <v>2</v>
       </c>
       <c r="S408">
-        <v>0.003792</v>
+        <v>0.004211458</v>
       </c>
     </row>
     <row r="409" spans="1:19">
@@ -26017,7 +26014,7 @@
         <v>1</v>
       </c>
       <c r="S409">
-        <v>0.000339708</v>
+        <v>0.000341958</v>
       </c>
     </row>
     <row r="410" spans="1:19">
@@ -26064,7 +26061,7 @@
         <v>3</v>
       </c>
       <c r="S410">
-        <v>0.002101958</v>
+        <v>0.002184666</v>
       </c>
     </row>
     <row r="411" spans="1:19">
@@ -26123,7 +26120,7 @@
         <v>3</v>
       </c>
       <c r="S411">
-        <v>0.002880042</v>
+        <v>0.003090666</v>
       </c>
     </row>
     <row r="412" spans="1:19">
@@ -26182,7 +26179,7 @@
         <v>3</v>
       </c>
       <c r="S412">
-        <v>0.001968292</v>
+        <v>0.00211425</v>
       </c>
     </row>
     <row r="413" spans="1:19">
@@ -26229,7 +26226,7 @@
         <v>3</v>
       </c>
       <c r="S413">
-        <v>0.002661958</v>
+        <v>0.00293775</v>
       </c>
     </row>
     <row r="414" spans="1:19">
@@ -26288,7 +26285,7 @@
         <v>3</v>
       </c>
       <c r="S414">
-        <v>0.001554958</v>
+        <v>0.001723917</v>
       </c>
     </row>
     <row r="415" spans="1:19">
@@ -26347,7 +26344,7 @@
         <v>3</v>
       </c>
       <c r="S415">
-        <v>0.002798416</v>
+        <v>0.003128667</v>
       </c>
     </row>
     <row r="416" spans="1:19">
@@ -26406,7 +26403,7 @@
         <v>3</v>
       </c>
       <c r="S416">
-        <v>0.001604709</v>
+        <v>0.001758583</v>
       </c>
     </row>
     <row r="417" spans="1:19">
@@ -26453,7 +26450,7 @@
         <v>3</v>
       </c>
       <c r="S417">
-        <v>0.00033875</v>
+        <v>0.000307041</v>
       </c>
     </row>
     <row r="418" spans="1:19">
@@ -26500,7 +26497,7 @@
         <v>3</v>
       </c>
       <c r="S418">
-        <v>0.000814083</v>
+        <v>0.000854583</v>
       </c>
     </row>
     <row r="419" spans="1:19">
@@ -26541,16 +26538,16 @@
         <v>1</v>
       </c>
       <c r="M419" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="N419" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="O419" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="P419" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q419">
         <v>1</v>
@@ -26559,7 +26556,7 @@
         <v>3</v>
       </c>
       <c r="S419">
-        <v>0.001286666</v>
+        <v>0.001338875</v>
       </c>
     </row>
     <row r="420" spans="1:19">
@@ -26606,7 +26603,7 @@
         <v>3</v>
       </c>
       <c r="S420">
-        <v>0.001077917</v>
+        <v>0.00106925</v>
       </c>
     </row>
     <row r="421" spans="1:19">
@@ -26665,7 +26662,7 @@
         <v>3</v>
       </c>
       <c r="S421">
-        <v>0.001662</v>
+        <v>0.001643916</v>
       </c>
     </row>
     <row r="422" spans="1:19">
@@ -26724,7 +26721,7 @@
         <v>3</v>
       </c>
       <c r="S422">
-        <v>0.002270167</v>
+        <v>0.002286458</v>
       </c>
     </row>
     <row r="423" spans="1:19">
@@ -26771,7 +26768,7 @@
         <v>3</v>
       </c>
       <c r="S423">
-        <v>0.002727625</v>
+        <v>0.002862709</v>
       </c>
     </row>
     <row r="424" spans="1:19">
@@ -26830,7 +26827,7 @@
         <v>3</v>
       </c>
       <c r="S424">
-        <v>0.002088667</v>
+        <v>0.00224625</v>
       </c>
     </row>
     <row r="425" spans="1:19">
@@ -26889,7 +26886,7 @@
         <v>3</v>
       </c>
       <c r="S425">
-        <v>0.001861834</v>
+        <v>0.001914541</v>
       </c>
     </row>
     <row r="426" spans="1:19">
@@ -26948,7 +26945,7 @@
         <v>3</v>
       </c>
       <c r="S426">
-        <v>0.002949041</v>
+        <v>0.003005834</v>
       </c>
     </row>
     <row r="427" spans="1:19">
@@ -27007,7 +27004,7 @@
         <v>3</v>
       </c>
       <c r="S427">
-        <v>0.001587542</v>
+        <v>0.001670666</v>
       </c>
     </row>
     <row r="428" spans="1:19">
@@ -27060,7 +27057,7 @@
         <v>2</v>
       </c>
       <c r="S428">
-        <v>0.002113625</v>
+        <v>0.002229333</v>
       </c>
     </row>
     <row r="429" spans="1:19">
@@ -27107,7 +27104,7 @@
         <v>3</v>
       </c>
       <c r="S429">
-        <v>0.002007459</v>
+        <v>0.002251958</v>
       </c>
     </row>
     <row r="430" spans="1:19">
@@ -27166,7 +27163,7 @@
         <v>3</v>
       </c>
       <c r="S430">
-        <v>0.003807333</v>
+        <v>0.003863708</v>
       </c>
     </row>
     <row r="431" spans="1:19">
@@ -27225,7 +27222,7 @@
         <v>3</v>
       </c>
       <c r="S431">
-        <v>0.002320583</v>
+        <v>0.002262416</v>
       </c>
     </row>
     <row r="432" spans="1:19">
@@ -27284,7 +27281,7 @@
         <v>3</v>
       </c>
       <c r="S432">
-        <v>0.002575167</v>
+        <v>0.002544417</v>
       </c>
     </row>
     <row r="433" spans="1:19">
@@ -27316,10 +27313,10 @@
         <v>693</v>
       </c>
       <c r="J433" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K433" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L433">
         <v>1</v>
@@ -27331,7 +27328,7 @@
         <v>3</v>
       </c>
       <c r="S433">
-        <v>0.001276417</v>
+        <v>0.001440917</v>
       </c>
     </row>
     <row r="434" spans="1:19">
@@ -27378,7 +27375,7 @@
         <v>3</v>
       </c>
       <c r="S434">
-        <v>0.003047125</v>
+        <v>0.003413583</v>
       </c>
     </row>
     <row r="435" spans="1:19">
@@ -27425,7 +27422,7 @@
         <v>3</v>
       </c>
       <c r="S435">
-        <v>0.001748667</v>
+        <v>0.00187825</v>
       </c>
     </row>
     <row r="436" spans="1:19">
@@ -27454,16 +27451,16 @@
         <v>1</v>
       </c>
       <c r="M436" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="N436" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="O436" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P436" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Q436">
         <v>1</v>
@@ -27472,7 +27469,7 @@
         <v>3</v>
       </c>
       <c r="S436">
-        <v>0.002884375</v>
+        <v>0.003217792</v>
       </c>
     </row>
     <row r="437" spans="1:19">
@@ -27519,7 +27516,7 @@
         <v>3</v>
       </c>
       <c r="S437">
-        <v>0.000616667</v>
+        <v>0.000690625</v>
       </c>
     </row>
     <row r="438" spans="1:19">
@@ -27566,7 +27563,7 @@
         <v>3</v>
       </c>
       <c r="S438">
-        <v>0.001344708</v>
+        <v>0.001459708</v>
       </c>
     </row>
     <row r="439" spans="1:19">
@@ -27613,7 +27610,7 @@
         <v>3</v>
       </c>
       <c r="S439">
-        <v>0.003372333</v>
+        <v>0.0035615</v>
       </c>
     </row>
     <row r="440" spans="1:19">
@@ -27672,7 +27669,7 @@
         <v>3</v>
       </c>
       <c r="S440">
-        <v>0.004284416</v>
+        <v>0.004638833</v>
       </c>
     </row>
     <row r="441" spans="1:19">
@@ -27731,7 +27728,7 @@
         <v>3</v>
       </c>
       <c r="S441">
-        <v>0.002098916</v>
+        <v>0.002212375</v>
       </c>
     </row>
     <row r="442" spans="1:19">
@@ -27790,7 +27787,7 @@
         <v>3</v>
       </c>
       <c r="S442">
-        <v>0.001292834</v>
+        <v>0.001372208</v>
       </c>
     </row>
     <row r="443" spans="1:19">
@@ -27837,7 +27834,7 @@
         <v>3</v>
       </c>
       <c r="S443">
-        <v>0.00045425</v>
+        <v>0.000464084</v>
       </c>
     </row>
     <row r="444" spans="1:19">
@@ -27896,7 +27893,7 @@
         <v>3</v>
       </c>
       <c r="S444">
-        <v>0.003221084</v>
+        <v>0.003445084</v>
       </c>
     </row>
     <row r="445" spans="1:19">
@@ -27955,7 +27952,7 @@
         <v>3</v>
       </c>
       <c r="S445">
-        <v>0.003017416</v>
+        <v>0.002905833</v>
       </c>
     </row>
     <row r="446" spans="1:19">
@@ -28014,7 +28011,7 @@
         <v>2</v>
       </c>
       <c r="S446">
-        <v>0.00347925</v>
+        <v>0.003371459</v>
       </c>
     </row>
     <row r="447" spans="1:19">
@@ -28061,7 +28058,7 @@
         <v>3</v>
       </c>
       <c r="S447">
-        <v>0.001856666</v>
+        <v>0.00195725</v>
       </c>
     </row>
     <row r="448" spans="1:19">
@@ -28090,16 +28087,16 @@
         <v>1</v>
       </c>
       <c r="M448" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N448" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="O448" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P448" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Q448">
         <v>1</v>
@@ -28108,7 +28105,7 @@
         <v>3</v>
       </c>
       <c r="S448">
-        <v>0.001972917</v>
+        <v>0.002453084</v>
       </c>
     </row>
     <row r="449" spans="1:19">
@@ -28155,7 +28152,7 @@
         <v>3</v>
       </c>
       <c r="S449">
-        <v>0.00159675</v>
+        <v>0.001705458</v>
       </c>
     </row>
     <row r="450" spans="1:19">
@@ -28214,7 +28211,7 @@
         <v>3</v>
       </c>
       <c r="S450">
-        <v>0.002044583</v>
+        <v>0.002369</v>
       </c>
     </row>
     <row r="451" spans="1:19">
@@ -28261,10 +28258,10 @@
         <v>1137</v>
       </c>
       <c r="O451" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="P451" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Q451">
         <v>1</v>
@@ -28273,7 +28270,7 @@
         <v>3</v>
       </c>
       <c r="S451">
-        <v>0.002780375</v>
+        <v>0.003088833</v>
       </c>
     </row>
   </sheetData>

--- a/CTG.xlsx
+++ b/CTG.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5112" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5111" uniqueCount="1161">
   <si>
     <t>correct</t>
   </si>
@@ -3880,16 +3880,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="B2">
         <v>1350</v>
       </c>
       <c r="C2">
-        <v>9.609999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="D2">
-        <v>0.0051</v>
+        <v>0.006</v>
       </c>
       <c r="E2">
         <v>0.0025</v>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="S2">
-        <v>0.005091083</v>
+        <v>0.0051434</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0.003417</v>
+        <v>0.0020446</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0021175</v>
+        <v>0.0017559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>0.00382175</v>
+        <v>0.0038691</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4241,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <v>0.00157625</v>
+        <v>0.0016401</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>0.002891</v>
+        <v>0.0032745</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4359,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="S8">
-        <v>0.003083375</v>
+        <v>0.0030271</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4418,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="S9">
-        <v>0.003424458</v>
+        <v>0.0032839</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4477,7 +4477,7 @@
         <v>3</v>
       </c>
       <c r="S10">
-        <v>0.003059792</v>
+        <v>0.003537</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4536,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="S11">
-        <v>0.00249525</v>
+        <v>0.0020904</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4583,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="S12">
-        <v>0.003095292</v>
+        <v>0.0036075</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4642,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="S13">
-        <v>0.00314025</v>
+        <v>0.0034863</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4701,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="S14">
-        <v>0.000922875</v>
+        <v>0.0011721</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="S15">
-        <v>0.003251833</v>
+        <v>0.0037982</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4819,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="S16">
-        <v>0.002056667</v>
+        <v>0.0020633</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4878,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="S17">
-        <v>0.00361775</v>
+        <v>0.0036543</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4937,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="S18">
-        <v>0.003017708</v>
+        <v>0.0028228</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4996,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>0.003412083</v>
+        <v>0.0032452</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5055,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="S20">
-        <v>0.003472916</v>
+        <v>0.0041981</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -5114,7 +5114,7 @@
         <v>3</v>
       </c>
       <c r="S21">
-        <v>0.0030485</v>
+        <v>0.0038377</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -5173,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="S22">
-        <v>0.003302125</v>
+        <v>0.004067</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5232,7 +5232,7 @@
         <v>3</v>
       </c>
       <c r="S23">
-        <v>0.001763208</v>
+        <v>0.0018687</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -5291,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="S24">
-        <v>0.002104333</v>
+        <v>0.0023171</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5350,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="S25">
-        <v>0.002004125</v>
+        <v>0.0023226</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5409,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="S26">
-        <v>0.001340084</v>
+        <v>0.0013504</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5468,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="S27">
-        <v>0.00415325</v>
+        <v>0.0041587</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5527,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="S28">
-        <v>0.003216625</v>
+        <v>0.0032324</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5586,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="S29">
-        <v>0.003326125</v>
+        <v>0.0035315</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5609,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="S30">
-        <v>7.08E-07</v>
+        <v>9E-07</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5668,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="S31">
-        <v>0.001866208</v>
+        <v>0.0020284</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5727,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="S32">
-        <v>0.004085916</v>
+        <v>0.0045812</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5786,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="S33">
-        <v>0.001145625</v>
+        <v>0.0011217</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5845,7 +5845,7 @@
         <v>3</v>
       </c>
       <c r="S34">
-        <v>0.001255</v>
+        <v>0.0012274</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5904,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="S35">
-        <v>0.0020015</v>
+        <v>0.001997</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5963,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="S36">
-        <v>0.003080959</v>
+        <v>0.0031313</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -6022,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="S37">
-        <v>0.003398125</v>
+        <v>0.0034886</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -6081,7 +6081,7 @@
         <v>3</v>
       </c>
       <c r="S38">
-        <v>0.004828</v>
+        <v>0.0048581</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -6140,7 +6140,7 @@
         <v>3</v>
       </c>
       <c r="S39">
-        <v>0.003514042</v>
+        <v>0.0033992</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -6199,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="S40">
-        <v>0.003915541</v>
+        <v>0.003746</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -6258,7 +6258,7 @@
         <v>3</v>
       </c>
       <c r="S41">
-        <v>0.003527958</v>
+        <v>0.0036612</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -6317,7 +6317,7 @@
         <v>3</v>
       </c>
       <c r="S42">
-        <v>0.003129708</v>
+        <v>0.0033634</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -6376,7 +6376,7 @@
         <v>3</v>
       </c>
       <c r="S43">
-        <v>0.002131708</v>
+        <v>0.0021444</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6435,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="S44">
-        <v>0.003196875</v>
+        <v>0.003061</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6458,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="S45">
-        <v>6.250000000000001E-07</v>
+        <v>7E-07</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6517,7 +6517,7 @@
         <v>3</v>
       </c>
       <c r="S46">
-        <v>0.003171083</v>
+        <v>0.0032472</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6576,7 +6576,7 @@
         <v>3</v>
       </c>
       <c r="S47">
-        <v>0.0045425</v>
+        <v>0.0048322</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6635,7 +6635,7 @@
         <v>3</v>
       </c>
       <c r="S48">
-        <v>0.002162791</v>
+        <v>0.0022342</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6694,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="S49">
-        <v>0.003190125</v>
+        <v>0.0034136</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6741,7 +6741,7 @@
         <v>3</v>
       </c>
       <c r="S50">
-        <v>0.0026415</v>
+        <v>0.0028123</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -6800,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="S51">
-        <v>0.002714333</v>
+        <v>0.0027548</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -6859,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="S52">
-        <v>0.003449375</v>
+        <v>0.0041529</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -6918,7 +6918,7 @@
         <v>3</v>
       </c>
       <c r="S53">
-        <v>0.003410417</v>
+        <v>0.0034817</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="S54">
-        <v>0.004437459</v>
+        <v>0.0039099</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -7036,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="S55">
-        <v>0.002955417</v>
+        <v>0.0031006</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -7095,7 +7095,7 @@
         <v>3</v>
       </c>
       <c r="S56">
-        <v>0.003357458</v>
+        <v>0.0037295</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -7154,7 +7154,7 @@
         <v>3</v>
       </c>
       <c r="S57">
-        <v>0.00179475</v>
+        <v>0.0017842</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -7213,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="S58">
-        <v>0.003734333</v>
+        <v>0.003734</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -7272,7 +7272,7 @@
         <v>3</v>
       </c>
       <c r="S59">
-        <v>0.002962916</v>
+        <v>0.0032286</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>2</v>
       </c>
       <c r="S60">
-        <v>0.002191291</v>
+        <v>0.0021104</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -7390,7 +7390,7 @@
         <v>3</v>
       </c>
       <c r="S61">
-        <v>0.003366625</v>
+        <v>0.0033232</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -7449,7 +7449,7 @@
         <v>3</v>
       </c>
       <c r="S62">
-        <v>0.003880541</v>
+        <v>0.0041766</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -7508,7 +7508,7 @@
         <v>3</v>
       </c>
       <c r="S63">
-        <v>0.002031875</v>
+        <v>0.0020553</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -7567,7 +7567,7 @@
         <v>3</v>
       </c>
       <c r="S64">
-        <v>0.003347083</v>
+        <v>0.0030641</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -7626,7 +7626,7 @@
         <v>2</v>
       </c>
       <c r="S65">
-        <v>0.0027405</v>
+        <v>0.0022938</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -7685,7 +7685,7 @@
         <v>3</v>
       </c>
       <c r="S66">
-        <v>0.003466875</v>
+        <v>0.0033424</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -7744,7 +7744,7 @@
         <v>2</v>
       </c>
       <c r="S67">
-        <v>0.001505083</v>
+        <v>0.0013938</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -7803,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="S68">
-        <v>0.003138333</v>
+        <v>0.0032259</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -7862,7 +7862,7 @@
         <v>3</v>
       </c>
       <c r="S69">
-        <v>0.002833083</v>
+        <v>0.0028408</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -7921,7 +7921,7 @@
         <v>3</v>
       </c>
       <c r="S70">
-        <v>0.003967208</v>
+        <v>0.0038884</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -7980,7 +7980,7 @@
         <v>3</v>
       </c>
       <c r="S71">
-        <v>0.003015084</v>
+        <v>0.0029922</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -8039,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="S72">
-        <v>0.002974084</v>
+        <v>0.0032101</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -8098,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="S73">
-        <v>0.002516917</v>
+        <v>0.002441</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -8157,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="S74">
-        <v>0.002891625</v>
+        <v>0.0029331</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -8216,7 +8216,7 @@
         <v>3</v>
       </c>
       <c r="S75">
-        <v>0.002021667</v>
+        <v>0.0020043</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -8275,7 +8275,7 @@
         <v>2</v>
       </c>
       <c r="S76">
-        <v>0.001997875</v>
+        <v>0.0021371</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -8334,7 +8334,7 @@
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.004888667</v>
+        <v>0.0053201</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -8393,7 +8393,7 @@
         <v>3</v>
       </c>
       <c r="S78">
-        <v>0.003473458</v>
+        <v>0.0035551</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="S79">
-        <v>0.002371583</v>
+        <v>0.002491</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -8499,7 +8499,7 @@
         <v>3</v>
       </c>
       <c r="S80">
-        <v>0.002319334</v>
+        <v>0.0022217</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -8558,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="S81">
-        <v>0.004128833</v>
+        <v>0.0039121</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -8617,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="S82">
-        <v>0.003633084</v>
+        <v>0.0033962</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -8676,7 +8676,7 @@
         <v>3</v>
       </c>
       <c r="S83">
-        <v>0.004040958</v>
+        <v>0.004033</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -8735,7 +8735,7 @@
         <v>3</v>
       </c>
       <c r="S84">
-        <v>0.002321375</v>
+        <v>0.0020441</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -8794,7 +8794,7 @@
         <v>3</v>
       </c>
       <c r="S85">
-        <v>0.002976792</v>
+        <v>0.0030046</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -8853,7 +8853,7 @@
         <v>3</v>
       </c>
       <c r="S86">
-        <v>0.002996792</v>
+        <v>0.0029074</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -8876,7 +8876,7 @@
         <v>3</v>
       </c>
       <c r="S87">
-        <v>6.250000000000001E-07</v>
+        <v>7E-07</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="S88">
-        <v>0.003842708</v>
+        <v>0.0035863</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -8994,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="S89">
-        <v>0.002936125</v>
+        <v>0.002907</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -9053,7 +9053,7 @@
         <v>3</v>
       </c>
       <c r="S90">
-        <v>0.00324025</v>
+        <v>0.0035238</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -9112,7 +9112,7 @@
         <v>3</v>
       </c>
       <c r="S91">
-        <v>0.003439875</v>
+        <v>0.003905</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -9171,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="S92">
-        <v>0.004004208</v>
+        <v>0.0043719</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -9230,7 +9230,7 @@
         <v>3</v>
       </c>
       <c r="S93">
-        <v>0.001408459</v>
+        <v>0.00145</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -9283,7 +9283,7 @@
         <v>2</v>
       </c>
       <c r="S94">
-        <v>0.003961583</v>
+        <v>0.0035346</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -9342,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="S95">
-        <v>0.003709916</v>
+        <v>0.0034968</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -9401,7 +9401,7 @@
         <v>3</v>
       </c>
       <c r="S96">
-        <v>0.00439275</v>
+        <v>0.0040086</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -9460,7 +9460,7 @@
         <v>3</v>
       </c>
       <c r="S97">
-        <v>0.004477458</v>
+        <v>0.0043109</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -9519,7 +9519,7 @@
         <v>3</v>
       </c>
       <c r="S98">
-        <v>0.003348917</v>
+        <v>0.0035166</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -9578,7 +9578,7 @@
         <v>3</v>
       </c>
       <c r="S99">
-        <v>0.0029325</v>
+        <v>0.0029395</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -9637,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="S100">
-        <v>0.003402083</v>
+        <v>0.0032045</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -9696,7 +9696,7 @@
         <v>3</v>
       </c>
       <c r="S101">
-        <v>0.004180708</v>
+        <v>0.0038371</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -9755,7 +9755,7 @@
         <v>3</v>
       </c>
       <c r="S102">
-        <v>0.004043584</v>
+        <v>0.0059005</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -9814,7 +9814,7 @@
         <v>3</v>
       </c>
       <c r="S103">
-        <v>0.003632583</v>
+        <v>0.0034297</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -9873,7 +9873,7 @@
         <v>3</v>
       </c>
       <c r="S104">
-        <v>0.002405625</v>
+        <v>0.0026203</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -9932,7 +9932,7 @@
         <v>3</v>
       </c>
       <c r="S105">
-        <v>0.003328</v>
+        <v>0.0049883</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="S106">
-        <v>0.002876584</v>
+        <v>0.0032868</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -10050,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="S107">
-        <v>0.003184959</v>
+        <v>0.0033239</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -10109,7 +10109,7 @@
         <v>3</v>
       </c>
       <c r="S108">
-        <v>0.001833833</v>
+        <v>0.0019744</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -10168,7 +10168,7 @@
         <v>3</v>
       </c>
       <c r="S109">
-        <v>0.003210292</v>
+        <v>0.0031448</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -10191,7 +10191,7 @@
         <v>3</v>
       </c>
       <c r="S110">
-        <v>6.66E-07</v>
+        <v>6E-07</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -10250,7 +10250,7 @@
         <v>3</v>
       </c>
       <c r="S111">
-        <v>0.003623709</v>
+        <v>0.0033332</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -10309,7 +10309,7 @@
         <v>3</v>
       </c>
       <c r="S112">
-        <v>0.004278958</v>
+        <v>0.0042989</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -10368,7 +10368,7 @@
         <v>3</v>
       </c>
       <c r="S113">
-        <v>0.0028085</v>
+        <v>0.002789</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -10415,7 +10415,7 @@
         <v>3</v>
       </c>
       <c r="S114">
-        <v>0.002704375</v>
+        <v>0.0025704</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -10462,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="S115">
-        <v>0.002996833</v>
+        <v>0.0029798</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -10521,7 +10521,7 @@
         <v>3</v>
       </c>
       <c r="S116">
-        <v>0.00244825</v>
+        <v>0.0023754</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -10580,7 +10580,7 @@
         <v>3</v>
       </c>
       <c r="S117">
-        <v>0.001672875</v>
+        <v>0.0014672</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -10639,7 +10639,7 @@
         <v>3</v>
       </c>
       <c r="S118">
-        <v>0.003817417</v>
+        <v>0.0035961</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -10698,7 +10698,7 @@
         <v>3</v>
       </c>
       <c r="S119">
-        <v>0.003484875</v>
+        <v>0.0034456</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -10757,7 +10757,7 @@
         <v>3</v>
       </c>
       <c r="S120">
-        <v>0.002342666</v>
+        <v>0.0022939</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -10816,7 +10816,7 @@
         <v>3</v>
       </c>
       <c r="S121">
-        <v>0.00175125</v>
+        <v>0.0014126</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -10875,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="S122">
-        <v>0.003350167</v>
+        <v>0.0031665</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -10934,7 +10934,7 @@
         <v>3</v>
       </c>
       <c r="S123">
-        <v>0.004083292</v>
+        <v>0.0059557</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -10975,7 +10975,7 @@
         <v>2</v>
       </c>
       <c r="S124">
-        <v>0.003104375</v>
+        <v>0.0027579</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -11034,7 +11034,7 @@
         <v>3</v>
       </c>
       <c r="S125">
-        <v>0.002461583</v>
+        <v>0.0024046</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -11093,7 +11093,7 @@
         <v>3</v>
       </c>
       <c r="S126">
-        <v>0.002320667</v>
+        <v>0.0025348</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -11152,7 +11152,7 @@
         <v>3</v>
       </c>
       <c r="S127">
-        <v>0.004301041</v>
+        <v>0.0046821</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -11211,7 +11211,7 @@
         <v>3</v>
       </c>
       <c r="S128">
-        <v>0.002722709</v>
+        <v>0.0029068</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -11270,7 +11270,7 @@
         <v>3</v>
       </c>
       <c r="S129">
-        <v>0.002773625</v>
+        <v>0.002814</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -11329,7 +11329,7 @@
         <v>3</v>
       </c>
       <c r="S130">
-        <v>0.002370667</v>
+        <v>0.0022421</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -11388,7 +11388,7 @@
         <v>3</v>
       </c>
       <c r="S131">
-        <v>0.002983292</v>
+        <v>0.0030416</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -11447,7 +11447,7 @@
         <v>3</v>
       </c>
       <c r="S132">
-        <v>0.002529458</v>
+        <v>0.0023121</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -11506,7 +11506,7 @@
         <v>3</v>
       </c>
       <c r="S133">
-        <v>0.002046292</v>
+        <v>0.0023848</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -11565,7 +11565,7 @@
         <v>3</v>
       </c>
       <c r="S134">
-        <v>0.003792875</v>
+        <v>0.0039489</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -11624,7 +11624,7 @@
         <v>3</v>
       </c>
       <c r="S135">
-        <v>0.003057833</v>
+        <v>0.0030739</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -11683,7 +11683,7 @@
         <v>3</v>
       </c>
       <c r="S136">
-        <v>0.003369541</v>
+        <v>0.0034139</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -11742,7 +11742,7 @@
         <v>3</v>
       </c>
       <c r="S137">
-        <v>0.002784667</v>
+        <v>0.0031189</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -11801,7 +11801,7 @@
         <v>3</v>
       </c>
       <c r="S138">
-        <v>0.002477542</v>
+        <v>0.0022437</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -11860,7 +11860,7 @@
         <v>3</v>
       </c>
       <c r="S139">
-        <v>0.003813625</v>
+        <v>0.0040544</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -11919,7 +11919,7 @@
         <v>3</v>
       </c>
       <c r="S140">
-        <v>0.002167333</v>
+        <v>0.002497</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -11966,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="S141">
-        <v>0.001490834</v>
+        <v>0.0014301</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -12025,7 +12025,7 @@
         <v>3</v>
       </c>
       <c r="S142">
-        <v>0.002597083</v>
+        <v>0.002285</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -12084,7 +12084,7 @@
         <v>3</v>
       </c>
       <c r="S143">
-        <v>0.004489333</v>
+        <v>0.004884</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -12143,7 +12143,7 @@
         <v>3</v>
       </c>
       <c r="S144">
-        <v>0.002950583</v>
+        <v>0.0031616</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -12202,7 +12202,7 @@
         <v>3</v>
       </c>
       <c r="S145">
-        <v>0.002876041</v>
+        <v>0.002794</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -12261,7 +12261,7 @@
         <v>3</v>
       </c>
       <c r="S146">
-        <v>0.003712958</v>
+        <v>0.0037287</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -12320,7 +12320,7 @@
         <v>3</v>
       </c>
       <c r="S147">
-        <v>0.002915</v>
+        <v>0.002593</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -12379,7 +12379,7 @@
         <v>3</v>
       </c>
       <c r="S148">
-        <v>0.003188875</v>
+        <v>0.0031363</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -12438,7 +12438,7 @@
         <v>3</v>
       </c>
       <c r="S149">
-        <v>0.001498417</v>
+        <v>0.0014353</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -12497,7 +12497,7 @@
         <v>3</v>
       </c>
       <c r="S150">
-        <v>0.002450041</v>
+        <v>0.0026618</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -12556,7 +12556,7 @@
         <v>3</v>
       </c>
       <c r="S151">
-        <v>0.003825666</v>
+        <v>0.0037275</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -12603,7 +12603,7 @@
         <v>3</v>
       </c>
       <c r="S152">
-        <v>0.002849541</v>
+        <v>0.002907</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -12662,7 +12662,7 @@
         <v>3</v>
       </c>
       <c r="S153">
-        <v>0.002883541</v>
+        <v>0.0026981</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -12709,7 +12709,7 @@
         <v>3</v>
       </c>
       <c r="S154">
-        <v>0.002213625</v>
+        <v>0.0021489</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -12756,7 +12756,7 @@
         <v>3</v>
       </c>
       <c r="S155">
-        <v>0.001734417</v>
+        <v>0.0016616</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -12803,7 +12803,7 @@
         <v>3</v>
       </c>
       <c r="S156">
-        <v>0.001388167</v>
+        <v>0.0012768</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -12850,7 +12850,7 @@
         <v>3</v>
       </c>
       <c r="S157">
-        <v>0.00240075</v>
+        <v>0.0023286</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -12897,7 +12897,7 @@
         <v>3</v>
       </c>
       <c r="S158">
-        <v>0.003067917</v>
+        <v>0.003121</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -12956,7 +12956,7 @@
         <v>3</v>
       </c>
       <c r="S159">
-        <v>0.002024208</v>
+        <v>0.00249</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -13015,7 +13015,7 @@
         <v>3</v>
       </c>
       <c r="S160">
-        <v>0.003186375</v>
+        <v>0.0033184</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -13074,7 +13074,7 @@
         <v>3</v>
       </c>
       <c r="S161">
-        <v>0.002712542</v>
+        <v>0.0031815</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -13133,7 +13133,7 @@
         <v>3</v>
       </c>
       <c r="S162">
-        <v>0.003924416</v>
+        <v>0.0038974</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -13192,7 +13192,7 @@
         <v>3</v>
       </c>
       <c r="S163">
-        <v>0.002358458</v>
+        <v>0.0022855</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -13245,7 +13245,7 @@
         <v>2</v>
       </c>
       <c r="S164">
-        <v>0.001987166</v>
+        <v>0.0018717</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -13304,7 +13304,7 @@
         <v>3</v>
       </c>
       <c r="S165">
-        <v>0.002345209</v>
+        <v>0.0021454</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -13363,7 +13363,7 @@
         <v>3</v>
       </c>
       <c r="S166">
-        <v>0.002946083</v>
+        <v>0.0028598</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -13410,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="S167">
-        <v>0.002480417</v>
+        <v>0.0022714</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -13457,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="S168">
-        <v>0.002245417</v>
+        <v>0.0019495</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -13485,26 +13485,26 @@
       <c r="H169" t="s">
         <v>649</v>
       </c>
-      <c r="I169" t="s">
-        <v>649</v>
-      </c>
       <c r="J169" t="s">
         <v>649</v>
       </c>
-      <c r="K169" t="s">
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
         <v>649</v>
       </c>
-      <c r="L169">
-        <v>1</v>
+      <c r="P169" t="s">
+        <v>649</v>
       </c>
       <c r="Q169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S169">
-        <v>0.000847625</v>
+        <v>0.0008549</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="S170">
-        <v>0.00075425</v>
+        <v>0.0007439</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -13610,7 +13610,7 @@
         <v>3</v>
       </c>
       <c r="S171">
-        <v>0.001373042</v>
+        <v>0.001155</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -13657,7 +13657,7 @@
         <v>3</v>
       </c>
       <c r="S172">
-        <v>0.002132375</v>
+        <v>0.0020151</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -13704,7 +13704,7 @@
         <v>3</v>
       </c>
       <c r="S173">
-        <v>0.001674958</v>
+        <v>0.0015735</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -13751,7 +13751,7 @@
         <v>3</v>
       </c>
       <c r="S174">
-        <v>0.002911584</v>
+        <v>0.0031308</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -13810,7 +13810,7 @@
         <v>3</v>
       </c>
       <c r="S175">
-        <v>0.002690166</v>
+        <v>0.0032894</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -13857,7 +13857,7 @@
         <v>3</v>
       </c>
       <c r="S176">
-        <v>0.002603125</v>
+        <v>0.0028603</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -13904,7 +13904,7 @@
         <v>3</v>
       </c>
       <c r="S177">
-        <v>0.002277375</v>
+        <v>0.0021669</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -13963,7 +13963,7 @@
         <v>3</v>
       </c>
       <c r="S178">
-        <v>0.002860709</v>
+        <v>0.0030361</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -14010,7 +14010,7 @@
         <v>3</v>
       </c>
       <c r="S179">
-        <v>0.000886291</v>
+        <v>0.0008228000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -14069,7 +14069,7 @@
         <v>3</v>
       </c>
       <c r="S180">
-        <v>0.00143425</v>
+        <v>0.0012013</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -14128,7 +14128,7 @@
         <v>3</v>
       </c>
       <c r="S181">
-        <v>0.003764375</v>
+        <v>0.0037277</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -14187,7 +14187,7 @@
         <v>3</v>
       </c>
       <c r="S182">
-        <v>0.000853083</v>
+        <v>0.0008049</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -14246,7 +14246,7 @@
         <v>3</v>
       </c>
       <c r="S183">
-        <v>0.003095042</v>
+        <v>0.0030232</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -14293,7 +14293,7 @@
         <v>3</v>
       </c>
       <c r="S184">
-        <v>0.003489167</v>
+        <v>0.0032002</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -14340,7 +14340,7 @@
         <v>3</v>
       </c>
       <c r="S185">
-        <v>0.003114167</v>
+        <v>0.0030134</v>
       </c>
     </row>
     <row r="186" spans="1:19">
@@ -14387,7 +14387,7 @@
         <v>3</v>
       </c>
       <c r="S186">
-        <v>0.001885084</v>
+        <v>0.0018165</v>
       </c>
     </row>
     <row r="187" spans="1:19">
@@ -14446,7 +14446,7 @@
         <v>3</v>
       </c>
       <c r="S187">
-        <v>0.002357042</v>
+        <v>0.0021703</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -14493,7 +14493,7 @@
         <v>3</v>
       </c>
       <c r="S188">
-        <v>0.002065209</v>
+        <v>0.0019837</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -14540,7 +14540,7 @@
         <v>3</v>
       </c>
       <c r="S189">
-        <v>0.002539084</v>
+        <v>0.0031073</v>
       </c>
     </row>
     <row r="190" spans="1:19">
@@ -14587,7 +14587,7 @@
         <v>3</v>
       </c>
       <c r="S190">
-        <v>0.003110958</v>
+        <v>0.0033046</v>
       </c>
     </row>
     <row r="191" spans="1:19">
@@ -14646,7 +14646,7 @@
         <v>3</v>
       </c>
       <c r="S191">
-        <v>0.003132042</v>
+        <v>0.0030048</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -14693,7 +14693,7 @@
         <v>3</v>
       </c>
       <c r="S192">
-        <v>0.001336625</v>
+        <v>0.0012866</v>
       </c>
     </row>
     <row r="193" spans="1:19">
@@ -14752,7 +14752,7 @@
         <v>3</v>
       </c>
       <c r="S193">
-        <v>0.001034</v>
+        <v>0.0010165</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -14811,7 +14811,7 @@
         <v>3</v>
       </c>
       <c r="S194">
-        <v>0.003217292</v>
+        <v>0.0033138</v>
       </c>
     </row>
     <row r="195" spans="1:19">
@@ -14858,7 +14858,7 @@
         <v>2</v>
       </c>
       <c r="S195">
-        <v>0.001568375</v>
+        <v>0.0022985</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -14917,7 +14917,7 @@
         <v>3</v>
       </c>
       <c r="S196">
-        <v>0.003317958</v>
+        <v>0.004063</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -14964,7 +14964,7 @@
         <v>3</v>
       </c>
       <c r="S197">
-        <v>0.002823292</v>
+        <v>0.0028489</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -15011,7 +15011,7 @@
         <v>3</v>
       </c>
       <c r="S198">
-        <v>0.000949958</v>
+        <v>0.0009168</v>
       </c>
     </row>
     <row r="199" spans="1:19">
@@ -15070,7 +15070,7 @@
         <v>3</v>
       </c>
       <c r="S199">
-        <v>0.002794792</v>
+        <v>0.0030644</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -15129,7 +15129,7 @@
         <v>3</v>
       </c>
       <c r="S200">
-        <v>0.001805958</v>
+        <v>0.001773</v>
       </c>
     </row>
     <row r="201" spans="1:19">
@@ -15188,7 +15188,7 @@
         <v>3</v>
       </c>
       <c r="S201">
-        <v>0.003147292</v>
+        <v>0.0038403</v>
       </c>
     </row>
     <row r="202" spans="1:19">
@@ -15235,7 +15235,7 @@
         <v>3</v>
       </c>
       <c r="S202">
-        <v>0.002486459</v>
+        <v>0.0028237</v>
       </c>
     </row>
     <row r="203" spans="1:19">
@@ -15282,7 +15282,7 @@
         <v>3</v>
       </c>
       <c r="S203">
-        <v>0.001515083</v>
+        <v>0.0016341</v>
       </c>
     </row>
     <row r="204" spans="1:19">
@@ -15341,7 +15341,7 @@
         <v>3</v>
       </c>
       <c r="S204">
-        <v>0.00230075</v>
+        <v>0.0021231</v>
       </c>
     </row>
     <row r="205" spans="1:19">
@@ -15400,7 +15400,7 @@
         <v>3</v>
       </c>
       <c r="S205">
-        <v>0.003483209</v>
+        <v>0.0035461</v>
       </c>
     </row>
     <row r="206" spans="1:19">
@@ -15447,7 +15447,7 @@
         <v>3</v>
       </c>
       <c r="S206">
-        <v>0.001626334</v>
+        <v>0.0014942</v>
       </c>
     </row>
     <row r="207" spans="1:19">
@@ -15494,7 +15494,7 @@
         <v>3</v>
       </c>
       <c r="S207">
-        <v>0.000952333</v>
+        <v>0.0008152</v>
       </c>
     </row>
     <row r="208" spans="1:19">
@@ -15553,7 +15553,7 @@
         <v>3</v>
       </c>
       <c r="S208">
-        <v>0.002146333</v>
+        <v>0.0018065</v>
       </c>
     </row>
     <row r="209" spans="1:19">
@@ -15600,7 +15600,7 @@
         <v>3</v>
       </c>
       <c r="S209">
-        <v>0.002637542</v>
+        <v>0.0028689</v>
       </c>
     </row>
     <row r="210" spans="1:19">
@@ -15647,7 +15647,7 @@
         <v>3</v>
       </c>
       <c r="S210">
-        <v>0.002589125</v>
+        <v>0.0026349</v>
       </c>
     </row>
     <row r="211" spans="1:19">
@@ -15694,7 +15694,7 @@
         <v>3</v>
       </c>
       <c r="S211">
-        <v>0.002958167</v>
+        <v>0.003049</v>
       </c>
     </row>
     <row r="212" spans="1:19">
@@ -15741,7 +15741,7 @@
         <v>3</v>
       </c>
       <c r="S212">
-        <v>0.002094333</v>
+        <v>0.0017469</v>
       </c>
     </row>
     <row r="213" spans="1:19">
@@ -15788,7 +15788,7 @@
         <v>3</v>
       </c>
       <c r="S213">
-        <v>0.001188167</v>
+        <v>0.0009387</v>
       </c>
     </row>
     <row r="214" spans="1:19">
@@ -15835,7 +15835,7 @@
         <v>3</v>
       </c>
       <c r="S214">
-        <v>0.00164825</v>
+        <v>0.0014621</v>
       </c>
     </row>
     <row r="215" spans="1:19">
@@ -15894,7 +15894,7 @@
         <v>3</v>
       </c>
       <c r="S215">
-        <v>0.002890875</v>
+        <v>0.0028556</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -15941,7 +15941,7 @@
         <v>3</v>
       </c>
       <c r="S216">
-        <v>0.001538917</v>
+        <v>0.0014181</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -15988,7 +15988,7 @@
         <v>3</v>
       </c>
       <c r="S217">
-        <v>0.001532083</v>
+        <v>0.0014049</v>
       </c>
     </row>
     <row r="218" spans="1:19">
@@ -16035,7 +16035,7 @@
         <v>3</v>
       </c>
       <c r="S218">
-        <v>0.00236275</v>
+        <v>0.0021264</v>
       </c>
     </row>
     <row r="219" spans="1:19">
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="S219">
-        <v>0.003493875</v>
+        <v>0.0033589</v>
       </c>
     </row>
     <row r="220" spans="1:19">
@@ -16129,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="S220">
-        <v>0.001792208</v>
+        <v>0.0015116</v>
       </c>
     </row>
     <row r="221" spans="1:19">
@@ -16188,7 +16188,7 @@
         <v>2</v>
       </c>
       <c r="S221">
-        <v>0.002979375</v>
+        <v>0.0027666</v>
       </c>
     </row>
     <row r="222" spans="1:19">
@@ -16247,7 +16247,7 @@
         <v>3</v>
       </c>
       <c r="S222">
-        <v>0.003567834</v>
+        <v>0.0034072</v>
       </c>
     </row>
     <row r="223" spans="1:19">
@@ -16306,7 +16306,7 @@
         <v>3</v>
       </c>
       <c r="S223">
-        <v>0.003006708</v>
+        <v>0.0031357</v>
       </c>
     </row>
     <row r="224" spans="1:19">
@@ -16353,7 +16353,7 @@
         <v>3</v>
       </c>
       <c r="S224">
-        <v>0.001316541</v>
+        <v>0.0013069</v>
       </c>
     </row>
     <row r="225" spans="1:19">
@@ -16400,7 +16400,7 @@
         <v>3</v>
       </c>
       <c r="S225">
-        <v>0.002114209</v>
+        <v>0.0019921</v>
       </c>
     </row>
     <row r="226" spans="1:19">
@@ -16459,7 +16459,7 @@
         <v>3</v>
       </c>
       <c r="S226">
-        <v>0.002279459</v>
+        <v>0.0020866</v>
       </c>
     </row>
     <row r="227" spans="1:19">
@@ -16506,7 +16506,7 @@
         <v>3</v>
       </c>
       <c r="S227">
-        <v>0.001162292</v>
+        <v>0.0011438</v>
       </c>
     </row>
     <row r="228" spans="1:19">
@@ -16565,7 +16565,7 @@
         <v>3</v>
       </c>
       <c r="S228">
-        <v>0.00225625</v>
+        <v>0.0021764</v>
       </c>
     </row>
     <row r="229" spans="1:19">
@@ -16624,7 +16624,7 @@
         <v>3</v>
       </c>
       <c r="S229">
-        <v>0.001421458</v>
+        <v>0.0011967</v>
       </c>
     </row>
     <row r="230" spans="1:19">
@@ -16683,7 +16683,7 @@
         <v>3</v>
       </c>
       <c r="S230">
-        <v>0.003365458</v>
+        <v>0.0032622</v>
       </c>
     </row>
     <row r="231" spans="1:19">
@@ -16742,7 +16742,7 @@
         <v>3</v>
       </c>
       <c r="S231">
-        <v>0.00226425</v>
+        <v>0.0022631</v>
       </c>
     </row>
     <row r="232" spans="1:19">
@@ -16801,7 +16801,7 @@
         <v>3</v>
       </c>
       <c r="S232">
-        <v>0.002150333</v>
+        <v>0.0020518</v>
       </c>
     </row>
     <row r="233" spans="1:19">
@@ -16860,7 +16860,7 @@
         <v>3</v>
       </c>
       <c r="S233">
-        <v>0.002420833</v>
+        <v>0.0021478</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -16907,7 +16907,7 @@
         <v>3</v>
       </c>
       <c r="S234">
-        <v>0.00194725</v>
+        <v>0.0019056</v>
       </c>
     </row>
     <row r="235" spans="1:19">
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="S235">
-        <v>0.0026725</v>
+        <v>0.0026635</v>
       </c>
     </row>
     <row r="236" spans="1:19">
@@ -17001,7 +17001,7 @@
         <v>3</v>
       </c>
       <c r="S236">
-        <v>0.002445875</v>
+        <v>0.0022492</v>
       </c>
     </row>
     <row r="237" spans="1:19">
@@ -17048,7 +17048,7 @@
         <v>3</v>
       </c>
       <c r="S237">
-        <v>0.001279625</v>
+        <v>0.0011543</v>
       </c>
     </row>
     <row r="238" spans="1:19">
@@ -17107,7 +17107,7 @@
         <v>3</v>
       </c>
       <c r="S238">
-        <v>0.004068583</v>
+        <v>0.0040087</v>
       </c>
     </row>
     <row r="239" spans="1:19">
@@ -17154,7 +17154,7 @@
         <v>3</v>
       </c>
       <c r="S239">
-        <v>0.000860625</v>
+        <v>0.0008472</v>
       </c>
     </row>
     <row r="240" spans="1:19">
@@ -17201,7 +17201,7 @@
         <v>3</v>
       </c>
       <c r="S240">
-        <v>0.001075916</v>
+        <v>0.0010794</v>
       </c>
     </row>
     <row r="241" spans="1:19">
@@ -17248,7 +17248,7 @@
         <v>3</v>
       </c>
       <c r="S241">
-        <v>0.002720042</v>
+        <v>0.00236</v>
       </c>
     </row>
     <row r="242" spans="1:19">
@@ -17307,7 +17307,7 @@
         <v>3</v>
       </c>
       <c r="S242">
-        <v>0.00313775</v>
+        <v>0.0031397</v>
       </c>
     </row>
     <row r="243" spans="1:19">
@@ -17354,7 +17354,7 @@
         <v>3</v>
       </c>
       <c r="S243">
-        <v>0.002038958</v>
+        <v>0.0023214</v>
       </c>
     </row>
     <row r="244" spans="1:19">
@@ -17401,7 +17401,7 @@
         <v>3</v>
       </c>
       <c r="S244">
-        <v>0.001784709</v>
+        <v>0.0019896</v>
       </c>
     </row>
     <row r="245" spans="1:19">
@@ -17460,7 +17460,7 @@
         <v>3</v>
       </c>
       <c r="S245">
-        <v>0.003087667</v>
+        <v>0.0030042</v>
       </c>
     </row>
     <row r="246" spans="1:19">
@@ -17507,7 +17507,7 @@
         <v>3</v>
       </c>
       <c r="S246">
-        <v>0.002532708</v>
+        <v>0.0024163</v>
       </c>
     </row>
     <row r="247" spans="1:19">
@@ -17554,7 +17554,7 @@
         <v>3</v>
       </c>
       <c r="S247">
-        <v>0.000693583</v>
+        <v>0.0006704</v>
       </c>
     </row>
     <row r="248" spans="1:19">
@@ -17613,7 +17613,7 @@
         <v>3</v>
       </c>
       <c r="S248">
-        <v>0.001141458</v>
+        <v>0.001149</v>
       </c>
     </row>
     <row r="249" spans="1:19">
@@ -17629,38 +17629,32 @@
       <c r="H249" t="s">
         <v>688</v>
       </c>
-      <c r="I249" t="s">
-        <v>688</v>
-      </c>
       <c r="J249" t="s">
         <v>688</v>
       </c>
-      <c r="K249" t="s">
-        <v>688</v>
-      </c>
       <c r="L249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M249" t="s">
         <v>988</v>
       </c>
       <c r="N249" t="s">
-        <v>988</v>
+        <v>688</v>
       </c>
       <c r="O249">
         <v>4</v>
       </c>
-      <c r="P249">
-        <v>4</v>
+      <c r="P249" t="s">
+        <v>688</v>
       </c>
       <c r="Q249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S249">
-        <v>0.001797125</v>
+        <v>0.0016883</v>
       </c>
     </row>
     <row r="250" spans="1:19">
@@ -17719,7 +17713,7 @@
         <v>3</v>
       </c>
       <c r="S250">
-        <v>0.001915208</v>
+        <v>0.0017512</v>
       </c>
     </row>
     <row r="251" spans="1:19">
@@ -17778,7 +17772,7 @@
         <v>3</v>
       </c>
       <c r="S251">
-        <v>0.002961291</v>
+        <v>0.0029012</v>
       </c>
     </row>
     <row r="252" spans="1:19">
@@ -17825,7 +17819,7 @@
         <v>3</v>
       </c>
       <c r="S252">
-        <v>0.002735666</v>
+        <v>0.0027222</v>
       </c>
     </row>
     <row r="253" spans="1:19">
@@ -17872,7 +17866,7 @@
         <v>3</v>
       </c>
       <c r="S253">
-        <v>4.8208E-05</v>
+        <v>4.01E-05</v>
       </c>
     </row>
     <row r="254" spans="1:19">
@@ -17931,7 +17925,7 @@
         <v>3</v>
       </c>
       <c r="S254">
-        <v>0.003648292</v>
+        <v>0.0034649</v>
       </c>
     </row>
     <row r="255" spans="1:19">
@@ -17990,7 +17984,7 @@
         <v>3</v>
       </c>
       <c r="S255">
-        <v>0.002549917</v>
+        <v>0.00243</v>
       </c>
     </row>
     <row r="256" spans="1:19">
@@ -18037,7 +18031,7 @@
         <v>3</v>
       </c>
       <c r="S256">
-        <v>0.003382833</v>
+        <v>0.0031217</v>
       </c>
     </row>
     <row r="257" spans="1:19">
@@ -18096,7 +18090,7 @@
         <v>3</v>
       </c>
       <c r="S257">
-        <v>0.002621416</v>
+        <v>0.0024043</v>
       </c>
     </row>
     <row r="258" spans="1:19">
@@ -18143,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="S258">
-        <v>0.00205275</v>
+        <v>0.0017664</v>
       </c>
     </row>
     <row r="259" spans="1:19">
@@ -18190,7 +18184,7 @@
         <v>2</v>
       </c>
       <c r="S259">
-        <v>0.001575375</v>
+        <v>0.0013558</v>
       </c>
     </row>
     <row r="260" spans="1:19">
@@ -18237,7 +18231,7 @@
         <v>3</v>
       </c>
       <c r="S260">
-        <v>0.00239375</v>
+        <v>0.0018442</v>
       </c>
     </row>
     <row r="261" spans="1:19">
@@ -18284,7 +18278,7 @@
         <v>3</v>
       </c>
       <c r="S261">
-        <v>0.003146542</v>
+        <v>0.0031044</v>
       </c>
     </row>
     <row r="262" spans="1:19">
@@ -18331,7 +18325,7 @@
         <v>3</v>
       </c>
       <c r="S262">
-        <v>0.001483583</v>
+        <v>0.0014813</v>
       </c>
     </row>
     <row r="263" spans="1:19">
@@ -18378,7 +18372,7 @@
         <v>3</v>
       </c>
       <c r="S263">
-        <v>0.002826375</v>
+        <v>0.0025912</v>
       </c>
     </row>
     <row r="264" spans="1:19">
@@ -18425,7 +18419,7 @@
         <v>1</v>
       </c>
       <c r="S264">
-        <v>0.003117042</v>
+        <v>0.0030158</v>
       </c>
     </row>
     <row r="265" spans="1:19">
@@ -18472,7 +18466,7 @@
         <v>3</v>
       </c>
       <c r="S265">
-        <v>0.001408167</v>
+        <v>0.0019378</v>
       </c>
     </row>
     <row r="266" spans="1:19">
@@ -18519,7 +18513,7 @@
         <v>3</v>
       </c>
       <c r="S266">
-        <v>0.000453667</v>
+        <v>0.0004718</v>
       </c>
     </row>
     <row r="267" spans="1:19">
@@ -18566,7 +18560,7 @@
         <v>3</v>
       </c>
       <c r="S267">
-        <v>0.001334042</v>
+        <v>0.0011754</v>
       </c>
     </row>
     <row r="268" spans="1:19">
@@ -18625,7 +18619,7 @@
         <v>3</v>
       </c>
       <c r="S268">
-        <v>0.003338083</v>
+        <v>0.0034177</v>
       </c>
     </row>
     <row r="269" spans="1:19">
@@ -18684,7 +18678,7 @@
         <v>3</v>
       </c>
       <c r="S269">
-        <v>0.003430833</v>
+        <v>0.0036958</v>
       </c>
     </row>
     <row r="270" spans="1:19">
@@ -18731,7 +18725,7 @@
         <v>3</v>
       </c>
       <c r="S270">
-        <v>0.00287475</v>
+        <v>0.0033929</v>
       </c>
     </row>
     <row r="271" spans="1:19">
@@ -18790,7 +18784,7 @@
         <v>3</v>
       </c>
       <c r="S271">
-        <v>0.0020475</v>
+        <v>0.0019077</v>
       </c>
     </row>
     <row r="272" spans="1:19">
@@ -18849,7 +18843,7 @@
         <v>3</v>
       </c>
       <c r="S272">
-        <v>0.002882125</v>
+        <v>0.003505</v>
       </c>
     </row>
     <row r="273" spans="1:19">
@@ -18908,7 +18902,7 @@
         <v>3</v>
       </c>
       <c r="S273">
-        <v>0.000871917</v>
+        <v>0.0008556</v>
       </c>
     </row>
     <row r="274" spans="1:19">
@@ -18967,7 +18961,7 @@
         <v>3</v>
       </c>
       <c r="S274">
-        <v>0.0030255</v>
+        <v>0.0030784</v>
       </c>
     </row>
     <row r="275" spans="1:19">
@@ -19026,7 +19020,7 @@
         <v>1</v>
       </c>
       <c r="S275">
-        <v>0.003414792</v>
+        <v>0.0034238</v>
       </c>
     </row>
     <row r="276" spans="1:19">
@@ -19073,7 +19067,7 @@
         <v>3</v>
       </c>
       <c r="S276">
-        <v>0.000621042</v>
+        <v>0.0005762</v>
       </c>
     </row>
     <row r="277" spans="1:19">
@@ -19120,7 +19114,7 @@
         <v>3</v>
       </c>
       <c r="S277">
-        <v>0.001392584</v>
+        <v>0.0013589</v>
       </c>
     </row>
     <row r="278" spans="1:19">
@@ -19167,7 +19161,7 @@
         <v>3</v>
       </c>
       <c r="S278">
-        <v>0.001916667</v>
+        <v>0.002141</v>
       </c>
     </row>
     <row r="279" spans="1:19">
@@ -19214,7 +19208,7 @@
         <v>3</v>
       </c>
       <c r="S279">
-        <v>0.001252875</v>
+        <v>0.0012659</v>
       </c>
     </row>
     <row r="280" spans="1:19">
@@ -19261,7 +19255,7 @@
         <v>3</v>
       </c>
       <c r="S280">
-        <v>0.002103916</v>
+        <v>0.0020949</v>
       </c>
     </row>
     <row r="281" spans="1:19">
@@ -19320,7 +19314,7 @@
         <v>3</v>
       </c>
       <c r="S281">
-        <v>0.001872083</v>
+        <v>0.0017683</v>
       </c>
     </row>
     <row r="282" spans="1:19">
@@ -19367,7 +19361,7 @@
         <v>3</v>
       </c>
       <c r="S282">
-        <v>0.001555167</v>
+        <v>0.0015464</v>
       </c>
     </row>
     <row r="283" spans="1:19">
@@ -19414,7 +19408,7 @@
         <v>3</v>
       </c>
       <c r="S283">
-        <v>0.002526875</v>
+        <v>0.0026242</v>
       </c>
     </row>
     <row r="284" spans="1:19">
@@ -19461,7 +19455,7 @@
         <v>3</v>
       </c>
       <c r="S284">
-        <v>0.000285667</v>
+        <v>0.0002999</v>
       </c>
     </row>
     <row r="285" spans="1:19">
@@ -19520,7 +19514,7 @@
         <v>3</v>
       </c>
       <c r="S285">
-        <v>0.003301542</v>
+        <v>0.0033675</v>
       </c>
     </row>
     <row r="286" spans="1:19">
@@ -19567,7 +19561,7 @@
         <v>1</v>
       </c>
       <c r="S286">
-        <v>0.001383833</v>
+        <v>0.0014113</v>
       </c>
     </row>
     <row r="287" spans="1:19">
@@ -19614,7 +19608,7 @@
         <v>3</v>
       </c>
       <c r="S287">
-        <v>0.000725917</v>
+        <v>0.0008034</v>
       </c>
     </row>
     <row r="288" spans="1:19">
@@ -19667,7 +19661,7 @@
         <v>2</v>
       </c>
       <c r="S288">
-        <v>0.00233225</v>
+        <v>0.0024683</v>
       </c>
     </row>
     <row r="289" spans="1:19">
@@ -19714,7 +19708,7 @@
         <v>3</v>
       </c>
       <c r="S289">
-        <v>0.002154084</v>
+        <v>0.0021319</v>
       </c>
     </row>
     <row r="290" spans="1:19">
@@ -19761,7 +19755,7 @@
         <v>1</v>
       </c>
       <c r="S290">
-        <v>0.001692375</v>
+        <v>0.0017104</v>
       </c>
     </row>
     <row r="291" spans="1:19">
@@ -19789,26 +19783,26 @@
       <c r="H291" t="s">
         <v>715</v>
       </c>
-      <c r="I291" t="s">
-        <v>715</v>
-      </c>
       <c r="J291" t="s">
         <v>715</v>
       </c>
-      <c r="K291" t="s">
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="N291" t="s">
         <v>715</v>
       </c>
-      <c r="L291">
-        <v>1</v>
+      <c r="P291" t="s">
+        <v>715</v>
       </c>
       <c r="Q291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R291">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S291">
-        <v>0.000700583</v>
+        <v>0.0007701</v>
       </c>
     </row>
     <row r="292" spans="1:19">
@@ -19855,7 +19849,7 @@
         <v>3</v>
       </c>
       <c r="S292">
-        <v>0.001610916</v>
+        <v>0.0015881</v>
       </c>
     </row>
     <row r="293" spans="1:19">
@@ -19902,7 +19896,7 @@
         <v>3</v>
       </c>
       <c r="S293">
-        <v>0.001799625</v>
+        <v>0.0017683</v>
       </c>
     </row>
     <row r="294" spans="1:19">
@@ -19961,7 +19955,7 @@
         <v>3</v>
       </c>
       <c r="S294">
-        <v>0.002668916</v>
+        <v>0.0027971</v>
       </c>
     </row>
     <row r="295" spans="1:19">
@@ -20008,7 +20002,7 @@
         <v>3</v>
       </c>
       <c r="S295">
-        <v>0.001930959</v>
+        <v>0.001866</v>
       </c>
     </row>
     <row r="296" spans="1:19">
@@ -20055,7 +20049,7 @@
         <v>3</v>
       </c>
       <c r="S296">
-        <v>0.002308</v>
+        <v>0.0024962</v>
       </c>
     </row>
     <row r="297" spans="1:19">
@@ -20114,7 +20108,7 @@
         <v>3</v>
       </c>
       <c r="S297">
-        <v>0.003332625</v>
+        <v>0.0037209</v>
       </c>
     </row>
     <row r="298" spans="1:19">
@@ -20173,7 +20167,7 @@
         <v>3</v>
       </c>
       <c r="S298">
-        <v>0.002619292</v>
+        <v>0.0027397</v>
       </c>
     </row>
     <row r="299" spans="1:19">
@@ -20232,7 +20226,7 @@
         <v>3</v>
       </c>
       <c r="S299">
-        <v>0.00354275</v>
+        <v>0.0034261</v>
       </c>
     </row>
     <row r="300" spans="1:19">
@@ -20279,7 +20273,7 @@
         <v>3</v>
       </c>
       <c r="S300">
-        <v>0.002543625</v>
+        <v>0.002275</v>
       </c>
     </row>
     <row r="301" spans="1:19">
@@ -20338,7 +20332,7 @@
         <v>3</v>
       </c>
       <c r="S301">
-        <v>0.003107</v>
+        <v>0.0027553</v>
       </c>
     </row>
     <row r="302" spans="1:19">
@@ -20385,7 +20379,7 @@
         <v>3</v>
       </c>
       <c r="S302">
-        <v>0.001229209</v>
+        <v>0.0011897</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -20444,7 +20438,7 @@
         <v>3</v>
       </c>
       <c r="S303">
-        <v>0.00349075</v>
+        <v>0.0036419</v>
       </c>
     </row>
     <row r="304" spans="1:19">
@@ -20491,7 +20485,7 @@
         <v>3</v>
       </c>
       <c r="S304">
-        <v>0.001327334</v>
+        <v>0.0013183</v>
       </c>
     </row>
     <row r="305" spans="1:19">
@@ -20550,7 +20544,7 @@
         <v>1</v>
       </c>
       <c r="S305">
-        <v>0.002188458</v>
+        <v>0.002114</v>
       </c>
     </row>
     <row r="306" spans="1:19">
@@ -20597,7 +20591,7 @@
         <v>3</v>
       </c>
       <c r="S306">
-        <v>0.002603958</v>
+        <v>0.0023622</v>
       </c>
     </row>
     <row r="307" spans="1:19">
@@ -20644,7 +20638,7 @@
         <v>1</v>
       </c>
       <c r="S307">
-        <v>0.001601667</v>
+        <v>0.0016417</v>
       </c>
     </row>
     <row r="308" spans="1:19">
@@ -20691,7 +20685,7 @@
         <v>3</v>
       </c>
       <c r="S308">
-        <v>0.001854708</v>
+        <v>0.0018718</v>
       </c>
     </row>
     <row r="309" spans="1:19">
@@ -20744,7 +20738,7 @@
         <v>2</v>
       </c>
       <c r="S309">
-        <v>0.003351042</v>
+        <v>0.0039267</v>
       </c>
     </row>
     <row r="310" spans="1:19">
@@ -20791,7 +20785,7 @@
         <v>3</v>
       </c>
       <c r="S310">
-        <v>0.001418709</v>
+        <v>0.0014431</v>
       </c>
     </row>
     <row r="311" spans="1:19">
@@ -20850,7 +20844,7 @@
         <v>3</v>
       </c>
       <c r="S311">
-        <v>0.004099</v>
+        <v>0.0037984</v>
       </c>
     </row>
     <row r="312" spans="1:19">
@@ -20897,7 +20891,7 @@
         <v>3</v>
       </c>
       <c r="S312">
-        <v>0.00295625</v>
+        <v>0.0030004</v>
       </c>
     </row>
     <row r="313" spans="1:19">
@@ -20944,7 +20938,7 @@
         <v>3</v>
       </c>
       <c r="S313">
-        <v>0.002289458</v>
+        <v>0.0022317</v>
       </c>
     </row>
     <row r="314" spans="1:19">
@@ -21003,7 +20997,7 @@
         <v>3</v>
       </c>
       <c r="S314">
-        <v>0.003912791</v>
+        <v>0.0043437</v>
       </c>
     </row>
     <row r="315" spans="1:19">
@@ -21050,7 +21044,7 @@
         <v>3</v>
       </c>
       <c r="S315">
-        <v>0.002094917</v>
+        <v>0.0021376</v>
       </c>
     </row>
     <row r="316" spans="1:19">
@@ -21097,7 +21091,7 @@
         <v>3</v>
       </c>
       <c r="S316">
-        <v>0.001044917</v>
+        <v>0.0010263</v>
       </c>
     </row>
     <row r="317" spans="1:19">
@@ -21144,7 +21138,7 @@
         <v>3</v>
       </c>
       <c r="S317">
-        <v>0.0009816250000000001</v>
+        <v>0.0008987999999999999</v>
       </c>
     </row>
     <row r="318" spans="1:19">
@@ -21191,7 +21185,7 @@
         <v>3</v>
       </c>
       <c r="S318">
-        <v>0.001456084</v>
+        <v>0.0013596</v>
       </c>
     </row>
     <row r="319" spans="1:19">
@@ -21238,7 +21232,7 @@
         <v>3</v>
       </c>
       <c r="S319">
-        <v>0.003212833</v>
+        <v>0.0033033</v>
       </c>
     </row>
     <row r="320" spans="1:19">
@@ -21297,7 +21291,7 @@
         <v>3</v>
       </c>
       <c r="S320">
-        <v>0.0022315</v>
+        <v>0.0020861</v>
       </c>
     </row>
     <row r="321" spans="1:19">
@@ -21344,7 +21338,7 @@
         <v>3</v>
       </c>
       <c r="S321">
-        <v>0.003783334</v>
+        <v>0.0035738</v>
       </c>
     </row>
     <row r="322" spans="1:19">
@@ -21403,7 +21397,7 @@
         <v>3</v>
       </c>
       <c r="S322">
-        <v>0.000802917</v>
+        <v>0.0009681</v>
       </c>
     </row>
     <row r="323" spans="1:19">
@@ -21450,7 +21444,7 @@
         <v>3</v>
       </c>
       <c r="S323">
-        <v>0.001013875</v>
+        <v>0.0010597</v>
       </c>
     </row>
     <row r="324" spans="1:19">
@@ -21497,7 +21491,7 @@
         <v>3</v>
       </c>
       <c r="S324">
-        <v>0.001245042</v>
+        <v>0.0012377</v>
       </c>
     </row>
     <row r="325" spans="1:19">
@@ -21544,7 +21538,7 @@
         <v>3</v>
       </c>
       <c r="S325">
-        <v>0.00237175</v>
+        <v>0.00235</v>
       </c>
     </row>
     <row r="326" spans="1:19">
@@ -21603,7 +21597,7 @@
         <v>3</v>
       </c>
       <c r="S326">
-        <v>0.001914625</v>
+        <v>0.0017808</v>
       </c>
     </row>
     <row r="327" spans="1:19">
@@ -21650,7 +21644,7 @@
         <v>3</v>
       </c>
       <c r="S327">
-        <v>0.001895833</v>
+        <v>0.0018313</v>
       </c>
     </row>
     <row r="328" spans="1:19">
@@ -21709,7 +21703,7 @@
         <v>3</v>
       </c>
       <c r="S328">
-        <v>0.003159875</v>
+        <v>0.003234</v>
       </c>
     </row>
     <row r="329" spans="1:19">
@@ -21756,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="S329">
-        <v>0.00051575</v>
+        <v>0.0005176</v>
       </c>
     </row>
     <row r="330" spans="1:19">
@@ -21803,7 +21797,7 @@
         <v>3</v>
       </c>
       <c r="S330">
-        <v>0.001885333</v>
+        <v>0.0020338</v>
       </c>
     </row>
     <row r="331" spans="1:19">
@@ -21862,7 +21856,7 @@
         <v>3</v>
       </c>
       <c r="S331">
-        <v>0.002019917</v>
+        <v>0.002144</v>
       </c>
     </row>
     <row r="332" spans="1:19">
@@ -21921,7 +21915,7 @@
         <v>3</v>
       </c>
       <c r="S332">
-        <v>0.00259825</v>
+        <v>0.0030965</v>
       </c>
     </row>
     <row r="333" spans="1:19">
@@ -21980,7 +21974,7 @@
         <v>3</v>
       </c>
       <c r="S333">
-        <v>0.0014515</v>
+        <v>0.0014454</v>
       </c>
     </row>
     <row r="334" spans="1:19">
@@ -22027,7 +22021,7 @@
         <v>3</v>
       </c>
       <c r="S334">
-        <v>0.001929292</v>
+        <v>0.0019183</v>
       </c>
     </row>
     <row r="335" spans="1:19">
@@ -22074,7 +22068,7 @@
         <v>3</v>
       </c>
       <c r="S335">
-        <v>0.002197417</v>
+        <v>0.0019635</v>
       </c>
     </row>
     <row r="336" spans="1:19">
@@ -22121,7 +22115,7 @@
         <v>3</v>
       </c>
       <c r="S336">
-        <v>0.002149833</v>
+        <v>0.0021099</v>
       </c>
     </row>
     <row r="337" spans="1:19">
@@ -22180,7 +22174,7 @@
         <v>3</v>
       </c>
       <c r="S337">
-        <v>0.002006208</v>
+        <v>0.0018075</v>
       </c>
     </row>
     <row r="338" spans="1:19">
@@ -22239,7 +22233,7 @@
         <v>3</v>
       </c>
       <c r="S338">
-        <v>0.002960125</v>
+        <v>0.002883</v>
       </c>
     </row>
     <row r="339" spans="1:19">
@@ -22286,7 +22280,7 @@
         <v>3</v>
       </c>
       <c r="S339">
-        <v>0.002793834</v>
+        <v>0.0031735</v>
       </c>
     </row>
     <row r="340" spans="1:19">
@@ -22333,7 +22327,7 @@
         <v>3</v>
       </c>
       <c r="S340">
-        <v>0.001782625</v>
+        <v>0.001835</v>
       </c>
     </row>
     <row r="341" spans="1:19">
@@ -22392,7 +22386,7 @@
         <v>3</v>
       </c>
       <c r="S341">
-        <v>0.002745334</v>
+        <v>0.0029222</v>
       </c>
     </row>
     <row r="342" spans="1:19">
@@ -22445,7 +22439,7 @@
         <v>2</v>
       </c>
       <c r="S342">
-        <v>0.002580209</v>
+        <v>0.0025522</v>
       </c>
     </row>
     <row r="343" spans="1:19">
@@ -22492,7 +22486,7 @@
         <v>3</v>
       </c>
       <c r="S343">
-        <v>0.001883292</v>
+        <v>0.001884</v>
       </c>
     </row>
     <row r="344" spans="1:19">
@@ -22539,7 +22533,7 @@
         <v>3</v>
       </c>
       <c r="S344">
-        <v>0.00174275</v>
+        <v>0.0016719</v>
       </c>
     </row>
     <row r="345" spans="1:19">
@@ -22586,7 +22580,7 @@
         <v>3</v>
       </c>
       <c r="S345">
-        <v>0.001573042</v>
+        <v>0.0015449</v>
       </c>
     </row>
     <row r="346" spans="1:19">
@@ -22633,7 +22627,7 @@
         <v>3</v>
       </c>
       <c r="S346">
-        <v>0.00234025</v>
+        <v>0.0027725</v>
       </c>
     </row>
     <row r="347" spans="1:19">
@@ -22692,7 +22686,7 @@
         <v>3</v>
       </c>
       <c r="S347">
-        <v>0.003822292</v>
+        <v>0.0040214</v>
       </c>
     </row>
     <row r="348" spans="1:19">
@@ -22739,7 +22733,7 @@
         <v>3</v>
       </c>
       <c r="S348">
-        <v>0.002123125</v>
+        <v>0.0020641</v>
       </c>
     </row>
     <row r="349" spans="1:19">
@@ -22798,7 +22792,7 @@
         <v>3</v>
       </c>
       <c r="S349">
-        <v>0.000946833</v>
+        <v>0.0008629</v>
       </c>
     </row>
     <row r="350" spans="1:19">
@@ -22857,7 +22851,7 @@
         <v>3</v>
       </c>
       <c r="S350">
-        <v>0.001332708</v>
+        <v>0.0012888</v>
       </c>
     </row>
     <row r="351" spans="1:19">
@@ -22916,7 +22910,7 @@
         <v>3</v>
       </c>
       <c r="S351">
-        <v>0.003887792</v>
+        <v>0.0039498</v>
       </c>
     </row>
     <row r="352" spans="1:19">
@@ -22963,7 +22957,7 @@
         <v>3</v>
       </c>
       <c r="S352">
-        <v>0.000571167</v>
+        <v>0.0005702</v>
       </c>
     </row>
     <row r="353" spans="1:19">
@@ -23022,7 +23016,7 @@
         <v>3</v>
       </c>
       <c r="S353">
-        <v>0.001712542</v>
+        <v>0.0021481</v>
       </c>
     </row>
     <row r="354" spans="1:19">
@@ -23069,7 +23063,7 @@
         <v>3</v>
       </c>
       <c r="S354">
-        <v>0.003206125</v>
+        <v>0.0033959</v>
       </c>
     </row>
     <row r="355" spans="1:19">
@@ -23128,7 +23122,7 @@
         <v>2</v>
       </c>
       <c r="S355">
-        <v>0.002183084</v>
+        <v>0.0021187</v>
       </c>
     </row>
     <row r="356" spans="1:19">
@@ -23187,7 +23181,7 @@
         <v>3</v>
       </c>
       <c r="S356">
-        <v>0.0021205</v>
+        <v>0.0020996</v>
       </c>
     </row>
     <row r="357" spans="1:19">
@@ -23234,7 +23228,7 @@
         <v>3</v>
       </c>
       <c r="S357">
-        <v>0.002946333</v>
+        <v>0.0030392</v>
       </c>
     </row>
     <row r="358" spans="1:19">
@@ -23293,7 +23287,7 @@
         <v>3</v>
       </c>
       <c r="S358">
-        <v>0.002037625</v>
+        <v>0.0020354</v>
       </c>
     </row>
     <row r="359" spans="1:19">
@@ -23352,7 +23346,7 @@
         <v>3</v>
       </c>
       <c r="S359">
-        <v>0.002381958</v>
+        <v>0.0023335</v>
       </c>
     </row>
     <row r="360" spans="1:19">
@@ -23411,7 +23405,7 @@
         <v>3</v>
       </c>
       <c r="S360">
-        <v>0.002314542</v>
+        <v>0.0022131</v>
       </c>
     </row>
     <row r="361" spans="1:19">
@@ -23458,7 +23452,7 @@
         <v>3</v>
       </c>
       <c r="S361">
-        <v>0.0009291669999999999</v>
+        <v>0.0009009000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:19">
@@ -23505,7 +23499,7 @@
         <v>3</v>
       </c>
       <c r="S362">
-        <v>0.001964125</v>
+        <v>0.0019698</v>
       </c>
     </row>
     <row r="363" spans="1:19">
@@ -23564,7 +23558,7 @@
         <v>3</v>
       </c>
       <c r="S363">
-        <v>0.001767542</v>
+        <v>0.0017537</v>
       </c>
     </row>
     <row r="364" spans="1:19">
@@ -23617,7 +23611,7 @@
         <v>2</v>
       </c>
       <c r="S364">
-        <v>0.003211333</v>
+        <v>0.0034072</v>
       </c>
     </row>
     <row r="365" spans="1:19">
@@ -23664,7 +23658,7 @@
         <v>3</v>
       </c>
       <c r="S365">
-        <v>0.002011458</v>
+        <v>0.0021246</v>
       </c>
     </row>
     <row r="366" spans="1:19">
@@ -23711,7 +23705,7 @@
         <v>3</v>
       </c>
       <c r="S366">
-        <v>0.002785375</v>
+        <v>0.0029431</v>
       </c>
     </row>
     <row r="367" spans="1:19">
@@ -23764,7 +23758,7 @@
         <v>2</v>
       </c>
       <c r="S367">
-        <v>0.002881875</v>
+        <v>0.0031665</v>
       </c>
     </row>
     <row r="368" spans="1:19">
@@ -23823,7 +23817,7 @@
         <v>3</v>
       </c>
       <c r="S368">
-        <v>0.002451625</v>
+        <v>0.0025121</v>
       </c>
     </row>
     <row r="369" spans="1:19">
@@ -23882,7 +23876,7 @@
         <v>3</v>
       </c>
       <c r="S369">
-        <v>0.003127791</v>
+        <v>0.0032066</v>
       </c>
     </row>
     <row r="370" spans="1:19">
@@ -23929,7 +23923,7 @@
         <v>3</v>
       </c>
       <c r="S370">
-        <v>0.00189925</v>
+        <v>0.0018517</v>
       </c>
     </row>
     <row r="371" spans="1:19">
@@ -23976,7 +23970,7 @@
         <v>3</v>
       </c>
       <c r="S371">
-        <v>0.001604125</v>
+        <v>0.0015755</v>
       </c>
     </row>
     <row r="372" spans="1:19">
@@ -24035,7 +24029,7 @@
         <v>3</v>
       </c>
       <c r="S372">
-        <v>0.00044775</v>
+        <v>0.0004411</v>
       </c>
     </row>
     <row r="373" spans="1:19">
@@ -24094,7 +24088,7 @@
         <v>3</v>
       </c>
       <c r="S373">
-        <v>0.002738875</v>
+        <v>0.0032694</v>
       </c>
     </row>
     <row r="374" spans="1:19">
@@ -24153,7 +24147,7 @@
         <v>3</v>
       </c>
       <c r="S374">
-        <v>0.002786583</v>
+        <v>0.0052574</v>
       </c>
     </row>
     <row r="375" spans="1:19">
@@ -24212,7 +24206,7 @@
         <v>3</v>
       </c>
       <c r="S375">
-        <v>0.002794833</v>
+        <v>0.0035224</v>
       </c>
     </row>
     <row r="376" spans="1:19">
@@ -24259,7 +24253,7 @@
         <v>3</v>
       </c>
       <c r="S376">
-        <v>0.002927459</v>
+        <v>0.0043874</v>
       </c>
     </row>
     <row r="377" spans="1:19">
@@ -24306,7 +24300,7 @@
         <v>3</v>
       </c>
       <c r="S377">
-        <v>0.002903166</v>
+        <v>0.0037097</v>
       </c>
     </row>
     <row r="378" spans="1:19">
@@ -24353,7 +24347,7 @@
         <v>3</v>
       </c>
       <c r="S378">
-        <v>0.002464709</v>
+        <v>0.0038877</v>
       </c>
     </row>
     <row r="379" spans="1:19">
@@ -24400,7 +24394,7 @@
         <v>3</v>
       </c>
       <c r="S379">
-        <v>0.001304333</v>
+        <v>0.001894</v>
       </c>
     </row>
     <row r="380" spans="1:19">
@@ -24459,7 +24453,7 @@
         <v>3</v>
       </c>
       <c r="S380">
-        <v>0.002076</v>
+        <v>0.002192</v>
       </c>
     </row>
     <row r="381" spans="1:19">
@@ -24518,7 +24512,7 @@
         <v>3</v>
       </c>
       <c r="S381">
-        <v>0.003378875</v>
+        <v>0.0033904</v>
       </c>
     </row>
     <row r="382" spans="1:19">
@@ -24565,7 +24559,7 @@
         <v>3</v>
       </c>
       <c r="S382">
-        <v>0.002107791</v>
+        <v>0.0026069</v>
       </c>
     </row>
     <row r="383" spans="1:19">
@@ -24624,7 +24618,7 @@
         <v>3</v>
       </c>
       <c r="S383">
-        <v>0.001211833</v>
+        <v>0.0012675</v>
       </c>
     </row>
     <row r="384" spans="1:19">
@@ -24683,7 +24677,7 @@
         <v>3</v>
       </c>
       <c r="S384">
-        <v>0.001062333</v>
+        <v>0.0011855</v>
       </c>
     </row>
     <row r="385" spans="1:19">
@@ -24730,7 +24724,7 @@
         <v>3</v>
       </c>
       <c r="S385">
-        <v>0.003175334</v>
+        <v>0.0031741</v>
       </c>
     </row>
     <row r="386" spans="1:19">
@@ -24789,7 +24783,7 @@
         <v>3</v>
       </c>
       <c r="S386">
-        <v>0.002133333</v>
+        <v>0.0020044</v>
       </c>
     </row>
     <row r="387" spans="1:19">
@@ -24836,7 +24830,7 @@
         <v>3</v>
       </c>
       <c r="S387">
-        <v>0.001699917</v>
+        <v>0.0016185</v>
       </c>
     </row>
     <row r="388" spans="1:19">
@@ -24895,7 +24889,7 @@
         <v>3</v>
       </c>
       <c r="S388">
-        <v>0.004555834</v>
+        <v>0.004365</v>
       </c>
     </row>
     <row r="389" spans="1:19">
@@ -24954,7 +24948,7 @@
         <v>3</v>
       </c>
       <c r="S389">
-        <v>0.002751542</v>
+        <v>0.0026015</v>
       </c>
     </row>
     <row r="390" spans="1:19">
@@ -25013,7 +25007,7 @@
         <v>3</v>
       </c>
       <c r="S390">
-        <v>0.002504125</v>
+        <v>0.0024244</v>
       </c>
     </row>
     <row r="391" spans="1:19">
@@ -25072,7 +25066,7 @@
         <v>3</v>
       </c>
       <c r="S391">
-        <v>0.002846417</v>
+        <v>0.0027203</v>
       </c>
     </row>
     <row r="392" spans="1:19">
@@ -25131,7 +25125,7 @@
         <v>3</v>
       </c>
       <c r="S392">
-        <v>0.00259925</v>
+        <v>0.0025106</v>
       </c>
     </row>
     <row r="393" spans="1:19">
@@ -25190,7 +25184,7 @@
         <v>3</v>
       </c>
       <c r="S393">
-        <v>0.003335625</v>
+        <v>0.0032818</v>
       </c>
     </row>
     <row r="394" spans="1:19">
@@ -25249,7 +25243,7 @@
         <v>3</v>
       </c>
       <c r="S394">
-        <v>0.00229375</v>
+        <v>0.0024154</v>
       </c>
     </row>
     <row r="395" spans="1:19">
@@ -25296,7 +25290,7 @@
         <v>3</v>
       </c>
       <c r="S395">
-        <v>0.001521791</v>
+        <v>0.0014491</v>
       </c>
     </row>
     <row r="396" spans="1:19">
@@ -25355,7 +25349,7 @@
         <v>3</v>
       </c>
       <c r="S396">
-        <v>0.000667083</v>
+        <v>0.0005844</v>
       </c>
     </row>
     <row r="397" spans="1:19">
@@ -25402,7 +25396,7 @@
         <v>3</v>
       </c>
       <c r="S397">
-        <v>0.001927083</v>
+        <v>0.0018002</v>
       </c>
     </row>
     <row r="398" spans="1:19">
@@ -25449,7 +25443,7 @@
         <v>3</v>
       </c>
       <c r="S398">
-        <v>0.001556334</v>
+        <v>0.0015592</v>
       </c>
     </row>
     <row r="399" spans="1:19">
@@ -25508,7 +25502,7 @@
         <v>3</v>
       </c>
       <c r="S399">
-        <v>0.002615</v>
+        <v>0.0025833</v>
       </c>
     </row>
     <row r="400" spans="1:19">
@@ -25555,7 +25549,7 @@
         <v>3</v>
       </c>
       <c r="S400">
-        <v>0.001997792</v>
+        <v>0.0020653</v>
       </c>
     </row>
     <row r="401" spans="1:19">
@@ -25614,7 +25608,7 @@
         <v>3</v>
       </c>
       <c r="S401">
-        <v>0.002070292</v>
+        <v>0.001965</v>
       </c>
     </row>
     <row r="402" spans="1:19">
@@ -25661,7 +25655,7 @@
         <v>3</v>
       </c>
       <c r="S402">
-        <v>0.002198875</v>
+        <v>0.0020316</v>
       </c>
     </row>
     <row r="403" spans="1:19">
@@ -25708,7 +25702,7 @@
         <v>3</v>
       </c>
       <c r="S403">
-        <v>0.001158</v>
+        <v>0.0011307</v>
       </c>
     </row>
     <row r="404" spans="1:19">
@@ -25755,7 +25749,7 @@
         <v>3</v>
       </c>
       <c r="S404">
-        <v>0.003227459</v>
+        <v>0.003203</v>
       </c>
     </row>
     <row r="405" spans="1:19">
@@ -25802,7 +25796,7 @@
         <v>3</v>
       </c>
       <c r="S405">
-        <v>0.002012</v>
+        <v>0.0019533</v>
       </c>
     </row>
     <row r="406" spans="1:19">
@@ -25861,7 +25855,7 @@
         <v>3</v>
       </c>
       <c r="S406">
-        <v>0.004220459</v>
+        <v>0.0043484</v>
       </c>
     </row>
     <row r="407" spans="1:19">
@@ -25908,7 +25902,7 @@
         <v>3</v>
       </c>
       <c r="S407">
-        <v>0.002552084</v>
+        <v>0.0025042</v>
       </c>
     </row>
     <row r="408" spans="1:19">
@@ -25967,7 +25961,7 @@
         <v>2</v>
       </c>
       <c r="S408">
-        <v>0.004211458</v>
+        <v>0.0039181</v>
       </c>
     </row>
     <row r="409" spans="1:19">
@@ -25995,26 +25989,26 @@
       <c r="H409" t="s">
         <v>776</v>
       </c>
+      <c r="I409" t="s">
+        <v>776</v>
+      </c>
       <c r="J409" t="s">
         <v>776</v>
       </c>
+      <c r="K409" t="s">
+        <v>776</v>
+      </c>
       <c r="L409">
-        <v>0</v>
-      </c>
-      <c r="N409" t="s">
-        <v>776</v>
-      </c>
-      <c r="P409" t="s">
-        <v>776</v>
+        <v>1</v>
       </c>
       <c r="Q409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R409">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S409">
-        <v>0.000341958</v>
+        <v>0.0003339</v>
       </c>
     </row>
     <row r="410" spans="1:19">
@@ -26061,7 +26055,7 @@
         <v>3</v>
       </c>
       <c r="S410">
-        <v>0.002184666</v>
+        <v>0.0021594</v>
       </c>
     </row>
     <row r="411" spans="1:19">
@@ -26120,7 +26114,7 @@
         <v>3</v>
       </c>
       <c r="S411">
-        <v>0.003090666</v>
+        <v>0.0030858</v>
       </c>
     </row>
     <row r="412" spans="1:19">
@@ -26179,7 +26173,7 @@
         <v>3</v>
       </c>
       <c r="S412">
-        <v>0.00211425</v>
+        <v>0.0025935</v>
       </c>
     </row>
     <row r="413" spans="1:19">
@@ -26226,7 +26220,7 @@
         <v>3</v>
       </c>
       <c r="S413">
-        <v>0.00293775</v>
+        <v>0.0031895</v>
       </c>
     </row>
     <row r="414" spans="1:19">
@@ -26285,7 +26279,7 @@
         <v>3</v>
       </c>
       <c r="S414">
-        <v>0.001723917</v>
+        <v>0.0015754</v>
       </c>
     </row>
     <row r="415" spans="1:19">
@@ -26344,7 +26338,7 @@
         <v>3</v>
       </c>
       <c r="S415">
-        <v>0.003128667</v>
+        <v>0.0032391</v>
       </c>
     </row>
     <row r="416" spans="1:19">
@@ -26403,7 +26397,7 @@
         <v>3</v>
       </c>
       <c r="S416">
-        <v>0.001758583</v>
+        <v>0.001613</v>
       </c>
     </row>
     <row r="417" spans="1:19">
@@ -26450,7 +26444,7 @@
         <v>3</v>
       </c>
       <c r="S417">
-        <v>0.000307041</v>
+        <v>0.0002982</v>
       </c>
     </row>
     <row r="418" spans="1:19">
@@ -26497,7 +26491,7 @@
         <v>3</v>
       </c>
       <c r="S418">
-        <v>0.000854583</v>
+        <v>0.0008217</v>
       </c>
     </row>
     <row r="419" spans="1:19">
@@ -26556,7 +26550,7 @@
         <v>3</v>
       </c>
       <c r="S419">
-        <v>0.001338875</v>
+        <v>0.0012801</v>
       </c>
     </row>
     <row r="420" spans="1:19">
@@ -26603,7 +26597,7 @@
         <v>3</v>
       </c>
       <c r="S420">
-        <v>0.00106925</v>
+        <v>0.0011605</v>
       </c>
     </row>
     <row r="421" spans="1:19">
@@ -26662,7 +26656,7 @@
         <v>3</v>
       </c>
       <c r="S421">
-        <v>0.001643916</v>
+        <v>0.0020396</v>
       </c>
     </row>
     <row r="422" spans="1:19">
@@ -26721,7 +26715,7 @@
         <v>3</v>
       </c>
       <c r="S422">
-        <v>0.002286458</v>
+        <v>0.0026268</v>
       </c>
     </row>
     <row r="423" spans="1:19">
@@ -26768,7 +26762,7 @@
         <v>3</v>
       </c>
       <c r="S423">
-        <v>0.002862709</v>
+        <v>0.0033747</v>
       </c>
     </row>
     <row r="424" spans="1:19">
@@ -26827,7 +26821,7 @@
         <v>3</v>
       </c>
       <c r="S424">
-        <v>0.00224625</v>
+        <v>0.0021502</v>
       </c>
     </row>
     <row r="425" spans="1:19">
@@ -26886,7 +26880,7 @@
         <v>3</v>
       </c>
       <c r="S425">
-        <v>0.001914541</v>
+        <v>0.002162</v>
       </c>
     </row>
     <row r="426" spans="1:19">
@@ -26945,7 +26939,7 @@
         <v>3</v>
       </c>
       <c r="S426">
-        <v>0.003005834</v>
+        <v>0.0030562</v>
       </c>
     </row>
     <row r="427" spans="1:19">
@@ -27004,7 +26998,7 @@
         <v>3</v>
       </c>
       <c r="S427">
-        <v>0.001670666</v>
+        <v>0.002243</v>
       </c>
     </row>
     <row r="428" spans="1:19">
@@ -27057,7 +27051,7 @@
         <v>2</v>
       </c>
       <c r="S428">
-        <v>0.002229333</v>
+        <v>0.0021014</v>
       </c>
     </row>
     <row r="429" spans="1:19">
@@ -27104,7 +27098,7 @@
         <v>3</v>
       </c>
       <c r="S429">
-        <v>0.002251958</v>
+        <v>0.0021161</v>
       </c>
     </row>
     <row r="430" spans="1:19">
@@ -27163,7 +27157,7 @@
         <v>3</v>
       </c>
       <c r="S430">
-        <v>0.003863708</v>
+        <v>0.0038975</v>
       </c>
     </row>
     <row r="431" spans="1:19">
@@ -27222,7 +27216,7 @@
         <v>3</v>
       </c>
       <c r="S431">
-        <v>0.002262416</v>
+        <v>0.0022322</v>
       </c>
     </row>
     <row r="432" spans="1:19">
@@ -27281,7 +27275,7 @@
         <v>3</v>
       </c>
       <c r="S432">
-        <v>0.002544417</v>
+        <v>0.0029269</v>
       </c>
     </row>
     <row r="433" spans="1:19">
@@ -27328,7 +27322,7 @@
         <v>3</v>
       </c>
       <c r="S433">
-        <v>0.001440917</v>
+        <v>0.0014618</v>
       </c>
     </row>
     <row r="434" spans="1:19">
@@ -27375,7 +27369,7 @@
         <v>3</v>
       </c>
       <c r="S434">
-        <v>0.003413583</v>
+        <v>0.003529</v>
       </c>
     </row>
     <row r="435" spans="1:19">
@@ -27422,7 +27416,7 @@
         <v>3</v>
       </c>
       <c r="S435">
-        <v>0.00187825</v>
+        <v>0.0019894</v>
       </c>
     </row>
     <row r="436" spans="1:19">
@@ -27469,7 +27463,7 @@
         <v>3</v>
       </c>
       <c r="S436">
-        <v>0.003217792</v>
+        <v>0.0033526</v>
       </c>
     </row>
     <row r="437" spans="1:19">
@@ -27516,7 +27510,7 @@
         <v>3</v>
       </c>
       <c r="S437">
-        <v>0.000690625</v>
+        <v>0.0006712000000000001</v>
       </c>
     </row>
     <row r="438" spans="1:19">
@@ -27563,7 +27557,7 @@
         <v>3</v>
       </c>
       <c r="S438">
-        <v>0.001459708</v>
+        <v>0.0013896</v>
       </c>
     </row>
     <row r="439" spans="1:19">
@@ -27610,7 +27604,7 @@
         <v>3</v>
       </c>
       <c r="S439">
-        <v>0.0035615</v>
+        <v>0.0034741</v>
       </c>
     </row>
     <row r="440" spans="1:19">
@@ -27669,7 +27663,7 @@
         <v>3</v>
       </c>
       <c r="S440">
-        <v>0.004638833</v>
+        <v>0.0044544</v>
       </c>
     </row>
     <row r="441" spans="1:19">
@@ -27728,7 +27722,7 @@
         <v>3</v>
       </c>
       <c r="S441">
-        <v>0.002212375</v>
+        <v>0.0021104</v>
       </c>
     </row>
     <row r="442" spans="1:19">
@@ -27787,7 +27781,7 @@
         <v>3</v>
       </c>
       <c r="S442">
-        <v>0.001372208</v>
+        <v>0.0013086</v>
       </c>
     </row>
     <row r="443" spans="1:19">
@@ -27834,7 +27828,7 @@
         <v>3</v>
       </c>
       <c r="S443">
-        <v>0.000464084</v>
+        <v>0.0005155</v>
       </c>
     </row>
     <row r="444" spans="1:19">
@@ -27893,7 +27887,7 @@
         <v>3</v>
       </c>
       <c r="S444">
-        <v>0.003445084</v>
+        <v>0.0033103</v>
       </c>
     </row>
     <row r="445" spans="1:19">
@@ -27952,7 +27946,7 @@
         <v>3</v>
       </c>
       <c r="S445">
-        <v>0.002905833</v>
+        <v>0.0029379</v>
       </c>
     </row>
     <row r="446" spans="1:19">
@@ -28011,7 +28005,7 @@
         <v>2</v>
       </c>
       <c r="S446">
-        <v>0.003371459</v>
+        <v>0.0035998</v>
       </c>
     </row>
     <row r="447" spans="1:19">
@@ -28058,7 +28052,7 @@
         <v>3</v>
       </c>
       <c r="S447">
-        <v>0.00195725</v>
+        <v>0.0018405</v>
       </c>
     </row>
     <row r="448" spans="1:19">
@@ -28105,7 +28099,7 @@
         <v>3</v>
       </c>
       <c r="S448">
-        <v>0.002453084</v>
+        <v>0.0021075</v>
       </c>
     </row>
     <row r="449" spans="1:19">
@@ -28152,7 +28146,7 @@
         <v>3</v>
       </c>
       <c r="S449">
-        <v>0.001705458</v>
+        <v>0.0016377</v>
       </c>
     </row>
     <row r="450" spans="1:19">
@@ -28211,7 +28205,7 @@
         <v>3</v>
       </c>
       <c r="S450">
-        <v>0.002369</v>
+        <v>0.0021217</v>
       </c>
     </row>
     <row r="451" spans="1:19">
@@ -28270,7 +28264,7 @@
         <v>3</v>
       </c>
       <c r="S451">
-        <v>0.003088833</v>
+        <v>0.0028845</v>
       </c>
     </row>
   </sheetData>

--- a/CTG.xlsx
+++ b/CTG.xlsx
@@ -3880,19 +3880,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B2">
         <v>1350</v>
       </c>
       <c r="C2">
-        <v>9.58</v>
+        <v>9.59</v>
       </c>
       <c r="D2">
-        <v>0.006</v>
+        <v>0.0062</v>
       </c>
       <c r="E2">
-        <v>0.0025</v>
+        <v>0.0026</v>
       </c>
     </row>
   </sheetData>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="S2">
-        <v>0.0051434</v>
+        <v>0.0050776</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0.0020446</v>
+        <v>0.0021694</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0017559</v>
+        <v>0.001707</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4182,7 +4182,7 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>0.0038691</v>
+        <v>0.0045268</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4241,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="S6">
-        <v>0.0016401</v>
+        <v>0.0015721</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="S7">
-        <v>0.0032745</v>
+        <v>0.0031611</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4359,7 +4359,7 @@
         <v>3</v>
       </c>
       <c r="S8">
-        <v>0.0030271</v>
+        <v>0.0031284</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4418,7 +4418,7 @@
         <v>3</v>
       </c>
       <c r="S9">
-        <v>0.0032839</v>
+        <v>0.0034539</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4477,7 +4477,7 @@
         <v>3</v>
       </c>
       <c r="S10">
-        <v>0.003537</v>
+        <v>0.0036394</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -4536,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="S11">
-        <v>0.0020904</v>
+        <v>0.0021799</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4583,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="S12">
-        <v>0.0036075</v>
+        <v>0.0030337</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4642,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="S13">
-        <v>0.0034863</v>
+        <v>0.0033071</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4701,7 +4701,7 @@
         <v>3</v>
       </c>
       <c r="S14">
-        <v>0.0011721</v>
+        <v>0.0009193</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="S15">
-        <v>0.0037982</v>
+        <v>0.0030702</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4819,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="S16">
-        <v>0.0020633</v>
+        <v>0.0028929</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4878,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="S17">
-        <v>0.0036543</v>
+        <v>0.0058477</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4937,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="S18">
-        <v>0.0028228</v>
+        <v>0.0030153</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4996,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="S19">
-        <v>0.0032452</v>
+        <v>0.0032599</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5055,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="S20">
-        <v>0.0041981</v>
+        <v>0.0035609</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -5114,7 +5114,7 @@
         <v>3</v>
       </c>
       <c r="S21">
-        <v>0.0038377</v>
+        <v>0.0032591</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -5173,7 +5173,7 @@
         <v>3</v>
       </c>
       <c r="S22">
-        <v>0.004067</v>
+        <v>0.0034492</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5232,7 +5232,7 @@
         <v>3</v>
       </c>
       <c r="S23">
-        <v>0.0018687</v>
+        <v>0.0018421</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -5291,7 +5291,7 @@
         <v>3</v>
       </c>
       <c r="S24">
-        <v>0.0023171</v>
+        <v>0.0020494</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5350,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="S25">
-        <v>0.0023226</v>
+        <v>0.0019523</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5409,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="S26">
-        <v>0.0013504</v>
+        <v>0.0014342</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5468,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="S27">
-        <v>0.0041587</v>
+        <v>0.0044896</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5527,7 +5527,7 @@
         <v>3</v>
       </c>
       <c r="S28">
-        <v>0.0032324</v>
+        <v>0.0033289</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5586,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="S29">
-        <v>0.0035315</v>
+        <v>0.0034619</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5609,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="S30">
-        <v>9E-07</v>
+        <v>7E-07</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5668,7 +5668,7 @@
         <v>3</v>
       </c>
       <c r="S31">
-        <v>0.0020284</v>
+        <v>0.0018771</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5727,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="S32">
-        <v>0.0045812</v>
+        <v>0.0043317</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5786,7 +5786,7 @@
         <v>3</v>
       </c>
       <c r="S33">
-        <v>0.0011217</v>
+        <v>0.001072</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5845,7 +5845,7 @@
         <v>3</v>
       </c>
       <c r="S34">
-        <v>0.0012274</v>
+        <v>0.0010864</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5904,7 +5904,7 @@
         <v>3</v>
       </c>
       <c r="S35">
-        <v>0.001997</v>
+        <v>0.0018317</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5963,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="S36">
-        <v>0.0031313</v>
+        <v>0.0030055</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -6022,7 +6022,7 @@
         <v>3</v>
       </c>
       <c r="S37">
-        <v>0.0034886</v>
+        <v>0.0034626</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -6081,7 +6081,7 @@
         <v>3</v>
       </c>
       <c r="S38">
-        <v>0.0048581</v>
+        <v>0.004688</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -6140,7 +6140,7 @@
         <v>3</v>
       </c>
       <c r="S39">
-        <v>0.0033992</v>
+        <v>0.0034315</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -6199,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="S40">
-        <v>0.003746</v>
+        <v>0.0039246</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -6258,7 +6258,7 @@
         <v>3</v>
       </c>
       <c r="S41">
-        <v>0.0036612</v>
+        <v>0.0038214</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -6317,7 +6317,7 @@
         <v>3</v>
       </c>
       <c r="S42">
-        <v>0.0033634</v>
+        <v>0.0035674</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -6376,7 +6376,7 @@
         <v>3</v>
       </c>
       <c r="S43">
-        <v>0.0021444</v>
+        <v>0.0021337</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6435,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="S44">
-        <v>0.003061</v>
+        <v>0.0029407</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6458,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="S45">
-        <v>7E-07</v>
+        <v>6E-07</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6517,7 +6517,7 @@
         <v>3</v>
       </c>
       <c r="S46">
-        <v>0.0032472</v>
+        <v>0.0033812</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6576,7 +6576,7 @@
         <v>3</v>
       </c>
       <c r="S47">
-        <v>0.0048322</v>
+        <v>0.0048693</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6635,7 +6635,7 @@
         <v>3</v>
       </c>
       <c r="S48">
-        <v>0.0022342</v>
+        <v>0.0024129</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6694,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="S49">
-        <v>0.0034136</v>
+        <v>0.0038257</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6741,7 +6741,7 @@
         <v>3</v>
       </c>
       <c r="S50">
-        <v>0.0028123</v>
+        <v>0.0028688</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -6800,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="S51">
-        <v>0.0027548</v>
+        <v>0.0027746</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -6859,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="S52">
-        <v>0.0041529</v>
+        <v>0.0034352</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -6918,7 +6918,7 @@
         <v>3</v>
       </c>
       <c r="S53">
-        <v>0.0034817</v>
+        <v>0.0038519</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="S54">
-        <v>0.0039099</v>
+        <v>0.0039242</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -7036,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="S55">
-        <v>0.0031006</v>
+        <v>0.0031835</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -7095,7 +7095,7 @@
         <v>3</v>
       </c>
       <c r="S56">
-        <v>0.0037295</v>
+        <v>0.0037037</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -7154,7 +7154,7 @@
         <v>3</v>
       </c>
       <c r="S57">
-        <v>0.0017842</v>
+        <v>0.0016181</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -7213,7 +7213,7 @@
         <v>3</v>
       </c>
       <c r="S58">
-        <v>0.003734</v>
+        <v>0.0052697</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -7272,7 +7272,7 @@
         <v>3</v>
       </c>
       <c r="S59">
-        <v>0.0032286</v>
+        <v>0.0032462</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>2</v>
       </c>
       <c r="S60">
-        <v>0.0021104</v>
+        <v>0.0020984</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -7390,7 +7390,7 @@
         <v>3</v>
       </c>
       <c r="S61">
-        <v>0.0033232</v>
+        <v>0.0035273</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -7449,7 +7449,7 @@
         <v>3</v>
       </c>
       <c r="S62">
-        <v>0.0041766</v>
+        <v>0.0047076</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -7508,7 +7508,7 @@
         <v>3</v>
       </c>
       <c r="S63">
-        <v>0.0020553</v>
+        <v>0.002028</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -7567,7 +7567,7 @@
         <v>3</v>
       </c>
       <c r="S64">
-        <v>0.0030641</v>
+        <v>0.0031909</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -7626,7 +7626,7 @@
         <v>2</v>
       </c>
       <c r="S65">
-        <v>0.0022938</v>
+        <v>0.0023943</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -7685,7 +7685,7 @@
         <v>3</v>
       </c>
       <c r="S66">
-        <v>0.0033424</v>
+        <v>0.0033954</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -7744,7 +7744,7 @@
         <v>2</v>
       </c>
       <c r="S67">
-        <v>0.0013938</v>
+        <v>0.0014484</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -7803,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="S68">
-        <v>0.0032259</v>
+        <v>0.0034024</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -7862,7 +7862,7 @@
         <v>3</v>
       </c>
       <c r="S69">
-        <v>0.0028408</v>
+        <v>0.0029005</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -7921,7 +7921,7 @@
         <v>3</v>
       </c>
       <c r="S70">
-        <v>0.0038884</v>
+        <v>0.0041037</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -7980,7 +7980,7 @@
         <v>3</v>
       </c>
       <c r="S71">
-        <v>0.0029922</v>
+        <v>0.0029832</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -8039,7 +8039,7 @@
         <v>3</v>
       </c>
       <c r="S72">
-        <v>0.0032101</v>
+        <v>0.0032932</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -8098,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="S73">
-        <v>0.002441</v>
+        <v>0.0023763</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -8157,7 +8157,7 @@
         <v>3</v>
       </c>
       <c r="S74">
-        <v>0.0029331</v>
+        <v>0.0024487</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -8216,7 +8216,7 @@
         <v>3</v>
       </c>
       <c r="S75">
-        <v>0.0020043</v>
+        <v>0.0024011</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -8275,7 +8275,7 @@
         <v>2</v>
       </c>
       <c r="S76">
-        <v>0.0021371</v>
+        <v>0.0019137</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -8334,7 +8334,7 @@
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.0053201</v>
+        <v>0.004898</v>
       </c>
     </row>
     <row r="78" spans="1:19">
@@ -8393,7 +8393,7 @@
         <v>3</v>
       </c>
       <c r="S78">
-        <v>0.0035551</v>
+        <v>0.0032873</v>
       </c>
     </row>
     <row r="79" spans="1:19">
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="S79">
-        <v>0.002491</v>
+        <v>0.0025252</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -8499,7 +8499,7 @@
         <v>3</v>
       </c>
       <c r="S80">
-        <v>0.0022217</v>
+        <v>0.0022292</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -8558,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="S81">
-        <v>0.0039121</v>
+        <v>0.0040726</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -8617,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="S82">
-        <v>0.0033962</v>
+        <v>0.003376</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -8676,7 +8676,7 @@
         <v>3</v>
       </c>
       <c r="S83">
-        <v>0.004033</v>
+        <v>0.0041285</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -8735,7 +8735,7 @@
         <v>3</v>
       </c>
       <c r="S84">
-        <v>0.0020441</v>
+        <v>0.0019228</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -8794,7 +8794,7 @@
         <v>3</v>
       </c>
       <c r="S85">
-        <v>0.0030046</v>
+        <v>0.0029019</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -8853,7 +8853,7 @@
         <v>3</v>
       </c>
       <c r="S86">
-        <v>0.0029074</v>
+        <v>0.0029126</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -8935,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="S88">
-        <v>0.0035863</v>
+        <v>0.0037557</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -8994,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="S89">
-        <v>0.002907</v>
+        <v>0.0033232</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -9053,7 +9053,7 @@
         <v>3</v>
       </c>
       <c r="S90">
-        <v>0.0035238</v>
+        <v>0.0034768</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -9112,7 +9112,7 @@
         <v>3</v>
       </c>
       <c r="S91">
-        <v>0.003905</v>
+        <v>0.003365</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -9171,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="S92">
-        <v>0.0043719</v>
+        <v>0.0040464</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -9230,7 +9230,7 @@
         <v>3</v>
       </c>
       <c r="S93">
-        <v>0.00145</v>
+        <v>0.001419</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -9283,7 +9283,7 @@
         <v>2</v>
       </c>
       <c r="S94">
-        <v>0.0035346</v>
+        <v>0.0040373</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -9342,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="S95">
-        <v>0.0034968</v>
+        <v>0.0035473</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -9401,7 +9401,7 @@
         <v>3</v>
       </c>
       <c r="S96">
-        <v>0.0040086</v>
+        <v>0.0040664</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -9460,7 +9460,7 @@
         <v>3</v>
       </c>
       <c r="S97">
-        <v>0.0043109</v>
+        <v>0.0043661</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -9519,7 +9519,7 @@
         <v>3</v>
       </c>
       <c r="S98">
-        <v>0.0035166</v>
+        <v>0.003777</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -9578,7 +9578,7 @@
         <v>3</v>
       </c>
       <c r="S99">
-        <v>0.0029395</v>
+        <v>0.0031005</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -9637,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="S100">
-        <v>0.0032045</v>
+        <v>0.0033846</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -9696,7 +9696,7 @@
         <v>3</v>
       </c>
       <c r="S101">
-        <v>0.0038371</v>
+        <v>0.0043049</v>
       </c>
     </row>
     <row r="102" spans="1:19">
@@ -9755,7 +9755,7 @@
         <v>3</v>
       </c>
       <c r="S102">
-        <v>0.0059005</v>
+        <v>0.0041322</v>
       </c>
     </row>
     <row r="103" spans="1:19">
@@ -9814,7 +9814,7 @@
         <v>3</v>
       </c>
       <c r="S103">
-        <v>0.0034297</v>
+        <v>0.0038312</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -9873,7 +9873,7 @@
         <v>3</v>
       </c>
       <c r="S104">
-        <v>0.0026203</v>
+        <v>0.0023812</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -9932,7 +9932,7 @@
         <v>3</v>
       </c>
       <c r="S105">
-        <v>0.0049883</v>
+        <v>0.0037713</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="S106">
-        <v>0.0032868</v>
+        <v>0.0029179</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -10050,7 +10050,7 @@
         <v>3</v>
       </c>
       <c r="S107">
-        <v>0.0033239</v>
+        <v>0.0037915</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -10109,7 +10109,7 @@
         <v>3</v>
       </c>
       <c r="S108">
-        <v>0.0019744</v>
+        <v>0.0019011</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -10168,7 +10168,7 @@
         <v>3</v>
       </c>
       <c r="S109">
-        <v>0.0031448</v>
+        <v>0.0033613</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -10191,7 +10191,7 @@
         <v>3</v>
       </c>
       <c r="S110">
-        <v>6E-07</v>
+        <v>7E-07</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -10250,7 +10250,7 @@
         <v>3</v>
       </c>
       <c r="S111">
-        <v>0.0033332</v>
+        <v>0.0035739</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -10309,7 +10309,7 @@
         <v>3</v>
       </c>
       <c r="S112">
-        <v>0.0042989</v>
+        <v>0.0043768</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -10368,7 +10368,7 @@
         <v>3</v>
       </c>
       <c r="S113">
-        <v>0.002789</v>
+        <v>0.0030573</v>
       </c>
     </row>
     <row r="114" spans="1:19">
@@ -10415,7 +10415,7 @@
         <v>3</v>
       </c>
       <c r="S114">
-        <v>0.0025704</v>
+        <v>0.0027581</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -10462,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="S115">
-        <v>0.0029798</v>
+        <v>0.0030959</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -10521,7 +10521,7 @@
         <v>3</v>
       </c>
       <c r="S116">
-        <v>0.0023754</v>
+        <v>0.0022768</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -10580,7 +10580,7 @@
         <v>3</v>
       </c>
       <c r="S117">
-        <v>0.0014672</v>
+        <v>0.0014819</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -10639,7 +10639,7 @@
         <v>3</v>
       </c>
       <c r="S118">
-        <v>0.0035961</v>
+        <v>0.0037633</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -10698,7 +10698,7 @@
         <v>3</v>
       </c>
       <c r="S119">
-        <v>0.0034456</v>
+        <v>0.0039161</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -10757,7 +10757,7 @@
         <v>3</v>
       </c>
       <c r="S120">
-        <v>0.0022939</v>
+        <v>0.002396</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -10816,7 +10816,7 @@
         <v>3</v>
       </c>
       <c r="S121">
-        <v>0.0014126</v>
+        <v>0.0016038</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -10875,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="S122">
-        <v>0.0031665</v>
+        <v>0.0033123</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -10934,7 +10934,7 @@
         <v>3</v>
       </c>
       <c r="S123">
-        <v>0.0059557</v>
+        <v>0.0044118</v>
       </c>
     </row>
     <row r="124" spans="1:19">
@@ -10975,7 +10975,7 @@
         <v>2</v>
       </c>
       <c r="S124">
-        <v>0.0027579</v>
+        <v>0.0027965</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -11034,7 +11034,7 @@
         <v>3</v>
       </c>
       <c r="S125">
-        <v>0.0024046</v>
+        <v>0.0026174</v>
       </c>
     </row>
     <row r="126" spans="1:19">
@@ -11093,7 +11093,7 @@
         <v>3</v>
       </c>
       <c r="S126">
-        <v>0.0025348</v>
+        <v>0.0026186</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -11152,7 +11152,7 @@
         <v>3</v>
       </c>
       <c r="S127">
-        <v>0.0046821</v>
+        <v>0.0042155</v>
       </c>
     </row>
     <row r="128" spans="1:19">
@@ -11211,7 +11211,7 @@
         <v>3</v>
       </c>
       <c r="S128">
-        <v>0.0029068</v>
+        <v>0.002595</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -11270,7 +11270,7 @@
         <v>3</v>
       </c>
       <c r="S129">
-        <v>0.002814</v>
+        <v>0.0027428</v>
       </c>
     </row>
     <row r="130" spans="1:19">
@@ -11329,7 +11329,7 @@
         <v>3</v>
       </c>
       <c r="S130">
-        <v>0.0022421</v>
+        <v>0.0031987</v>
       </c>
     </row>
     <row r="131" spans="1:19">
@@ -11388,7 +11388,7 @@
         <v>3</v>
       </c>
       <c r="S131">
-        <v>0.0030416</v>
+        <v>0.0025554</v>
       </c>
     </row>
     <row r="132" spans="1:19">
@@ -11447,7 +11447,7 @@
         <v>3</v>
       </c>
       <c r="S132">
-        <v>0.0023121</v>
+        <v>0.0024339</v>
       </c>
     </row>
     <row r="133" spans="1:19">
@@ -11506,7 +11506,7 @@
         <v>3</v>
       </c>
       <c r="S133">
-        <v>0.0023848</v>
+        <v>0.0020056</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -11565,7 +11565,7 @@
         <v>3</v>
       </c>
       <c r="S134">
-        <v>0.0039489</v>
+        <v>0.0039365</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -11624,7 +11624,7 @@
         <v>3</v>
       </c>
       <c r="S135">
-        <v>0.0030739</v>
+        <v>0.003331</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -11683,7 +11683,7 @@
         <v>3</v>
       </c>
       <c r="S136">
-        <v>0.0034139</v>
+        <v>0.0034371</v>
       </c>
     </row>
     <row r="137" spans="1:19">
@@ -11742,7 +11742,7 @@
         <v>3</v>
       </c>
       <c r="S137">
-        <v>0.0031189</v>
+        <v>0.0029321</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -11801,7 +11801,7 @@
         <v>3</v>
       </c>
       <c r="S138">
-        <v>0.0022437</v>
+        <v>0.0022287</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -11860,7 +11860,7 @@
         <v>3</v>
       </c>
       <c r="S139">
-        <v>0.0040544</v>
+        <v>0.0051931</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -11919,7 +11919,7 @@
         <v>3</v>
       </c>
       <c r="S140">
-        <v>0.002497</v>
+        <v>0.0026196</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -11966,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="S141">
-        <v>0.0014301</v>
+        <v>0.0014296</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -12025,7 +12025,7 @@
         <v>3</v>
       </c>
       <c r="S142">
-        <v>0.002285</v>
+        <v>0.0023772</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -12084,7 +12084,7 @@
         <v>3</v>
       </c>
       <c r="S143">
-        <v>0.004884</v>
+        <v>0.0044286</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -12143,7 +12143,7 @@
         <v>3</v>
       </c>
       <c r="S144">
-        <v>0.0031616</v>
+        <v>0.003177</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -12202,7 +12202,7 @@
         <v>3</v>
       </c>
       <c r="S145">
-        <v>0.002794</v>
+        <v>0.0029452</v>
       </c>
     </row>
     <row r="146" spans="1:19">
@@ -12261,7 +12261,7 @@
         <v>3</v>
       </c>
       <c r="S146">
-        <v>0.0037287</v>
+        <v>0.004026</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -12320,7 +12320,7 @@
         <v>3</v>
       </c>
       <c r="S147">
-        <v>0.002593</v>
+        <v>0.0026062</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -12379,7 +12379,7 @@
         <v>3</v>
       </c>
       <c r="S148">
-        <v>0.0031363</v>
+        <v>0.003085</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -12438,7 +12438,7 @@
         <v>3</v>
       </c>
       <c r="S149">
-        <v>0.0014353</v>
+        <v>0.0014761</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -12497,7 +12497,7 @@
         <v>3</v>
       </c>
       <c r="S150">
-        <v>0.0026618</v>
+        <v>0.0026162</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -12556,7 +12556,7 @@
         <v>3</v>
       </c>
       <c r="S151">
-        <v>0.0037275</v>
+        <v>0.0036635</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -12603,7 +12603,7 @@
         <v>3</v>
       </c>
       <c r="S152">
-        <v>0.002907</v>
+        <v>0.0029726</v>
       </c>
     </row>
     <row r="153" spans="1:19">
@@ -12662,7 +12662,7 @@
         <v>3</v>
       </c>
       <c r="S153">
-        <v>0.0026981</v>
+        <v>0.0027923</v>
       </c>
     </row>
     <row r="154" spans="1:19">
@@ -12709,7 +12709,7 @@
         <v>3</v>
       </c>
       <c r="S154">
-        <v>0.0021489</v>
+        <v>0.0022383</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -12756,7 +12756,7 @@
         <v>3</v>
       </c>
       <c r="S155">
-        <v>0.0016616</v>
+        <v>0.0019298</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -12803,7 +12803,7 @@
         <v>3</v>
       </c>
       <c r="S156">
-        <v>0.0012768</v>
+        <v>0.0013552</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -12850,7 +12850,7 @@
         <v>3</v>
       </c>
       <c r="S157">
-        <v>0.0023286</v>
+        <v>0.0024765</v>
       </c>
     </row>
     <row r="158" spans="1:19">
@@ -12897,7 +12897,7 @@
         <v>3</v>
       </c>
       <c r="S158">
-        <v>0.003121</v>
+        <v>0.0029738</v>
       </c>
     </row>
     <row r="159" spans="1:19">
@@ -12956,7 +12956,7 @@
         <v>3</v>
       </c>
       <c r="S159">
-        <v>0.00249</v>
+        <v>0.002053</v>
       </c>
     </row>
     <row r="160" spans="1:19">
@@ -13015,7 +13015,7 @@
         <v>3</v>
       </c>
       <c r="S160">
-        <v>0.0033184</v>
+        <v>0.0035035</v>
       </c>
     </row>
     <row r="161" spans="1:19">
@@ -13074,7 +13074,7 @@
         <v>3</v>
       </c>
       <c r="S161">
-        <v>0.0031815</v>
+        <v>0.0030258</v>
       </c>
     </row>
     <row r="162" spans="1:19">
@@ -13133,7 +13133,7 @@
         <v>3</v>
       </c>
       <c r="S162">
-        <v>0.0038974</v>
+        <v>0.0040725</v>
       </c>
     </row>
     <row r="163" spans="1:19">
@@ -13192,7 +13192,7 @@
         <v>3</v>
       </c>
       <c r="S163">
-        <v>0.0022855</v>
+        <v>0.0023125</v>
       </c>
     </row>
     <row r="164" spans="1:19">
@@ -13245,7 +13245,7 @@
         <v>2</v>
       </c>
       <c r="S164">
-        <v>0.0018717</v>
+        <v>0.0019085</v>
       </c>
     </row>
     <row r="165" spans="1:19">
@@ -13304,7 +13304,7 @@
         <v>3</v>
       </c>
       <c r="S165">
-        <v>0.0021454</v>
+        <v>0.0022573</v>
       </c>
     </row>
     <row r="166" spans="1:19">
@@ -13363,7 +13363,7 @@
         <v>3</v>
       </c>
       <c r="S166">
-        <v>0.0028598</v>
+        <v>0.0028045</v>
       </c>
     </row>
     <row r="167" spans="1:19">
@@ -13410,7 +13410,7 @@
         <v>1</v>
       </c>
       <c r="S167">
-        <v>0.0022714</v>
+        <v>0.0022837</v>
       </c>
     </row>
     <row r="168" spans="1:19">
@@ -13457,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="S168">
-        <v>0.0019495</v>
+        <v>0.0019878</v>
       </c>
     </row>
     <row r="169" spans="1:19">
@@ -13485,26 +13485,26 @@
       <c r="H169" t="s">
         <v>649</v>
       </c>
+      <c r="I169" t="s">
+        <v>649</v>
+      </c>
       <c r="J169" t="s">
         <v>649</v>
       </c>
+      <c r="K169" t="s">
+        <v>649</v>
+      </c>
       <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="N169" t="s">
-        <v>649</v>
-      </c>
-      <c r="P169" t="s">
-        <v>649</v>
+        <v>1</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S169">
-        <v>0.0008549</v>
+        <v>0.0008604</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="S170">
-        <v>0.0007439</v>
+        <v>0.0007499</v>
       </c>
     </row>
     <row r="171" spans="1:19">
@@ -13610,7 +13610,7 @@
         <v>3</v>
       </c>
       <c r="S171">
-        <v>0.001155</v>
+        <v>0.0010556</v>
       </c>
     </row>
     <row r="172" spans="1:19">
@@ -13657,7 +13657,7 @@
         <v>3</v>
       </c>
       <c r="S172">
-        <v>0.0020151</v>
+        <v>0.0021704</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -13704,7 +13704,7 @@
         <v>3</v>
       </c>
       <c r="S173">
-        <v>0.0015735</v>
+        <v>0.001697</v>
       </c>
     </row>
     <row r="174" spans="1:19">
@@ -13751,7 +13751,7 @@
         <v>3</v>
       </c>
       <c r="S174">
-        <v>0.0031308</v>
+        <v>0.0030315</v>
       </c>
     </row>
     <row r="175" spans="1:19">
@@ -13810,7 +13810,7 @@
         <v>3</v>
       </c>
       <c r="S175">
-        <v>0.0032894</v>
+        <v>0.0027997</v>
       </c>
     </row>
     <row r="176" spans="1:19">
@@ -13857,7 +13857,7 @@
         <v>3</v>
       </c>
       <c r="S176">
-        <v>0.0028603</v>
+        <v>0.0028491</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -13904,7 +13904,7 @@
         <v>3</v>
       </c>
       <c r="S177">
-        <v>0.0021669</v>
+        <v>0.0021946</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -13963,7 +13963,7 @@
         <v>3</v>
       </c>
       <c r="S178">
-        <v>0.0030361</v>
+        <v>0.0031619</v>
       </c>
     </row>
     <row r="179" spans="1:19">
@@ -14010,7 +14010,7 @@
         <v>3</v>
       </c>
       <c r="S179">
-        <v>0.0008228000000000001</v>
+        <v>0.0008497</v>
       </c>
     </row>
     <row r="180" spans="1:19">
@@ -14069,7 +14069,7 @@
         <v>3</v>
       </c>
       <c r="S180">
-        <v>0.0012013</v>
+        <v>0.0012715</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -14128,7 +14128,7 @@
         <v>3</v>
       </c>
       <c r="S181">
-        <v>0.0037277</v>
+        <v>0.0037252</v>
       </c>
     </row>
     <row r="182" spans="1:19">
@@ -14187,7 +14187,7 @@
         <v>3</v>
       </c>
       <c r="S182">
-        <v>0.0008049</v>
+        <v>0.00083</v>
       </c>
     </row>
     <row r="183" spans="1:19">
@@ -14246,7 +14246,7 @@
         <v>3</v>
       </c>
       <c r="S183">
-        <v>0.0030232</v>
+        <v>0.0032654</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -14293,7 +14293,7 @@
         <v>3</v>
       </c>
       <c r="S184">
-        <v>0.0032002</v>
+        <v>0.0035564</v>
       </c>
     </row>
     <row r="185" spans="1:19">
@@ -14340,7 +14340,7 @@
         <v>3</v>
       </c>
       <c r="S185">
-        <v>0.0030134</v>
+        <v>0.0032238</v>
       </c>
     </row>
     <row r="186" spans="1:19">
@@ -14387,7 +14387,7 @@
         <v>3</v>
       </c>
       <c r="S186">
-        <v>0.0018165</v>
+        <v>0.0020015</v>
       </c>
     </row>
     <row r="187" spans="1:19">
@@ -14446,7 +14446,7 @@
         <v>3</v>
       </c>
       <c r="S187">
-        <v>0.0021703</v>
+        <v>0.0022117</v>
       </c>
     </row>
     <row r="188" spans="1:19">
@@ -14493,7 +14493,7 @@
         <v>3</v>
       </c>
       <c r="S188">
-        <v>0.0019837</v>
+        <v>0.0020809</v>
       </c>
     </row>
     <row r="189" spans="1:19">
@@ -14540,7 +14540,7 @@
         <v>3</v>
       </c>
       <c r="S189">
-        <v>0.0031073</v>
+        <v>0.0028026</v>
       </c>
     </row>
     <row r="190" spans="1:19">
@@ -14587,7 +14587,7 @@
         <v>3</v>
       </c>
       <c r="S190">
-        <v>0.0033046</v>
+        <v>0.0035687</v>
       </c>
     </row>
     <row r="191" spans="1:19">
@@ -14646,7 +14646,7 @@
         <v>3</v>
       </c>
       <c r="S191">
-        <v>0.0030048</v>
+        <v>0.0033741</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -14693,7 +14693,7 @@
         <v>3</v>
       </c>
       <c r="S192">
-        <v>0.0012866</v>
+        <v>0.0016103</v>
       </c>
     </row>
     <row r="193" spans="1:19">
@@ -14752,7 +14752,7 @@
         <v>3</v>
       </c>
       <c r="S193">
-        <v>0.0010165</v>
+        <v>0.0012554</v>
       </c>
     </row>
     <row r="194" spans="1:19">
@@ -14811,7 +14811,7 @@
         <v>3</v>
       </c>
       <c r="S194">
-        <v>0.0033138</v>
+        <v>0.0037626</v>
       </c>
     </row>
     <row r="195" spans="1:19">
@@ -14858,7 +14858,7 @@
         <v>2</v>
       </c>
       <c r="S195">
-        <v>0.0022985</v>
+        <v>0.001571</v>
       </c>
     </row>
     <row r="196" spans="1:19">
@@ -14917,7 +14917,7 @@
         <v>3</v>
       </c>
       <c r="S196">
-        <v>0.004063</v>
+        <v>0.0035867</v>
       </c>
     </row>
     <row r="197" spans="1:19">
@@ -14964,7 +14964,7 @@
         <v>3</v>
       </c>
       <c r="S197">
-        <v>0.0028489</v>
+        <v>0.002811</v>
       </c>
     </row>
     <row r="198" spans="1:19">
@@ -15011,7 +15011,7 @@
         <v>3</v>
       </c>
       <c r="S198">
-        <v>0.0009168</v>
+        <v>0.0009806999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:19">
@@ -15070,7 +15070,7 @@
         <v>3</v>
       </c>
       <c r="S199">
-        <v>0.0030644</v>
+        <v>0.0032349</v>
       </c>
     </row>
     <row r="200" spans="1:19">
@@ -15129,7 +15129,7 @@
         <v>3</v>
       </c>
       <c r="S200">
-        <v>0.001773</v>
+        <v>0.0018816</v>
       </c>
     </row>
     <row r="201" spans="1:19">
@@ -15188,7 +15188,7 @@
         <v>3</v>
       </c>
       <c r="S201">
-        <v>0.0038403</v>
+        <v>0.0036509</v>
       </c>
     </row>
     <row r="202" spans="1:19">
@@ -15235,7 +15235,7 @@
         <v>3</v>
       </c>
       <c r="S202">
-        <v>0.0028237</v>
+        <v>0.0026966</v>
       </c>
     </row>
     <row r="203" spans="1:19">
@@ -15282,7 +15282,7 @@
         <v>3</v>
       </c>
       <c r="S203">
-        <v>0.0016341</v>
+        <v>0.0014083</v>
       </c>
     </row>
     <row r="204" spans="1:19">
@@ -15341,7 +15341,7 @@
         <v>3</v>
       </c>
       <c r="S204">
-        <v>0.0021231</v>
+        <v>0.0020551</v>
       </c>
     </row>
     <row r="205" spans="1:19">
@@ -15400,7 +15400,7 @@
         <v>3</v>
       </c>
       <c r="S205">
-        <v>0.0035461</v>
+        <v>0.0034759</v>
       </c>
     </row>
     <row r="206" spans="1:19">
@@ -15447,7 +15447,7 @@
         <v>3</v>
       </c>
       <c r="S206">
-        <v>0.0014942</v>
+        <v>0.0015791</v>
       </c>
     </row>
     <row r="207" spans="1:19">
@@ -15494,7 +15494,7 @@
         <v>3</v>
       </c>
       <c r="S207">
-        <v>0.0008152</v>
+        <v>0.0008299</v>
       </c>
     </row>
     <row r="208" spans="1:19">
@@ -15553,7 +15553,7 @@
         <v>3</v>
       </c>
       <c r="S208">
-        <v>0.0018065</v>
+        <v>0.0018484</v>
       </c>
     </row>
     <row r="209" spans="1:19">
@@ -15600,7 +15600,7 @@
         <v>3</v>
       </c>
       <c r="S209">
-        <v>0.0028689</v>
+        <v>0.0028598</v>
       </c>
     </row>
     <row r="210" spans="1:19">
@@ -15632,22 +15632,22 @@
         <v>957</v>
       </c>
       <c r="N210" t="s">
-        <v>957</v>
+        <v>800</v>
       </c>
       <c r="O210" t="s">
         <v>957</v>
       </c>
       <c r="P210" t="s">
-        <v>957</v>
+        <v>800</v>
       </c>
       <c r="Q210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S210">
-        <v>0.0026349</v>
+        <v>0.0026664</v>
       </c>
     </row>
     <row r="211" spans="1:19">
@@ -15694,7 +15694,7 @@
         <v>3</v>
       </c>
       <c r="S211">
-        <v>0.003049</v>
+        <v>0.0032062</v>
       </c>
     </row>
     <row r="212" spans="1:19">
@@ -15741,7 +15741,7 @@
         <v>3</v>
       </c>
       <c r="S212">
-        <v>0.0017469</v>
+        <v>0.0018843</v>
       </c>
     </row>
     <row r="213" spans="1:19">
@@ -15788,7 +15788,7 @@
         <v>3</v>
       </c>
       <c r="S213">
-        <v>0.0009387</v>
+        <v>0.0011775</v>
       </c>
     </row>
     <row r="214" spans="1:19">
@@ -15835,7 +15835,7 @@
         <v>3</v>
       </c>
       <c r="S214">
-        <v>0.0014621</v>
+        <v>0.0016245</v>
       </c>
     </row>
     <row r="215" spans="1:19">
@@ -15894,7 +15894,7 @@
         <v>3</v>
       </c>
       <c r="S215">
-        <v>0.0028556</v>
+        <v>0.0028991</v>
       </c>
     </row>
     <row r="216" spans="1:19">
@@ -15941,7 +15941,7 @@
         <v>3</v>
       </c>
       <c r="S216">
-        <v>0.0014181</v>
+        <v>0.0015159</v>
       </c>
     </row>
     <row r="217" spans="1:19">
@@ -15988,7 +15988,7 @@
         <v>3</v>
       </c>
       <c r="S217">
-        <v>0.0014049</v>
+        <v>0.001387</v>
       </c>
     </row>
     <row r="218" spans="1:19">
@@ -16035,7 +16035,7 @@
         <v>3</v>
       </c>
       <c r="S218">
-        <v>0.0021264</v>
+        <v>0.0019957</v>
       </c>
     </row>
     <row r="219" spans="1:19">
@@ -16082,7 +16082,7 @@
         <v>3</v>
       </c>
       <c r="S219">
-        <v>0.0033589</v>
+        <v>0.0036919</v>
       </c>
     </row>
     <row r="220" spans="1:19">
@@ -16129,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="S220">
-        <v>0.0015116</v>
+        <v>0.0016679</v>
       </c>
     </row>
     <row r="221" spans="1:19">
@@ -16188,7 +16188,7 @@
         <v>2</v>
       </c>
       <c r="S221">
-        <v>0.0027666</v>
+        <v>0.002934</v>
       </c>
     </row>
     <row r="222" spans="1:19">
@@ -16247,7 +16247,7 @@
         <v>3</v>
       </c>
       <c r="S222">
-        <v>0.0034072</v>
+        <v>0.0035148</v>
       </c>
     </row>
     <row r="223" spans="1:19">
@@ -16306,7 +16306,7 @@
         <v>3</v>
       </c>
       <c r="S223">
-        <v>0.0031357</v>
+        <v>0.0032252</v>
       </c>
     </row>
     <row r="224" spans="1:19">
@@ -16353,7 +16353,7 @@
         <v>3</v>
       </c>
       <c r="S224">
-        <v>0.0013069</v>
+        <v>0.0013355</v>
       </c>
     </row>
     <row r="225" spans="1:19">
@@ -16400,7 +16400,7 @@
         <v>3</v>
       </c>
       <c r="S225">
-        <v>0.0019921</v>
+        <v>0.0020329</v>
       </c>
     </row>
     <row r="226" spans="1:19">
@@ -16459,7 +16459,7 @@
         <v>3</v>
       </c>
       <c r="S226">
-        <v>0.0020866</v>
+        <v>0.0021307</v>
       </c>
     </row>
     <row r="227" spans="1:19">
@@ -16506,7 +16506,7 @@
         <v>3</v>
       </c>
       <c r="S227">
-        <v>0.0011438</v>
+        <v>0.0011505</v>
       </c>
     </row>
     <row r="228" spans="1:19">
@@ -16565,7 +16565,7 @@
         <v>3</v>
       </c>
       <c r="S228">
-        <v>0.0021764</v>
+        <v>0.0024284</v>
       </c>
     </row>
     <row r="229" spans="1:19">
@@ -16624,7 +16624,7 @@
         <v>3</v>
       </c>
       <c r="S229">
-        <v>0.0011967</v>
+        <v>0.001238</v>
       </c>
     </row>
     <row r="230" spans="1:19">
@@ -16683,7 +16683,7 @@
         <v>3</v>
       </c>
       <c r="S230">
-        <v>0.0032622</v>
+        <v>0.0033297</v>
       </c>
     </row>
     <row r="231" spans="1:19">
@@ -16742,7 +16742,7 @@
         <v>3</v>
       </c>
       <c r="S231">
-        <v>0.0022631</v>
+        <v>0.0023364</v>
       </c>
     </row>
     <row r="232" spans="1:19">
@@ -16801,7 +16801,7 @@
         <v>3</v>
       </c>
       <c r="S232">
-        <v>0.0020518</v>
+        <v>0.0021057</v>
       </c>
     </row>
     <row r="233" spans="1:19">
@@ -16860,7 +16860,7 @@
         <v>3</v>
       </c>
       <c r="S233">
-        <v>0.0021478</v>
+        <v>0.0021035</v>
       </c>
     </row>
     <row r="234" spans="1:19">
@@ -16907,7 +16907,7 @@
         <v>3</v>
       </c>
       <c r="S234">
-        <v>0.0019056</v>
+        <v>0.0019724</v>
       </c>
     </row>
     <row r="235" spans="1:19">
@@ -16954,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="S235">
-        <v>0.0026635</v>
+        <v>0.0029068</v>
       </c>
     </row>
     <row r="236" spans="1:19">
@@ -17001,7 +17001,7 @@
         <v>3</v>
       </c>
       <c r="S236">
-        <v>0.0022492</v>
+        <v>0.0024213</v>
       </c>
     </row>
     <row r="237" spans="1:19">
@@ -17048,7 +17048,7 @@
         <v>3</v>
       </c>
       <c r="S237">
-        <v>0.0011543</v>
+        <v>0.0010876</v>
       </c>
     </row>
     <row r="238" spans="1:19">
@@ -17107,7 +17107,7 @@
         <v>3</v>
       </c>
       <c r="S238">
-        <v>0.0040087</v>
+        <v>0.0040564</v>
       </c>
     </row>
     <row r="239" spans="1:19">
@@ -17154,7 +17154,7 @@
         <v>3</v>
       </c>
       <c r="S239">
-        <v>0.0008472</v>
+        <v>0.0008637</v>
       </c>
     </row>
     <row r="240" spans="1:19">
@@ -17201,7 +17201,7 @@
         <v>3</v>
       </c>
       <c r="S240">
-        <v>0.0010794</v>
+        <v>0.0010221</v>
       </c>
     </row>
     <row r="241" spans="1:19">
@@ -17248,7 +17248,7 @@
         <v>3</v>
       </c>
       <c r="S241">
-        <v>0.00236</v>
+        <v>0.0024012</v>
       </c>
     </row>
     <row r="242" spans="1:19">
@@ -17307,7 +17307,7 @@
         <v>3</v>
       </c>
       <c r="S242">
-        <v>0.0031397</v>
+        <v>0.003391</v>
       </c>
     </row>
     <row r="243" spans="1:19">
@@ -17354,7 +17354,7 @@
         <v>3</v>
       </c>
       <c r="S243">
-        <v>0.0023214</v>
+        <v>0.0021128</v>
       </c>
     </row>
     <row r="244" spans="1:19">
@@ -17401,7 +17401,7 @@
         <v>3</v>
       </c>
       <c r="S244">
-        <v>0.0019896</v>
+        <v>0.00178</v>
       </c>
     </row>
     <row r="245" spans="1:19">
@@ -17460,7 +17460,7 @@
         <v>3</v>
       </c>
       <c r="S245">
-        <v>0.0030042</v>
+        <v>0.0028732</v>
       </c>
     </row>
     <row r="246" spans="1:19">
@@ -17507,7 +17507,7 @@
         <v>3</v>
       </c>
       <c r="S246">
-        <v>0.0024163</v>
+        <v>0.0023913</v>
       </c>
     </row>
     <row r="247" spans="1:19">
@@ -17554,7 +17554,7 @@
         <v>3</v>
       </c>
       <c r="S247">
-        <v>0.0006704</v>
+        <v>0.0006393</v>
       </c>
     </row>
     <row r="248" spans="1:19">
@@ -17613,7 +17613,7 @@
         <v>3</v>
       </c>
       <c r="S248">
-        <v>0.001149</v>
+        <v>0.0013985</v>
       </c>
     </row>
     <row r="249" spans="1:19">
@@ -17654,7 +17654,7 @@
         <v>1</v>
       </c>
       <c r="S249">
-        <v>0.0016883</v>
+        <v>0.0017524</v>
       </c>
     </row>
     <row r="250" spans="1:19">
@@ -17713,7 +17713,7 @@
         <v>3</v>
       </c>
       <c r="S250">
-        <v>0.0017512</v>
+        <v>0.0018779</v>
       </c>
     </row>
     <row r="251" spans="1:19">
@@ -17772,7 +17772,7 @@
         <v>3</v>
       </c>
       <c r="S251">
-        <v>0.0029012</v>
+        <v>0.0028038</v>
       </c>
     </row>
     <row r="252" spans="1:19">
@@ -17819,7 +17819,7 @@
         <v>3</v>
       </c>
       <c r="S252">
-        <v>0.0027222</v>
+        <v>0.0027188</v>
       </c>
     </row>
     <row r="253" spans="1:19">
@@ -17866,7 +17866,7 @@
         <v>3</v>
       </c>
       <c r="S253">
-        <v>4.01E-05</v>
+        <v>4.23E-05</v>
       </c>
     </row>
     <row r="254" spans="1:19">
@@ -17925,7 +17925,7 @@
         <v>3</v>
       </c>
       <c r="S254">
-        <v>0.0034649</v>
+        <v>0.0035972</v>
       </c>
     </row>
     <row r="255" spans="1:19">
@@ -17984,7 +17984,7 @@
         <v>3</v>
       </c>
       <c r="S255">
-        <v>0.00243</v>
+        <v>0.0024354</v>
       </c>
     </row>
     <row r="256" spans="1:19">
@@ -18031,7 +18031,7 @@
         <v>3</v>
       </c>
       <c r="S256">
-        <v>0.0031217</v>
+        <v>0.003175</v>
       </c>
     </row>
     <row r="257" spans="1:19">
@@ -18090,7 +18090,7 @@
         <v>3</v>
       </c>
       <c r="S257">
-        <v>0.0024043</v>
+        <v>0.0023943</v>
       </c>
     </row>
     <row r="258" spans="1:19">
@@ -18137,7 +18137,7 @@
         <v>1</v>
       </c>
       <c r="S258">
-        <v>0.0017664</v>
+        <v>0.0019239</v>
       </c>
     </row>
     <row r="259" spans="1:19">
@@ -18184,7 +18184,7 @@
         <v>2</v>
       </c>
       <c r="S259">
-        <v>0.0013558</v>
+        <v>0.0014511</v>
       </c>
     </row>
     <row r="260" spans="1:19">
@@ -18231,7 +18231,7 @@
         <v>3</v>
       </c>
       <c r="S260">
-        <v>0.0018442</v>
+        <v>0.0018801</v>
       </c>
     </row>
     <row r="261" spans="1:19">
@@ -18259,26 +18259,26 @@
       <c r="H261" t="s">
         <v>698</v>
       </c>
-      <c r="I261" t="s">
-        <v>698</v>
-      </c>
       <c r="J261" t="s">
         <v>698</v>
       </c>
-      <c r="K261" t="s">
+      <c r="L261">
+        <v>0</v>
+      </c>
+      <c r="N261" t="s">
         <v>698</v>
       </c>
-      <c r="L261">
-        <v>1</v>
+      <c r="P261" t="s">
+        <v>698</v>
       </c>
       <c r="Q261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S261">
-        <v>0.0031044</v>
+        <v>0.0033744</v>
       </c>
     </row>
     <row r="262" spans="1:19">
@@ -18325,7 +18325,7 @@
         <v>3</v>
       </c>
       <c r="S262">
-        <v>0.0014813</v>
+        <v>0.0015075</v>
       </c>
     </row>
     <row r="263" spans="1:19">
@@ -18372,7 +18372,7 @@
         <v>3</v>
       </c>
       <c r="S263">
-        <v>0.0025912</v>
+        <v>0.0029187</v>
       </c>
     </row>
     <row r="264" spans="1:19">
@@ -18419,7 +18419,7 @@
         <v>1</v>
       </c>
       <c r="S264">
-        <v>0.0030158</v>
+        <v>0.003334</v>
       </c>
     </row>
     <row r="265" spans="1:19">
@@ -18466,7 +18466,7 @@
         <v>3</v>
       </c>
       <c r="S265">
-        <v>0.0019378</v>
+        <v>0.0014375</v>
       </c>
     </row>
     <row r="266" spans="1:19">
@@ -18513,7 +18513,7 @@
         <v>3</v>
       </c>
       <c r="S266">
-        <v>0.0004718</v>
+        <v>0.0004571</v>
       </c>
     </row>
     <row r="267" spans="1:19">
@@ -18560,7 +18560,7 @@
         <v>3</v>
       </c>
       <c r="S267">
-        <v>0.0011754</v>
+        <v>0.0013143</v>
       </c>
     </row>
     <row r="268" spans="1:19">
@@ -18619,7 +18619,7 @@
         <v>3</v>
       </c>
       <c r="S268">
-        <v>0.0034177</v>
+        <v>0.0033736</v>
       </c>
     </row>
     <row r="269" spans="1:19">
@@ -18678,7 +18678,7 @@
         <v>3</v>
       </c>
       <c r="S269">
-        <v>0.0036958</v>
+        <v>0.0037169</v>
       </c>
     </row>
     <row r="270" spans="1:19">
@@ -18725,7 +18725,7 @@
         <v>3</v>
       </c>
       <c r="S270">
-        <v>0.0033929</v>
+        <v>0.0031201</v>
       </c>
     </row>
     <row r="271" spans="1:19">
@@ -18784,7 +18784,7 @@
         <v>3</v>
       </c>
       <c r="S271">
-        <v>0.0019077</v>
+        <v>0.0020894</v>
       </c>
     </row>
     <row r="272" spans="1:19">
@@ -18843,7 +18843,7 @@
         <v>3</v>
       </c>
       <c r="S272">
-        <v>0.003505</v>
+        <v>0.0030483</v>
       </c>
     </row>
     <row r="273" spans="1:19">
@@ -18902,7 +18902,7 @@
         <v>3</v>
       </c>
       <c r="S273">
-        <v>0.0008556</v>
+        <v>0.0009617</v>
       </c>
     </row>
     <row r="274" spans="1:19">
@@ -18961,7 +18961,7 @@
         <v>3</v>
       </c>
       <c r="S274">
-        <v>0.0030784</v>
+        <v>0.0034053</v>
       </c>
     </row>
     <row r="275" spans="1:19">
@@ -19020,7 +19020,7 @@
         <v>1</v>
       </c>
       <c r="S275">
-        <v>0.0034238</v>
+        <v>0.0034852</v>
       </c>
     </row>
     <row r="276" spans="1:19">
@@ -19067,7 +19067,7 @@
         <v>3</v>
       </c>
       <c r="S276">
-        <v>0.0005762</v>
+        <v>0.0005736</v>
       </c>
     </row>
     <row r="277" spans="1:19">
@@ -19114,7 +19114,7 @@
         <v>3</v>
       </c>
       <c r="S277">
-        <v>0.0013589</v>
+        <v>0.0015864</v>
       </c>
     </row>
     <row r="278" spans="1:19">
@@ -19161,7 +19161,7 @@
         <v>3</v>
       </c>
       <c r="S278">
-        <v>0.002141</v>
+        <v>0.001994</v>
       </c>
     </row>
     <row r="279" spans="1:19">
@@ -19208,7 +19208,7 @@
         <v>3</v>
       </c>
       <c r="S279">
-        <v>0.0012659</v>
+        <v>0.0013418</v>
       </c>
     </row>
     <row r="280" spans="1:19">
@@ -19255,7 +19255,7 @@
         <v>3</v>
       </c>
       <c r="S280">
-        <v>0.0020949</v>
+        <v>0.0019576</v>
       </c>
     </row>
     <row r="281" spans="1:19">
@@ -19314,7 +19314,7 @@
         <v>3</v>
       </c>
       <c r="S281">
-        <v>0.0017683</v>
+        <v>0.0019513</v>
       </c>
     </row>
     <row r="282" spans="1:19">
@@ -19361,7 +19361,7 @@
         <v>3</v>
       </c>
       <c r="S282">
-        <v>0.0015464</v>
+        <v>0.0016118</v>
       </c>
     </row>
     <row r="283" spans="1:19">
@@ -19408,7 +19408,7 @@
         <v>3</v>
       </c>
       <c r="S283">
-        <v>0.0026242</v>
+        <v>0.0026559</v>
       </c>
     </row>
     <row r="284" spans="1:19">
@@ -19455,7 +19455,7 @@
         <v>3</v>
       </c>
       <c r="S284">
-        <v>0.0002999</v>
+        <v>0.0002943</v>
       </c>
     </row>
     <row r="285" spans="1:19">
@@ -19514,7 +19514,7 @@
         <v>3</v>
       </c>
       <c r="S285">
-        <v>0.0033675</v>
+        <v>0.0034337</v>
       </c>
     </row>
     <row r="286" spans="1:19">
@@ -19561,7 +19561,7 @@
         <v>1</v>
       </c>
       <c r="S286">
-        <v>0.0014113</v>
+        <v>0.0014935</v>
       </c>
     </row>
     <row r="287" spans="1:19">
@@ -19608,7 +19608,7 @@
         <v>3</v>
       </c>
       <c r="S287">
-        <v>0.0008034</v>
+        <v>0.00081</v>
       </c>
     </row>
     <row r="288" spans="1:19">
@@ -19661,7 +19661,7 @@
         <v>2</v>
       </c>
       <c r="S288">
-        <v>0.0024683</v>
+        <v>0.0024719</v>
       </c>
     </row>
     <row r="289" spans="1:19">
@@ -19708,7 +19708,7 @@
         <v>3</v>
       </c>
       <c r="S289">
-        <v>0.0021319</v>
+        <v>0.0024397</v>
       </c>
     </row>
     <row r="290" spans="1:19">
@@ -19755,7 +19755,7 @@
         <v>1</v>
       </c>
       <c r="S290">
-        <v>0.0017104</v>
+        <v>0.0022138</v>
       </c>
     </row>
     <row r="291" spans="1:19">
@@ -19783,26 +19783,26 @@
       <c r="H291" t="s">
         <v>715</v>
       </c>
+      <c r="I291" t="s">
+        <v>715</v>
+      </c>
       <c r="J291" t="s">
         <v>715</v>
       </c>
+      <c r="K291" t="s">
+        <v>715</v>
+      </c>
       <c r="L291">
-        <v>0</v>
-      </c>
-      <c r="N291" t="s">
-        <v>715</v>
-      </c>
-      <c r="P291" t="s">
-        <v>715</v>
+        <v>1</v>
       </c>
       <c r="Q291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S291">
-        <v>0.0007701</v>
+        <v>0.0008282</v>
       </c>
     </row>
     <row r="292" spans="1:19">
@@ -19849,7 +19849,7 @@
         <v>3</v>
       </c>
       <c r="S292">
-        <v>0.0015881</v>
+        <v>0.0017532</v>
       </c>
     </row>
     <row r="293" spans="1:19">
@@ -19896,7 +19896,7 @@
         <v>3</v>
       </c>
       <c r="S293">
-        <v>0.0017683</v>
+        <v>0.0020379</v>
       </c>
     </row>
     <row r="294" spans="1:19">
@@ -19955,7 +19955,7 @@
         <v>3</v>
       </c>
       <c r="S294">
-        <v>0.0027971</v>
+        <v>0.0028507</v>
       </c>
     </row>
     <row r="295" spans="1:19">
@@ -20002,7 +20002,7 @@
         <v>3</v>
       </c>
       <c r="S295">
-        <v>0.001866</v>
+        <v>0.001898</v>
       </c>
     </row>
     <row r="296" spans="1:19">
@@ -20049,7 +20049,7 @@
         <v>3</v>
       </c>
       <c r="S296">
-        <v>0.0024962</v>
+        <v>0.002384</v>
       </c>
     </row>
     <row r="297" spans="1:19">
@@ -20108,7 +20108,7 @@
         <v>3</v>
       </c>
       <c r="S297">
-        <v>0.0037209</v>
+        <v>0.0034017</v>
       </c>
     </row>
     <row r="298" spans="1:19">
@@ -20167,7 +20167,7 @@
         <v>3</v>
       </c>
       <c r="S298">
-        <v>0.0027397</v>
+        <v>0.0030114</v>
       </c>
     </row>
     <row r="299" spans="1:19">
@@ -20226,7 +20226,7 @@
         <v>3</v>
       </c>
       <c r="S299">
-        <v>0.0034261</v>
+        <v>0.0038143</v>
       </c>
     </row>
     <row r="300" spans="1:19">
@@ -20273,7 +20273,7 @@
         <v>3</v>
       </c>
       <c r="S300">
-        <v>0.002275</v>
+        <v>0.0022851</v>
       </c>
     </row>
     <row r="301" spans="1:19">
@@ -20332,7 +20332,7 @@
         <v>3</v>
       </c>
       <c r="S301">
-        <v>0.0027553</v>
+        <v>0.0026623</v>
       </c>
     </row>
     <row r="302" spans="1:19">
@@ -20379,7 +20379,7 @@
         <v>3</v>
       </c>
       <c r="S302">
-        <v>0.0011897</v>
+        <v>0.0011483</v>
       </c>
     </row>
     <row r="303" spans="1:19">
@@ -20438,7 +20438,7 @@
         <v>3</v>
       </c>
       <c r="S303">
-        <v>0.0036419</v>
+        <v>0.0036491</v>
       </c>
     </row>
     <row r="304" spans="1:19">
@@ -20485,7 +20485,7 @@
         <v>3</v>
       </c>
       <c r="S304">
-        <v>0.0013183</v>
+        <v>0.0016128</v>
       </c>
     </row>
     <row r="305" spans="1:19">
@@ -20544,7 +20544,7 @@
         <v>1</v>
       </c>
       <c r="S305">
-        <v>0.002114</v>
+        <v>0.0021799</v>
       </c>
     </row>
     <row r="306" spans="1:19">
@@ -20591,7 +20591,7 @@
         <v>3</v>
       </c>
       <c r="S306">
-        <v>0.0023622</v>
+        <v>0.0023975</v>
       </c>
     </row>
     <row r="307" spans="1:19">
@@ -20638,7 +20638,7 @@
         <v>1</v>
       </c>
       <c r="S307">
-        <v>0.0016417</v>
+        <v>0.0015149</v>
       </c>
     </row>
     <row r="308" spans="1:19">
@@ -20685,7 +20685,7 @@
         <v>3</v>
       </c>
       <c r="S308">
-        <v>0.0018718</v>
+        <v>0.001894</v>
       </c>
     </row>
     <row r="309" spans="1:19">
@@ -20738,7 +20738,7 @@
         <v>2</v>
       </c>
       <c r="S309">
-        <v>0.0039267</v>
+        <v>0.0035912</v>
       </c>
     </row>
     <row r="310" spans="1:19">
@@ -20785,7 +20785,7 @@
         <v>3</v>
       </c>
       <c r="S310">
-        <v>0.0014431</v>
+        <v>0.0014292</v>
       </c>
     </row>
     <row r="311" spans="1:19">
@@ -20844,7 +20844,7 @@
         <v>3</v>
       </c>
       <c r="S311">
-        <v>0.0037984</v>
+        <v>0.0043207</v>
       </c>
     </row>
     <row r="312" spans="1:19">
@@ -20891,7 +20891,7 @@
         <v>3</v>
       </c>
       <c r="S312">
-        <v>0.0030004</v>
+        <v>0.0031741</v>
       </c>
     </row>
     <row r="313" spans="1:19">
@@ -20938,7 +20938,7 @@
         <v>3</v>
       </c>
       <c r="S313">
-        <v>0.0022317</v>
+        <v>0.0022039</v>
       </c>
     </row>
     <row r="314" spans="1:19">
@@ -20997,7 +20997,7 @@
         <v>3</v>
       </c>
       <c r="S314">
-        <v>0.0043437</v>
+        <v>0.0039733</v>
       </c>
     </row>
     <row r="315" spans="1:19">
@@ -21044,7 +21044,7 @@
         <v>3</v>
       </c>
       <c r="S315">
-        <v>0.0021376</v>
+        <v>0.0026771</v>
       </c>
     </row>
     <row r="316" spans="1:19">
@@ -21091,7 +21091,7 @@
         <v>3</v>
       </c>
       <c r="S316">
-        <v>0.0010263</v>
+        <v>0.0010411</v>
       </c>
     </row>
     <row r="317" spans="1:19">
@@ -21138,7 +21138,7 @@
         <v>3</v>
       </c>
       <c r="S317">
-        <v>0.0008987999999999999</v>
+        <v>0.0011173</v>
       </c>
     </row>
     <row r="318" spans="1:19">
@@ -21185,7 +21185,7 @@
         <v>3</v>
       </c>
       <c r="S318">
-        <v>0.0013596</v>
+        <v>0.0017674</v>
       </c>
     </row>
     <row r="319" spans="1:19">
@@ -21232,7 +21232,7 @@
         <v>3</v>
       </c>
       <c r="S319">
-        <v>0.0033033</v>
+        <v>0.0035795</v>
       </c>
     </row>
     <row r="320" spans="1:19">
@@ -21291,7 +21291,7 @@
         <v>3</v>
       </c>
       <c r="S320">
-        <v>0.0020861</v>
+        <v>0.0020455</v>
       </c>
     </row>
     <row r="321" spans="1:19">
@@ -21338,7 +21338,7 @@
         <v>3</v>
       </c>
       <c r="S321">
-        <v>0.0035738</v>
+        <v>0.0036169</v>
       </c>
     </row>
     <row r="322" spans="1:19">
@@ -21397,7 +21397,7 @@
         <v>3</v>
       </c>
       <c r="S322">
-        <v>0.0009681</v>
+        <v>0.0007426000000000001</v>
       </c>
     </row>
     <row r="323" spans="1:19">
@@ -21491,7 +21491,7 @@
         <v>3</v>
       </c>
       <c r="S324">
-        <v>0.0012377</v>
+        <v>0.0012431</v>
       </c>
     </row>
     <row r="325" spans="1:19">
@@ -21538,7 +21538,7 @@
         <v>3</v>
       </c>
       <c r="S325">
-        <v>0.00235</v>
+        <v>0.0028524</v>
       </c>
     </row>
     <row r="326" spans="1:19">
@@ -21597,7 +21597,7 @@
         <v>3</v>
       </c>
       <c r="S326">
-        <v>0.0017808</v>
+        <v>0.0019058</v>
       </c>
     </row>
     <row r="327" spans="1:19">
@@ -21644,7 +21644,7 @@
         <v>3</v>
       </c>
       <c r="S327">
-        <v>0.0018313</v>
+        <v>0.0018924</v>
       </c>
     </row>
     <row r="328" spans="1:19">
@@ -21703,7 +21703,7 @@
         <v>3</v>
       </c>
       <c r="S328">
-        <v>0.003234</v>
+        <v>0.0033493</v>
       </c>
     </row>
     <row r="329" spans="1:19">
@@ -21750,7 +21750,7 @@
         <v>3</v>
       </c>
       <c r="S329">
-        <v>0.0005176</v>
+        <v>0.0005173000000000001</v>
       </c>
     </row>
     <row r="330" spans="1:19">
@@ -21797,7 +21797,7 @@
         <v>3</v>
       </c>
       <c r="S330">
-        <v>0.0020338</v>
+        <v>0.0019625</v>
       </c>
     </row>
     <row r="331" spans="1:19">
@@ -21856,7 +21856,7 @@
         <v>3</v>
       </c>
       <c r="S331">
-        <v>0.002144</v>
+        <v>0.0022999</v>
       </c>
     </row>
     <row r="332" spans="1:19">
@@ -21915,7 +21915,7 @@
         <v>3</v>
       </c>
       <c r="S332">
-        <v>0.0030965</v>
+        <v>0.0028611</v>
       </c>
     </row>
     <row r="333" spans="1:19">
@@ -21974,7 +21974,7 @@
         <v>3</v>
       </c>
       <c r="S333">
-        <v>0.0014454</v>
+        <v>0.0014408</v>
       </c>
     </row>
     <row r="334" spans="1:19">
@@ -22021,7 +22021,7 @@
         <v>3</v>
       </c>
       <c r="S334">
-        <v>0.0019183</v>
+        <v>0.0018548</v>
       </c>
     </row>
     <row r="335" spans="1:19">
@@ -22068,7 +22068,7 @@
         <v>3</v>
       </c>
       <c r="S335">
-        <v>0.0019635</v>
+        <v>0.0020208</v>
       </c>
     </row>
     <row r="336" spans="1:19">
@@ -22115,7 +22115,7 @@
         <v>3</v>
       </c>
       <c r="S336">
-        <v>0.0021099</v>
+        <v>0.0021175</v>
       </c>
     </row>
     <row r="337" spans="1:19">
@@ -22174,7 +22174,7 @@
         <v>3</v>
       </c>
       <c r="S337">
-        <v>0.0018075</v>
+        <v>0.0019048</v>
       </c>
     </row>
     <row r="338" spans="1:19">
@@ -22233,7 +22233,7 @@
         <v>3</v>
       </c>
       <c r="S338">
-        <v>0.002883</v>
+        <v>0.0029041</v>
       </c>
     </row>
     <row r="339" spans="1:19">
@@ -22280,7 +22280,7 @@
         <v>3</v>
       </c>
       <c r="S339">
-        <v>0.0031735</v>
+        <v>0.0038775</v>
       </c>
     </row>
     <row r="340" spans="1:19">
@@ -22327,7 +22327,7 @@
         <v>3</v>
       </c>
       <c r="S340">
-        <v>0.001835</v>
+        <v>0.0028864</v>
       </c>
     </row>
     <row r="341" spans="1:19">
@@ -22386,7 +22386,7 @@
         <v>3</v>
       </c>
       <c r="S341">
-        <v>0.0029222</v>
+        <v>0.0047205</v>
       </c>
     </row>
     <row r="342" spans="1:19">
@@ -22439,7 +22439,7 @@
         <v>2</v>
       </c>
       <c r="S342">
-        <v>0.0025522</v>
+        <v>0.0041794</v>
       </c>
     </row>
     <row r="343" spans="1:19">
@@ -22486,7 +22486,7 @@
         <v>3</v>
       </c>
       <c r="S343">
-        <v>0.001884</v>
+        <v>0.0022008</v>
       </c>
     </row>
     <row r="344" spans="1:19">
@@ -22533,7 +22533,7 @@
         <v>3</v>
       </c>
       <c r="S344">
-        <v>0.0016719</v>
+        <v>0.0017479</v>
       </c>
     </row>
     <row r="345" spans="1:19">
@@ -22580,7 +22580,7 @@
         <v>3</v>
       </c>
       <c r="S345">
-        <v>0.0015449</v>
+        <v>0.0015351</v>
       </c>
     </row>
     <row r="346" spans="1:19">
@@ -22627,7 +22627,7 @@
         <v>3</v>
       </c>
       <c r="S346">
-        <v>0.0027725</v>
+        <v>0.0025489</v>
       </c>
     </row>
     <row r="347" spans="1:19">
@@ -22686,7 +22686,7 @@
         <v>3</v>
       </c>
       <c r="S347">
-        <v>0.0040214</v>
+        <v>0.0041767</v>
       </c>
     </row>
     <row r="348" spans="1:19">
@@ -22733,7 +22733,7 @@
         <v>3</v>
       </c>
       <c r="S348">
-        <v>0.0020641</v>
+        <v>0.0023275</v>
       </c>
     </row>
     <row r="349" spans="1:19">
@@ -22792,7 +22792,7 @@
         <v>3</v>
       </c>
       <c r="S349">
-        <v>0.0008629</v>
+        <v>0.0009135</v>
       </c>
     </row>
     <row r="350" spans="1:19">
@@ -22851,7 +22851,7 @@
         <v>3</v>
       </c>
       <c r="S350">
-        <v>0.0012888</v>
+        <v>0.0012955</v>
       </c>
     </row>
     <row r="351" spans="1:19">
@@ -22910,7 +22910,7 @@
         <v>3</v>
       </c>
       <c r="S351">
-        <v>0.0039498</v>
+        <v>0.0061635</v>
       </c>
     </row>
     <row r="352" spans="1:19">
@@ -22957,7 +22957,7 @@
         <v>3</v>
       </c>
       <c r="S352">
-        <v>0.0005702</v>
+        <v>0.0008771</v>
       </c>
     </row>
     <row r="353" spans="1:19">
@@ -23016,7 +23016,7 @@
         <v>3</v>
       </c>
       <c r="S353">
-        <v>0.0021481</v>
+        <v>0.0025077</v>
       </c>
     </row>
     <row r="354" spans="1:19">
@@ -23063,7 +23063,7 @@
         <v>3</v>
       </c>
       <c r="S354">
-        <v>0.0033959</v>
+        <v>0.0035093</v>
       </c>
     </row>
     <row r="355" spans="1:19">
@@ -23122,7 +23122,7 @@
         <v>2</v>
       </c>
       <c r="S355">
-        <v>0.0021187</v>
+        <v>0.0021666</v>
       </c>
     </row>
     <row r="356" spans="1:19">
@@ -23181,7 +23181,7 @@
         <v>3</v>
       </c>
       <c r="S356">
-        <v>0.0020996</v>
+        <v>0.0021457</v>
       </c>
     </row>
     <row r="357" spans="1:19">
@@ -23228,7 +23228,7 @@
         <v>3</v>
       </c>
       <c r="S357">
-        <v>0.0030392</v>
+        <v>0.0030464</v>
       </c>
     </row>
     <row r="358" spans="1:19">
@@ -23287,7 +23287,7 @@
         <v>3</v>
       </c>
       <c r="S358">
-        <v>0.0020354</v>
+        <v>0.0020766</v>
       </c>
     </row>
     <row r="359" spans="1:19">
@@ -23346,7 +23346,7 @@
         <v>3</v>
       </c>
       <c r="S359">
-        <v>0.0023335</v>
+        <v>0.0022988</v>
       </c>
     </row>
     <row r="360" spans="1:19">
@@ -23405,7 +23405,7 @@
         <v>3</v>
       </c>
       <c r="S360">
-        <v>0.0022131</v>
+        <v>0.0023072</v>
       </c>
     </row>
     <row r="361" spans="1:19">
@@ -23452,7 +23452,7 @@
         <v>3</v>
       </c>
       <c r="S361">
-        <v>0.0009009000000000001</v>
+        <v>0.000897</v>
       </c>
     </row>
     <row r="362" spans="1:19">
@@ -23499,7 +23499,7 @@
         <v>3</v>
       </c>
       <c r="S362">
-        <v>0.0019698</v>
+        <v>0.0019157</v>
       </c>
     </row>
     <row r="363" spans="1:19">
@@ -23558,7 +23558,7 @@
         <v>3</v>
       </c>
       <c r="S363">
-        <v>0.0017537</v>
+        <v>0.0017962</v>
       </c>
     </row>
     <row r="364" spans="1:19">
@@ -23611,7 +23611,7 @@
         <v>2</v>
       </c>
       <c r="S364">
-        <v>0.0034072</v>
+        <v>0.0036039</v>
       </c>
     </row>
     <row r="365" spans="1:19">
@@ -23658,7 +23658,7 @@
         <v>3</v>
       </c>
       <c r="S365">
-        <v>0.0021246</v>
+        <v>0.0021016</v>
       </c>
     </row>
     <row r="366" spans="1:19">
@@ -23705,7 +23705,7 @@
         <v>3</v>
       </c>
       <c r="S366">
-        <v>0.0029431</v>
+        <v>0.002957</v>
       </c>
     </row>
     <row r="367" spans="1:19">
@@ -23758,7 +23758,7 @@
         <v>2</v>
       </c>
       <c r="S367">
-        <v>0.0031665</v>
+        <v>0.0030655</v>
       </c>
     </row>
     <row r="368" spans="1:19">
@@ -23817,7 +23817,7 @@
         <v>3</v>
       </c>
       <c r="S368">
-        <v>0.0025121</v>
+        <v>0.0027979</v>
       </c>
     </row>
     <row r="369" spans="1:19">
@@ -23876,7 +23876,7 @@
         <v>3</v>
       </c>
       <c r="S369">
-        <v>0.0032066</v>
+        <v>0.0037708</v>
       </c>
     </row>
     <row r="370" spans="1:19">
@@ -23923,7 +23923,7 @@
         <v>3</v>
       </c>
       <c r="S370">
-        <v>0.0018517</v>
+        <v>0.0019602</v>
       </c>
     </row>
     <row r="371" spans="1:19">
@@ -23970,7 +23970,7 @@
         <v>3</v>
       </c>
       <c r="S371">
-        <v>0.0015755</v>
+        <v>0.0015664</v>
       </c>
     </row>
     <row r="372" spans="1:19">
@@ -24029,7 +24029,7 @@
         <v>3</v>
       </c>
       <c r="S372">
-        <v>0.0004411</v>
+        <v>0.000455</v>
       </c>
     </row>
     <row r="373" spans="1:19">
@@ -24088,7 +24088,7 @@
         <v>3</v>
       </c>
       <c r="S373">
-        <v>0.0032694</v>
+        <v>0.0028586</v>
       </c>
     </row>
     <row r="374" spans="1:19">
@@ -24147,7 +24147,7 @@
         <v>3</v>
       </c>
       <c r="S374">
-        <v>0.0052574</v>
+        <v>0.0030092</v>
       </c>
     </row>
     <row r="375" spans="1:19">
@@ -24206,7 +24206,7 @@
         <v>3</v>
       </c>
       <c r="S375">
-        <v>0.0035224</v>
+        <v>0.0032998</v>
       </c>
     </row>
     <row r="376" spans="1:19">
@@ -24253,7 +24253,7 @@
         <v>3</v>
       </c>
       <c r="S376">
-        <v>0.0043874</v>
+        <v>0.0039057</v>
       </c>
     </row>
     <row r="377" spans="1:19">
@@ -24300,7 +24300,7 @@
         <v>3</v>
       </c>
       <c r="S377">
-        <v>0.0037097</v>
+        <v>0.0027379</v>
       </c>
     </row>
     <row r="378" spans="1:19">
@@ -24347,7 +24347,7 @@
         <v>3</v>
       </c>
       <c r="S378">
-        <v>0.0038877</v>
+        <v>0.0026529</v>
       </c>
     </row>
     <row r="379" spans="1:19">
@@ -24394,7 +24394,7 @@
         <v>3</v>
       </c>
       <c r="S379">
-        <v>0.001894</v>
+        <v>0.0013406</v>
       </c>
     </row>
     <row r="380" spans="1:19">
@@ -24453,7 +24453,7 @@
         <v>3</v>
       </c>
       <c r="S380">
-        <v>0.002192</v>
+        <v>0.0020135</v>
       </c>
     </row>
     <row r="381" spans="1:19">
@@ -24512,7 +24512,7 @@
         <v>3</v>
       </c>
       <c r="S381">
-        <v>0.0033904</v>
+        <v>0.0035697</v>
       </c>
     </row>
     <row r="382" spans="1:19">
@@ -24559,7 +24559,7 @@
         <v>3</v>
       </c>
       <c r="S382">
-        <v>0.0026069</v>
+        <v>0.0023504</v>
       </c>
     </row>
     <row r="383" spans="1:19">
@@ -24618,7 +24618,7 @@
         <v>3</v>
       </c>
       <c r="S383">
-        <v>0.0012675</v>
+        <v>0.0011471</v>
       </c>
     </row>
     <row r="384" spans="1:19">
@@ -24677,7 +24677,7 @@
         <v>3</v>
       </c>
       <c r="S384">
-        <v>0.0011855</v>
+        <v>0.0010138</v>
       </c>
     </row>
     <row r="385" spans="1:19">
@@ -24724,7 +24724,7 @@
         <v>3</v>
       </c>
       <c r="S385">
-        <v>0.0031741</v>
+        <v>0.003215</v>
       </c>
     </row>
     <row r="386" spans="1:19">
@@ -24783,7 +24783,7 @@
         <v>3</v>
       </c>
       <c r="S386">
-        <v>0.0020044</v>
+        <v>0.0019263</v>
       </c>
     </row>
     <row r="387" spans="1:19">
@@ -24830,7 +24830,7 @@
         <v>3</v>
       </c>
       <c r="S387">
-        <v>0.0016185</v>
+        <v>0.001551</v>
       </c>
     </row>
     <row r="388" spans="1:19">
@@ -24889,7 +24889,7 @@
         <v>3</v>
       </c>
       <c r="S388">
-        <v>0.004365</v>
+        <v>0.004464</v>
       </c>
     </row>
     <row r="389" spans="1:19">
@@ -24948,7 +24948,7 @@
         <v>3</v>
       </c>
       <c r="S389">
-        <v>0.0026015</v>
+        <v>0.0027726</v>
       </c>
     </row>
     <row r="390" spans="1:19">
@@ -25007,7 +25007,7 @@
         <v>3</v>
       </c>
       <c r="S390">
-        <v>0.0024244</v>
+        <v>0.0024915</v>
       </c>
     </row>
     <row r="391" spans="1:19">
@@ -25066,7 +25066,7 @@
         <v>3</v>
       </c>
       <c r="S391">
-        <v>0.0027203</v>
+        <v>0.0029945</v>
       </c>
     </row>
     <row r="392" spans="1:19">
@@ -25125,7 +25125,7 @@
         <v>3</v>
       </c>
       <c r="S392">
-        <v>0.0025106</v>
+        <v>0.002431</v>
       </c>
     </row>
     <row r="393" spans="1:19">
@@ -25184,7 +25184,7 @@
         <v>3</v>
       </c>
       <c r="S393">
-        <v>0.0032818</v>
+        <v>0.0033498</v>
       </c>
     </row>
     <row r="394" spans="1:19">
@@ -25243,7 +25243,7 @@
         <v>3</v>
       </c>
       <c r="S394">
-        <v>0.0024154</v>
+        <v>0.0023745</v>
       </c>
     </row>
     <row r="395" spans="1:19">
@@ -25290,7 +25290,7 @@
         <v>3</v>
       </c>
       <c r="S395">
-        <v>0.0014491</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="396" spans="1:19">
@@ -25349,7 +25349,7 @@
         <v>3</v>
       </c>
       <c r="S396">
-        <v>0.0005844</v>
+        <v>0.0007193</v>
       </c>
     </row>
     <row r="397" spans="1:19">
@@ -25396,7 +25396,7 @@
         <v>3</v>
       </c>
       <c r="S397">
-        <v>0.0018002</v>
+        <v>0.0017637</v>
       </c>
     </row>
     <row r="398" spans="1:19">
@@ -25443,7 +25443,7 @@
         <v>3</v>
       </c>
       <c r="S398">
-        <v>0.0015592</v>
+        <v>0.0015439</v>
       </c>
     </row>
     <row r="399" spans="1:19">
@@ -25502,7 +25502,7 @@
         <v>3</v>
       </c>
       <c r="S399">
-        <v>0.0025833</v>
+        <v>0.0027391</v>
       </c>
     </row>
     <row r="400" spans="1:19">
@@ -25549,7 +25549,7 @@
         <v>3</v>
       </c>
       <c r="S400">
-        <v>0.0020653</v>
+        <v>0.0019675</v>
       </c>
     </row>
     <row r="401" spans="1:19">
@@ -25608,7 +25608,7 @@
         <v>3</v>
       </c>
       <c r="S401">
-        <v>0.001965</v>
+        <v>0.0019824</v>
       </c>
     </row>
     <row r="402" spans="1:19">
@@ -25655,7 +25655,7 @@
         <v>3</v>
       </c>
       <c r="S402">
-        <v>0.0020316</v>
+        <v>0.0023082</v>
       </c>
     </row>
     <row r="403" spans="1:19">
@@ -25702,7 +25702,7 @@
         <v>3</v>
       </c>
       <c r="S403">
-        <v>0.0011307</v>
+        <v>0.0010975</v>
       </c>
     </row>
     <row r="404" spans="1:19">
@@ -25749,7 +25749,7 @@
         <v>3</v>
       </c>
       <c r="S404">
-        <v>0.003203</v>
+        <v>0.0033893</v>
       </c>
     </row>
     <row r="405" spans="1:19">
@@ -25796,7 +25796,7 @@
         <v>3</v>
       </c>
       <c r="S405">
-        <v>0.0019533</v>
+        <v>0.0018816</v>
       </c>
     </row>
     <row r="406" spans="1:19">
@@ -25855,7 +25855,7 @@
         <v>3</v>
       </c>
       <c r="S406">
-        <v>0.0043484</v>
+        <v>0.0041698</v>
       </c>
     </row>
     <row r="407" spans="1:19">
@@ -25902,7 +25902,7 @@
         <v>3</v>
       </c>
       <c r="S407">
-        <v>0.0025042</v>
+        <v>0.0025283</v>
       </c>
     </row>
     <row r="408" spans="1:19">
@@ -25961,7 +25961,7 @@
         <v>2</v>
       </c>
       <c r="S408">
-        <v>0.0039181</v>
+        <v>0.0043787</v>
       </c>
     </row>
     <row r="409" spans="1:19">
@@ -26008,7 +26008,7 @@
         <v>3</v>
       </c>
       <c r="S409">
-        <v>0.0003339</v>
+        <v>0.0003398</v>
       </c>
     </row>
     <row r="410" spans="1:19">
@@ -26055,7 +26055,7 @@
         <v>3</v>
       </c>
       <c r="S410">
-        <v>0.0021594</v>
+        <v>0.0020107</v>
       </c>
     </row>
     <row r="411" spans="1:19">
@@ -26114,7 +26114,7 @@
         <v>3</v>
       </c>
       <c r="S411">
-        <v>0.0030858</v>
+        <v>0.0031705</v>
       </c>
     </row>
     <row r="412" spans="1:19">
@@ -26173,7 +26173,7 @@
         <v>3</v>
       </c>
       <c r="S412">
-        <v>0.0025935</v>
+        <v>0.0019864</v>
       </c>
     </row>
     <row r="413" spans="1:19">
@@ -26220,7 +26220,7 @@
         <v>3</v>
       </c>
       <c r="S413">
-        <v>0.0031895</v>
+        <v>0.0028375</v>
       </c>
     </row>
     <row r="414" spans="1:19">
@@ -26279,7 +26279,7 @@
         <v>3</v>
       </c>
       <c r="S414">
-        <v>0.0015754</v>
+        <v>0.0015463</v>
       </c>
     </row>
     <row r="415" spans="1:19">
@@ -26338,7 +26338,7 @@
         <v>3</v>
       </c>
       <c r="S415">
-        <v>0.0032391</v>
+        <v>0.0029904</v>
       </c>
     </row>
     <row r="416" spans="1:19">
@@ -26397,7 +26397,7 @@
         <v>3</v>
       </c>
       <c r="S416">
-        <v>0.001613</v>
+        <v>0.0020969</v>
       </c>
     </row>
     <row r="417" spans="1:19">
@@ -26444,7 +26444,7 @@
         <v>3</v>
       </c>
       <c r="S417">
-        <v>0.0002982</v>
+        <v>0.0004023</v>
       </c>
     </row>
     <row r="418" spans="1:19">
@@ -26491,7 +26491,7 @@
         <v>3</v>
       </c>
       <c r="S418">
-        <v>0.0008217</v>
+        <v>0.0008652</v>
       </c>
     </row>
     <row r="419" spans="1:19">
@@ -26550,7 +26550,7 @@
         <v>3</v>
       </c>
       <c r="S419">
-        <v>0.0012801</v>
+        <v>0.0013705</v>
       </c>
     </row>
     <row r="420" spans="1:19">
@@ -26597,7 +26597,7 @@
         <v>3</v>
       </c>
       <c r="S420">
-        <v>0.0011605</v>
+        <v>0.0011199</v>
       </c>
     </row>
     <row r="421" spans="1:19">
@@ -26656,7 +26656,7 @@
         <v>3</v>
       </c>
       <c r="S421">
-        <v>0.0020396</v>
+        <v>0.001569</v>
       </c>
     </row>
     <row r="422" spans="1:19">
@@ -26715,7 +26715,7 @@
         <v>3</v>
       </c>
       <c r="S422">
-        <v>0.0026268</v>
+        <v>0.0022427</v>
       </c>
     </row>
     <row r="423" spans="1:19">
@@ -26762,7 +26762,7 @@
         <v>3</v>
       </c>
       <c r="S423">
-        <v>0.0033747</v>
+        <v>0.0028681</v>
       </c>
     </row>
     <row r="424" spans="1:19">
@@ -26821,7 +26821,7 @@
         <v>3</v>
       </c>
       <c r="S424">
-        <v>0.0021502</v>
+        <v>0.0022783</v>
       </c>
     </row>
     <row r="425" spans="1:19">
@@ -26880,7 +26880,7 @@
         <v>3</v>
       </c>
       <c r="S425">
-        <v>0.002162</v>
+        <v>0.0020029</v>
       </c>
     </row>
     <row r="426" spans="1:19">
@@ -26939,7 +26939,7 @@
         <v>3</v>
       </c>
       <c r="S426">
-        <v>0.0030562</v>
+        <v>0.003229</v>
       </c>
     </row>
     <row r="427" spans="1:19">
@@ -26998,7 +26998,7 @@
         <v>3</v>
       </c>
       <c r="S427">
-        <v>0.002243</v>
+        <v>0.0018772</v>
       </c>
     </row>
     <row r="428" spans="1:19">
@@ -27051,7 +27051,7 @@
         <v>2</v>
       </c>
       <c r="S428">
-        <v>0.0021014</v>
+        <v>0.0022158</v>
       </c>
     </row>
     <row r="429" spans="1:19">
@@ -27098,7 +27098,7 @@
         <v>3</v>
       </c>
       <c r="S429">
-        <v>0.0021161</v>
+        <v>0.0021435</v>
       </c>
     </row>
     <row r="430" spans="1:19">
@@ -27157,7 +27157,7 @@
         <v>3</v>
       </c>
       <c r="S430">
-        <v>0.0038975</v>
+        <v>0.0039452</v>
       </c>
     </row>
     <row r="431" spans="1:19">
@@ -27216,7 +27216,7 @@
         <v>3</v>
       </c>
       <c r="S431">
-        <v>0.0022322</v>
+        <v>0.0023217</v>
       </c>
     </row>
     <row r="432" spans="1:19">
@@ -27275,7 +27275,7 @@
         <v>3</v>
       </c>
       <c r="S432">
-        <v>0.0029269</v>
+        <v>0.0027324</v>
       </c>
     </row>
     <row r="433" spans="1:19">
@@ -27322,7 +27322,7 @@
         <v>3</v>
       </c>
       <c r="S433">
-        <v>0.0014618</v>
+        <v>0.00138</v>
       </c>
     </row>
     <row r="434" spans="1:19">
@@ -27369,7 +27369,7 @@
         <v>3</v>
       </c>
       <c r="S434">
-        <v>0.003529</v>
+        <v>0.003716</v>
       </c>
     </row>
     <row r="435" spans="1:19">
@@ -27416,7 +27416,7 @@
         <v>3</v>
       </c>
       <c r="S435">
-        <v>0.0019894</v>
+        <v>0.0019018</v>
       </c>
     </row>
     <row r="436" spans="1:19">
@@ -27463,7 +27463,7 @@
         <v>3</v>
       </c>
       <c r="S436">
-        <v>0.0033526</v>
+        <v>0.0032001</v>
       </c>
     </row>
     <row r="437" spans="1:19">
@@ -27510,7 +27510,7 @@
         <v>3</v>
       </c>
       <c r="S437">
-        <v>0.0006712000000000001</v>
+        <v>0.0006301</v>
       </c>
     </row>
     <row r="438" spans="1:19">
@@ -27557,7 +27557,7 @@
         <v>3</v>
       </c>
       <c r="S438">
-        <v>0.0013896</v>
+        <v>0.0014903</v>
       </c>
     </row>
     <row r="439" spans="1:19">
@@ -27604,7 +27604,7 @@
         <v>3</v>
       </c>
       <c r="S439">
-        <v>0.0034741</v>
+        <v>0.0037445</v>
       </c>
     </row>
     <row r="440" spans="1:19">
@@ -27663,7 +27663,7 @@
         <v>3</v>
       </c>
       <c r="S440">
-        <v>0.0044544</v>
+        <v>0.0046767</v>
       </c>
     </row>
     <row r="441" spans="1:19">
@@ -27722,7 +27722,7 @@
         <v>3</v>
       </c>
       <c r="S441">
-        <v>0.0021104</v>
+        <v>0.0021543</v>
       </c>
     </row>
     <row r="442" spans="1:19">
@@ -27781,7 +27781,7 @@
         <v>3</v>
       </c>
       <c r="S442">
-        <v>0.0013086</v>
+        <v>0.0013567</v>
       </c>
     </row>
     <row r="443" spans="1:19">
@@ -27828,7 +27828,7 @@
         <v>3</v>
       </c>
       <c r="S443">
-        <v>0.0005155</v>
+        <v>0.0004567</v>
       </c>
     </row>
     <row r="444" spans="1:19">
@@ -27887,7 +27887,7 @@
         <v>3</v>
       </c>
       <c r="S444">
-        <v>0.0033103</v>
+        <v>0.0039427</v>
       </c>
     </row>
     <row r="445" spans="1:19">
@@ -27946,7 +27946,7 @@
         <v>3</v>
       </c>
       <c r="S445">
-        <v>0.0029379</v>
+        <v>0.0031054</v>
       </c>
     </row>
     <row r="446" spans="1:19">
@@ -28005,7 +28005,7 @@
         <v>2</v>
       </c>
       <c r="S446">
-        <v>0.0035998</v>
+        <v>0.0036143</v>
       </c>
     </row>
     <row r="447" spans="1:19">
@@ -28052,7 +28052,7 @@
         <v>3</v>
       </c>
       <c r="S447">
-        <v>0.0018405</v>
+        <v>0.001879</v>
       </c>
     </row>
     <row r="448" spans="1:19">
@@ -28099,7 +28099,7 @@
         <v>3</v>
       </c>
       <c r="S448">
-        <v>0.0021075</v>
+        <v>0.0020296</v>
       </c>
     </row>
     <row r="449" spans="1:19">
@@ -28146,7 +28146,7 @@
         <v>3</v>
       </c>
       <c r="S449">
-        <v>0.0016377</v>
+        <v>0.0015754</v>
       </c>
     </row>
     <row r="450" spans="1:19">
@@ -28205,7 +28205,7 @@
         <v>3</v>
       </c>
       <c r="S450">
-        <v>0.0021217</v>
+        <v>0.0021498</v>
       </c>
     </row>
     <row r="451" spans="1:19">
@@ -28264,7 +28264,7 @@
         <v>3</v>
       </c>
       <c r="S451">
-        <v>0.0028845</v>
+        <v>0.0030308</v>
       </c>
     </row>
   </sheetData>
